--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC90A48-98D9-4C9B-BC4D-4DAA11DB0477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE8F28-816E-464D-89B9-4D1E93466872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22650" yWindow="4215" windowWidth="27810" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26655" yWindow="4380" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qubit10" sheetId="1" r:id="rId1"/>
+    <sheet name="12" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Bench</t>
   </si>
@@ -66,6 +67,21 @@
   </si>
   <si>
     <t>Original Depth Leave</t>
+  </si>
+  <si>
+    <t>IQP10</t>
+  </si>
+  <si>
+    <t>qft10</t>
+  </si>
+  <si>
+    <t>BV12</t>
+  </si>
+  <si>
+    <t>IQP12</t>
+  </si>
+  <si>
+    <t>qft12</t>
   </si>
 </sst>
 </file>
@@ -389,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +575,603 @@
         <v>0.19298245614035092</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <f>1 - (F6+E6)/C6</f>
+        <v>0.1607142857142857</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> 1 -G6/C6</f>
+        <v>0.2678571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E13" si="2">C7-D7</f>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <f>1 - (F7+E7)/C7</f>
+        <v>0.1607142857142857</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> 1 -G7/C7</f>
+        <v>0.2678571428571429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <f>1 - (F8+E8)/C8</f>
+        <v>0.125</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> 1 -G8/C8</f>
+        <v>0.1964285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <f>1 - (F9+E9)/C9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> 1 -G9/C9</f>
+        <v>5.3571428571428603E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>1 - (F10+E10)/C10</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> 1 -G10/C10</f>
+        <v>0.32499999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f>1 - (F11+E11)/C11</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> 1 -G11/C11</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f>1 - (F12+E12)/C12</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> 1 -G12/C12</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <f>1 - (F13+E13)/C13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> 1 -G13/C13</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E5" si="0">C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <f>1 - (F2+E2)/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <f xml:space="preserve"> 1 -G2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f>1 - (F3+E3)/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f xml:space="preserve"> 1 -G3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" ref="H4:H5" si="1">1 - (F4+E4)/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" ref="I4:I5" si="2" xml:space="preserve"> 1 -G4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="e">
+        <f>1 - (F6+E6)/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f xml:space="preserve"> 1 -G6/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E13" si="3">C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="e">
+        <f>1 - (F7+E7)/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f xml:space="preserve"> 1 -G7/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="e">
+        <f>1 - (F8+E8)/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f xml:space="preserve"> 1 -G8/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f>1 - (F9+E9)/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f xml:space="preserve"> 1 -G9/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <f>1 - (F10+E10)/C10</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> 1 -G10/C10</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <f>1 - (F11+E11)/C11</f>
+        <v>0.1875</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> 1 -G11/C11</f>
+        <v>0.27083333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <f>1 - (F12+E12)/C12</f>
+        <v>0.1875</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> 1 -G12/C12</f>
+        <v>0.22916666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <f>1 - (F13+E13)/C13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> 1 -G13/C13</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE8F28-816E-464D-89B9-4D1E93466872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD068ED-C8B4-4568-962F-2A5EB09CFC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26655" yWindow="4380" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2805" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Qubit10" sheetId="1" r:id="rId1"/>
-    <sheet name="12" sheetId="2" r:id="rId2"/>
+    <sheet name="7" sheetId="3" r:id="rId1"/>
+    <sheet name="Qubit10" sheetId="1" r:id="rId2"/>
+    <sheet name="12" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -404,6 +405,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -599,11 +612,11 @@
         <v>41</v>
       </c>
       <c r="H6">
-        <f>1 - (F6+E6)/C6</f>
+        <f t="shared" ref="H6:H13" si="2">1 - (F6+E6)/C6</f>
         <v>0.1607142857142857</v>
       </c>
       <c r="I6">
-        <f xml:space="preserve"> 1 -G6/C6</f>
+        <f t="shared" ref="I6:I13" si="3" xml:space="preserve"> 1 -G6/C6</f>
         <v>0.2678571428571429</v>
       </c>
     </row>
@@ -621,7 +634,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="2">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -631,11 +644,11 @@
         <v>41</v>
       </c>
       <c r="H7">
-        <f>1 - (F7+E7)/C7</f>
+        <f t="shared" si="2"/>
         <v>0.1607142857142857</v>
       </c>
       <c r="I7">
-        <f xml:space="preserve"> 1 -G7/C7</f>
+        <f t="shared" si="3"/>
         <v>0.2678571428571429</v>
       </c>
     </row>
@@ -653,7 +666,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F8">
@@ -663,11 +676,11 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <f>1 - (F8+E8)/C8</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="I8">
-        <f xml:space="preserve"> 1 -G8/C8</f>
+        <f t="shared" si="3"/>
         <v>0.1964285714285714</v>
       </c>
     </row>
@@ -685,7 +698,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -695,11 +708,11 @@
         <v>53</v>
       </c>
       <c r="H9">
-        <f>1 - (F9+E9)/C9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f xml:space="preserve"> 1 -G9/C9</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
@@ -717,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -727,11 +740,11 @@
         <v>27</v>
       </c>
       <c r="H10">
-        <f>1 - (F10+E10)/C10</f>
+        <f t="shared" si="2"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I10">
-        <f xml:space="preserve"> 1 -G10/C10</f>
+        <f t="shared" si="3"/>
         <v>0.32499999999999996</v>
       </c>
     </row>
@@ -749,7 +762,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -759,11 +772,11 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <f>1 - (F11+E11)/C11</f>
+        <f t="shared" si="2"/>
         <v>0.17500000000000004</v>
       </c>
       <c r="I11">
-        <f xml:space="preserve"> 1 -G11/C11</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -781,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -791,11 +804,11 @@
         <v>32</v>
       </c>
       <c r="H12">
-        <f>1 - (F12+E12)/C12</f>
+        <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="I12">
-        <f xml:space="preserve"> 1 -G12/C12</f>
+        <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -813,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -823,11 +836,11 @@
         <v>38</v>
       </c>
       <c r="H13">
-        <f>1 - (F13+E13)/C13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f xml:space="preserve"> 1 -G13/C13</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -837,12 +850,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,17 +983,29 @@
       <c r="B6">
         <v>36</v>
       </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
       <c r="E6">
         <f>C6-D6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" t="e">
-        <f>1 - (F6+E6)/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
-        <f xml:space="preserve"> 1 -G6/C6</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H13" si="3">1 - (F6+E6)/C6</f>
+        <v>0.20270270270270274</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I13" si="4" xml:space="preserve"> 1 -G6/C6</f>
+        <v>0.28378378378378377</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -990,17 +1015,29 @@
       <c r="B7">
         <v>32</v>
       </c>
+      <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="3">C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
-        <f>1 - (F7+E7)/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
-        <f xml:space="preserve"> 1 -G7/C7</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="E7:E13" si="5">C7-D7</f>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.20270270270270274</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.28378378378378377</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1010,17 +1047,29 @@
       <c r="B8">
         <v>28</v>
       </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
-        <f>1 - (F8+E8)/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
-        <f xml:space="preserve"> 1 -G8/C8</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.14864864864864868</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270274</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1030,17 +1079,29 @@
       <c r="B9">
         <v>23</v>
       </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
       <c r="E9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>67</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" t="e">
-        <f>1 - (F9+E9)/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
-        <f xml:space="preserve"> 1 -G9/C9</f>
-        <v>#DIV/0!</v>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>9.4594594594594628E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1057,7 +1118,7 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -1067,11 +1128,11 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <f>1 - (F10+E10)/C10</f>
+        <f t="shared" si="3"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="I10">
-        <f xml:space="preserve"> 1 -G10/C10</f>
+        <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -1089,7 +1150,7 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -1099,11 +1160,11 @@
         <v>35</v>
       </c>
       <c r="H11">
-        <f>1 - (F11+E11)/C11</f>
+        <f t="shared" si="3"/>
         <v>0.1875</v>
       </c>
       <c r="I11">
-        <f xml:space="preserve"> 1 -G11/C11</f>
+        <f t="shared" si="4"/>
         <v>0.27083333333333337</v>
       </c>
     </row>
@@ -1121,7 +1182,7 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -1131,11 +1192,11 @@
         <v>37</v>
       </c>
       <c r="H12">
-        <f>1 - (F12+E12)/C12</f>
+        <f t="shared" si="3"/>
         <v>0.1875</v>
       </c>
       <c r="I12">
-        <f xml:space="preserve"> 1 -G12/C12</f>
+        <f t="shared" si="4"/>
         <v>0.22916666666666663</v>
       </c>
     </row>
@@ -1153,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -1163,11 +1224,11 @@
         <v>46</v>
       </c>
       <c r="H13">
-        <f>1 - (F13+E13)/C13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f xml:space="preserve"> 1 -G13/C13</f>
+        <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD068ED-C8B4-4568-962F-2A5EB09CFC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130EA78-DC1E-4662-B09E-5B8C8EC87BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2805" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="3375" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>Bench</t>
   </si>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,10 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,19 +901,31 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E6" si="0">C2-D2</f>
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
         <v>36</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E5" si="0">C2-D2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="e">
+      <c r="H2">
         <f>1 - (F2+E2)/C2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
+        <v>0.32352941176470584</v>
+      </c>
+      <c r="I2">
         <f xml:space="preserve"> 1 -G2/C2</f>
-        <v>#DIV/0!</v>
+        <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,19 +933,31 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" t="e">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3">
         <f>1 - (F3+E3)/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
+        <v>0.26470588235294112</v>
+      </c>
+      <c r="I3">
         <f xml:space="preserve"> 1 -G3/C3</f>
-        <v>#DIV/0!</v>
+        <v>0.42647058823529416</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,19 +965,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" ref="H4:H5" si="1">1 - (F4+E4)/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" ref="I4:I5" si="2" xml:space="preserve"> 1 -G4/C4</f>
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <f>1 - (F4+E4)/C4</f>
+        <v>0.20588235294117652</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> 1 -G4/C4</f>
+        <v>0.36764705882352944</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -961,51 +997,63 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="1">1 - (F5+E5)/C5</f>
+        <v>0.13235294117647056</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="2" xml:space="preserve"> 1 -G5/C5</f>
+        <v>0.29411764705882348</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>66</v>
-      </c>
-      <c r="E6">
-        <f>C6-D6</f>
-        <v>8</v>
-      </c>
       <c r="F6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="3">1 - (F6+E6)/C6</f>
-        <v>0.20270270270270274</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I13" si="4" xml:space="preserve"> 1 -G6/C6</f>
-        <v>0.28378378378378377</v>
+        <f t="shared" si="2"/>
+        <v>0.16176470588235292</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1013,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>74</v>
@@ -1022,7 +1070,7 @@
         <v>66</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="5">C7-D7</f>
+        <f>C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -1032,11 +1080,11 @@
         <v>53</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H7:H14" si="3">1 - (F7+E7)/C7</f>
         <v>0.20270270270270274</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I7:I14" si="4" xml:space="preserve"> 1 -G7/C7</f>
         <v>0.28378378378378377</v>
       </c>
     </row>
@@ -1045,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>74</v>
@@ -1054,22 +1102,22 @@
         <v>66</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E8:E14" si="5">C8-D8</f>
         <v>8</v>
       </c>
       <c r="F8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.14864864864864868</v>
+        <v>0.20270270270270274</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>0.20270270270270274</v>
+        <v>0.28378378378378377</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>74</v>
@@ -1090,50 +1138,50 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G9">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.14864864864864868</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>9.4594594594594628E-2</v>
+        <v>0.20270270270270274</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>0.20833333333333337</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>9.4594594594594628E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1141,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>48</v>
@@ -1154,18 +1202,18 @@
         <v>6</v>
       </c>
       <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
         <v>33</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>0.27083333333333337</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -1189,7 +1237,7 @@
         <v>33</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
@@ -1197,7 +1245,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>0.22916666666666663</v>
+        <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1205,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -1218,16 +1266,48 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.22916666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130EA78-DC1E-4662-B09E-5B8C8EC87BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA4E4A-2A37-4DE5-9A13-023FD93A8EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="3375" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23715" yWindow="3870" windowWidth="27810" windowHeight="16635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7" sheetId="3" r:id="rId1"/>
+    <sheet name="5" sheetId="4" r:id="rId1"/>
     <sheet name="Qubit10" sheetId="1" r:id="rId2"/>
     <sheet name="12" sheetId="2" r:id="rId3"/>
+    <sheet name="15" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -38,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>Bench</t>
   </si>
   <si>
-    <t>Row</t>
-  </si>
-  <si>
     <t>Original Depth</t>
   </si>
   <si>
@@ -61,28 +59,163 @@
     <t>Improvement</t>
   </si>
   <si>
-    <t>BV10</t>
-  </si>
-  <si>
-    <t>Original Depth WL</t>
-  </si>
-  <si>
-    <t>Original Depth Leave</t>
-  </si>
-  <si>
-    <t>IQP10</t>
-  </si>
-  <si>
-    <t>qft10</t>
-  </si>
-  <si>
-    <t>BV12</t>
-  </si>
-  <si>
-    <t>IQP12</t>
-  </si>
-  <si>
-    <t>qft12</t>
+    <t>BV5(9)</t>
+  </si>
+  <si>
+    <t>BV5(11)</t>
+  </si>
+  <si>
+    <t>BV5(13)</t>
+  </si>
+  <si>
+    <t>BV5(15)</t>
+  </si>
+  <si>
+    <t>IQP5(15)</t>
+  </si>
+  <si>
+    <t>IQP5(13)</t>
+  </si>
+  <si>
+    <t>IQP5(11)</t>
+  </si>
+  <si>
+    <t>IQP5(9)</t>
+  </si>
+  <si>
+    <t>qft5(15)</t>
+  </si>
+  <si>
+    <t>qft5(13)</t>
+  </si>
+  <si>
+    <t>qft5(11)</t>
+  </si>
+  <si>
+    <t>qft5(9)</t>
+  </si>
+  <si>
+    <t>Scheduling Depth</t>
+  </si>
+  <si>
+    <t>Sch Depth WL</t>
+  </si>
+  <si>
+    <t>Schedule Depth Leave</t>
+  </si>
+  <si>
+    <t>Sch improvement</t>
+  </si>
+  <si>
+    <t>Leaves improvement</t>
+  </si>
+  <si>
+    <t>BV10(19)</t>
+  </si>
+  <si>
+    <t>BV10(22)</t>
+  </si>
+  <si>
+    <t>BV10(26)</t>
+  </si>
+  <si>
+    <t>BV10(30)</t>
+  </si>
+  <si>
+    <t>IQP10(30)</t>
+  </si>
+  <si>
+    <t>IQP10(26)</t>
+  </si>
+  <si>
+    <t>IQP10(22)</t>
+  </si>
+  <si>
+    <t>IQP10(19)</t>
+  </si>
+  <si>
+    <t>qft10(30)</t>
+  </si>
+  <si>
+    <t>qft10(19)</t>
+  </si>
+  <si>
+    <t>qft10(22)</t>
+  </si>
+  <si>
+    <t>qft10(26)</t>
+  </si>
+  <si>
+    <t>BV12(23)</t>
+  </si>
+  <si>
+    <t>BV12(26)</t>
+  </si>
+  <si>
+    <t>BV12(30)</t>
+  </si>
+  <si>
+    <t>IQP12(30)</t>
+  </si>
+  <si>
+    <t>IQP12(23)</t>
+  </si>
+  <si>
+    <t>IQP12(26)</t>
+  </si>
+  <si>
+    <t>IQP12(34)</t>
+  </si>
+  <si>
+    <t>qft12(34)</t>
+  </si>
+  <si>
+    <t>qft12(26)</t>
+  </si>
+  <si>
+    <t>qft12(30)</t>
+  </si>
+  <si>
+    <t>qft12(23)</t>
+  </si>
+  <si>
+    <t>BV12(42)</t>
+  </si>
+  <si>
+    <t>BV12(38)</t>
+  </si>
+  <si>
+    <t>BV12(34)</t>
+  </si>
+  <si>
+    <t>BV15(29)</t>
+  </si>
+  <si>
+    <t>BV15(35)</t>
+  </si>
+  <si>
+    <t>BV15(40)</t>
+  </si>
+  <si>
+    <t>BV15(45)</t>
+  </si>
+  <si>
+    <t>BV15(50)</t>
+  </si>
+  <si>
+    <t>BV15(55)</t>
+  </si>
+  <si>
+    <t>qft15(29)</t>
+  </si>
+  <si>
+    <t>qft12(33)</t>
+  </si>
+  <si>
+    <t>qft12(38)</t>
+  </si>
+  <si>
+    <t>qft15(43)</t>
   </si>
 </sst>
 </file>
@@ -405,23 +538,947 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="M1:U13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>(B2-C2)/B2</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I2">
+        <f>(D2-F2)/B2</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J2">
+        <f>K2-H2-I2</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> 1 -G2/B2</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <f>N2-O2</f>
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <f>(O2-Q2)/N2</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="T2">
+        <f>(P2-R2+Q2)/N2</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1 -R2/N2</f>
+        <v>0.64285714285714279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">(B3-C3)/B3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">(D3-F3)/B3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J3">
+        <f>K3-H3-I3</f>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> 1 -G3/B3</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3</f>
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S13" si="2">(O3-Q3)/N3</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T13" si="3">(P3-R3+Q3)/N3</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U13" si="4" xml:space="preserve"> 1 -R3/N3</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="5">K4-H4-I4</f>
+        <v>0.22222222222222229</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> 1 -G4/B4</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4</f>
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> 1 -G5/B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <f>N5-O5</f>
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>0.3571428571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> 1 -G6/B6</f>
+        <v>0.375</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <f>N6-O6</f>
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>0.31818181818181823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E13" si="6">C7-D7</f>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> 1 -G7/B7</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P13" si="7">N7-O7</f>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> 1 -G8/B8</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <f>(O8-Q8)/N8</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> 1 -G9/B9</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> 1 -G10/B10</f>
+        <v>0.4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> 1 -G11/B11</f>
+        <v>0.35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> 1 -G12/B12</f>
+        <v>0.25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> 1 -G13/B13</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>18</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +1492,7 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,157 +1500,350 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2">
+        <f>C2-D2</f>
         <v>13</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>31</v>
       </c>
       <c r="H2">
-        <f>1 - (F2+E2)/C2</f>
-        <v>0.26315789473684215</v>
+        <f>(B2-C2)/B2</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> 1 -G2/C2</f>
-        <v>0.45614035087719296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(D2-F2)/B2</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="J2">
+        <f>K2-H2-I2</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> 1 -G2/B2</f>
+        <v>0.63095238095238093</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>56</v>
+      </c>
+      <c r="O2">
+        <v>43</v>
+      </c>
+      <c r="P2">
+        <f>N2-O2</f>
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>28</v>
+      </c>
+      <c r="R2">
+        <v>31</v>
+      </c>
+      <c r="S2">
+        <f>(O2-Q2)/N2</f>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="T2">
+        <f>(P2-R2+Q2)/N2</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1 -R2/N2</f>
+        <v>0.4464285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
+        <f>C3-D3</f>
         <v>13</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>35</v>
       </c>
       <c r="H3">
-        <f>1 - (F3+E3)/C3</f>
-        <v>0.19298245614035092</v>
+        <f t="shared" ref="H3:H13" si="0">(B3-C3)/B3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> 1 -G3/C3</f>
-        <v>0.38596491228070173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I13" si="1">(D3-F3)/B3</f>
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="2">K3-H3-I3</f>
+        <v>0.11904761904761899</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> 1 -G3/B3</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>56</v>
+      </c>
+      <c r="O3">
+        <v>43</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3</f>
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>32</v>
+      </c>
+      <c r="R3">
+        <v>35</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S13" si="3">(O3-Q3)/N3</f>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T13" si="4">(P3-R3+Q3)/N3</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U13" si="5" xml:space="preserve"> 1 -R3/N3</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4">
+        <f>C4-D4</f>
         <v>13</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="0">1 - (F4+E4)/C4</f>
-        <v>7.0175438596491224E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="1" xml:space="preserve"> 1 -G4/C4</f>
-        <v>0.26315789473684215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.11904761904761903</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> 1 -G4/B4</f>
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4</f>
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>0.2678571428571429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
+        <f>C5-D5</f>
         <v>13</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.19298245614035092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.10714285714285715</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> 1 -G5/B5</f>
+        <v>0.44047619047619047</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>56</v>
+      </c>
+      <c r="O5">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <f>N5-O5</f>
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>43</v>
+      </c>
+      <c r="R5">
+        <v>47</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>0.1607142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>56</v>
@@ -609,23 +1859,62 @@
         <v>39</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="2">1 - (F6+E6)/C6</f>
-        <v>0.1607142857142857</v>
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I13" si="3" xml:space="preserve"> 1 -G6/C6</f>
-        <v>0.2678571428571429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>8.064516129032262E-2</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> 1 -G6/B6</f>
+        <v>0.32258064516129037</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>48</v>
+      </c>
+      <c r="P6">
+        <f>N6-O6</f>
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>39</v>
+      </c>
+      <c r="R6">
+        <v>42</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>56</v>
@@ -634,30 +1923,69 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="6">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
         <v>39</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>0.1607142857142857</v>
-      </c>
-      <c r="I7">
+        <v>8.064516129032262E-2</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> 1 -G7/B7</f>
+        <v>0.32258064516129037</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>56</v>
+      </c>
+      <c r="O7">
+        <v>48</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P13" si="7">N7-O7</f>
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>39</v>
+      </c>
+      <c r="R7">
+        <v>42</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
-        <v>0.2678571428571429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>56</v>
@@ -666,30 +1994,69 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F8">
         <v>41</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="2"/>
+        <v>9.6774193548387052E-2</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> 1 -G8/B8</f>
+        <v>0.30645161290322576</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>56</v>
+      </c>
+      <c r="O8">
+        <v>48</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>43</v>
+      </c>
+      <c r="S8">
+        <f>(O8-Q8)/N8</f>
         <v>0.125</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.1964285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>0.2321428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>56</v>
@@ -698,7 +2065,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -708,20 +2075,59 @@
         <v>53</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
+        <v>4.8387096774193533E-2</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> 1 -G9/B9</f>
+        <v>0.14516129032258063</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>56</v>
+      </c>
+      <c r="O9">
+        <v>48</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>53</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -730,30 +2136,69 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F10">
         <v>26</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I10">
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> 1 -G10/B10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>40</v>
+      </c>
+      <c r="O10">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <v>28</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="3"/>
-        <v>0.32499999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -762,30 +2207,69 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F11">
         <v>27</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.17500000000000004</v>
-      </c>
-      <c r="I11">
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> 1 -G11/B11</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+      <c r="R11">
+        <v>29</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -794,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -804,20 +2288,59 @@
         <v>32</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="I12">
+        <v>4.9999999999999961E-2</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> 1 -G12/B12</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>28</v>
+      </c>
+      <c r="R12">
+        <v>32</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -826,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -836,11 +2359,50 @@
         <v>38</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> 1 -G13/B13</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>34</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>34</v>
+      </c>
+      <c r="R13">
+        <v>38</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -852,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,449 +2429,1518 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E4" si="0">C2-D2</f>
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="1">(B2-C2)/B2</f>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I3" si="2">(D2-F2)/B2</f>
+        <v>0.24468085106382978</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J3" si="3">K2-H2-I2</f>
+        <v>0.11702127659574471</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K3" si="4" xml:space="preserve"> 1 -G2/B2</f>
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>68</v>
+      </c>
+      <c r="O2">
+        <v>55</v>
+      </c>
+      <c r="P2">
+        <f>N2-O2</f>
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>34</v>
+      </c>
+      <c r="S2">
+        <f>(O2-Q2)/N2</f>
+        <v>0.33823529411764708</v>
+      </c>
+      <c r="T2">
+        <f>(P2-R2+Q2)/N2</f>
+        <v>0.16176470588235295</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> 1 -R2/N2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="3"/>
+        <v>0.10638297872340421</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="O3">
+        <v>55</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3</f>
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>38</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S15" si="5">(O3-Q3)/N3</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T15" si="6">(P3-R3+Q3)/N3</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U15" si="7" xml:space="preserve"> 1 -R3/N3</f>
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <f>(B4-C4)/B4</f>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I4">
+        <f>(D4-F4)/B4</f>
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="J4">
+        <f>K4-H4-I4</f>
+        <v>0.10638297872340427</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> 1 -G4/B4</f>
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>68</v>
+      </c>
+      <c r="O4">
+        <v>55</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4</f>
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>39</v>
+      </c>
+      <c r="R4">
+        <v>42</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H15" si="8">(B5-C5)/B5</f>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I15" si="9">(D5-F5)/B5</f>
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J15" si="10">K5-H5-I5</f>
+        <v>0.10638297872340433</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> 1 -G5/B5</f>
+        <v>0.5106382978723405</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>68</v>
+      </c>
+      <c r="O5">
+        <v>55</v>
+      </c>
+      <c r="P5">
+        <f>N5-O5</f>
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>43</v>
+      </c>
+      <c r="R5">
+        <v>46</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>0.32352941176470584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="8"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="10"/>
+        <v>0.10638297872340427</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> 1 -G6/B6</f>
+        <v>0.43617021276595747</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>68</v>
+      </c>
+      <c r="O6">
+        <v>55</v>
+      </c>
+      <c r="P6">
+        <f>N6-O6</f>
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="R6">
+        <v>53</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>0.22058823529411764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="10"/>
+        <v>9.5744680851063857E-2</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> 1 -G7/B7</f>
+        <v>0.37234042553191493</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <v>55</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P15" si="11">N7-O7</f>
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>59</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>0.13235294117647056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="10"/>
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> 1 -G8/B8</f>
+        <v>0.29487179487179482</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>66</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>53</v>
+      </c>
+      <c r="R8">
+        <v>55</v>
+      </c>
+      <c r="S8">
+        <f>(O8-Q8)/N8</f>
+        <v>0.17567567567567569</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>0.2567567567567568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E15" si="12">C9-D9</f>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="10"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> 1 -G9/B9</f>
+        <v>0.26923076923076927</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>74</v>
+      </c>
+      <c r="O9">
+        <v>66</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>53</v>
+      </c>
+      <c r="R9">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>0.17567567567567569</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>0.22972972972972971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="10"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> 1 -G10/B10</f>
+        <v>0.20512820512820518</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>74</v>
+      </c>
+      <c r="O10">
+        <v>66</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>58</v>
+      </c>
+      <c r="R10">
+        <v>62</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="10"/>
+        <v>3.8461538461538478E-2</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> 1 -G11/B11</f>
+        <v>8.9743589743589758E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>74</v>
+      </c>
+      <c r="O11">
+        <v>66</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>66</v>
+      </c>
+      <c r="R11">
+        <v>71</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>4.0540540540540571E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333287E-2</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> 1 -G12/B12</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>48</v>
+      </c>
+      <c r="O12">
+        <v>42</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>32</v>
+      </c>
+      <c r="R12">
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> 1 -G13/B13</f>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>42</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>33</v>
+      </c>
+      <c r="R13">
+        <v>35</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>0.27083333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="K14">
+        <f xml:space="preserve"> 1 -G14/B14</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>36</v>
+      </c>
+      <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="K15">
+        <f xml:space="preserve"> 1 -G15/B15</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>48</v>
+      </c>
+      <c r="O15">
+        <v>42</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>42</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <f>B2-C2</f>
+        <v>13</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E6" si="0">C2-D2</f>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <f>(C2-E2)/B2</f>
+        <v>0.35555555555555557</v>
       </c>
       <c r="H2">
-        <f>1 - (F2+E2)/C2</f>
-        <v>0.32352941176470584</v>
+        <f>(D2-F2+E2)/B2</f>
+        <v>0.12222222222222222</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> 1 -G2/C2</f>
-        <v>0.47058823529411764</v>
+        <f xml:space="preserve"> 1 -F2/B2</f>
+        <v>0.47777777777777775</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <f>B3-C3</f>
+        <v>13</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <f t="shared" ref="G3:G7" si="0">(C3-E3)/B3</f>
+        <v>0.31111111111111112</v>
       </c>
       <c r="H3">
-        <f>1 - (F3+E3)/C3</f>
-        <v>0.26470588235294112</v>
+        <f t="shared" ref="H3:H7" si="1">(D3-F3+E3)/B3</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> 1 -G3/C3</f>
-        <v>0.42647058823529416</v>
+        <f t="shared" ref="I3:I7" si="2" xml:space="preserve"> 1 -F3/B3</f>
+        <v>0.42222222222222228</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <f>B4-C4</f>
+        <v>13</v>
       </c>
       <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>43</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="H4">
-        <f>1 - (F4+E4)/C4</f>
-        <v>0.20588235294117652</v>
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> 1 -G4/C4</f>
-        <v>0.36764705882352944</v>
+        <f t="shared" si="2"/>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <f>B5-C5</f>
+        <v>13</v>
       </c>
       <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>48</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="1">1 - (F5+E5)/C5</f>
-        <v>0.13235294117647056</v>
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I6" si="2" xml:space="preserve"> 1 -G5/C5</f>
-        <v>0.29411764705882348</v>
+        <f t="shared" si="2"/>
+        <v>0.31111111111111112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
         <v>68</v>
       </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>57</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.16176470588235292</v>
+        <v>0.24444444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <f t="shared" ref="D7" si="3">B7-C7</f>
+        <v>13</v>
       </c>
       <c r="E7">
-        <f>C7-D7</f>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H14" si="3">1 - (F7+E7)/C7</f>
-        <v>0.20270270270270274</v>
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I14" si="4" xml:space="preserve"> 1 -G7/C7</f>
-        <v>0.28378378378378377</v>
+        <f t="shared" si="2"/>
+        <v>0.11111111111111116</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <f>B8-C8</f>
+        <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E14" si="5">C8-D8</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>53</v>
+        <f>(C8-E8)/B8</f>
+        <v>0.21666666666666667</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.20270270270270274</v>
+        <f>(D8-F8+E8)/B8</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
-        <v>0.28378378378378377</v>
+        <f xml:space="preserve"> 1 -F8/B8</f>
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <f>B9-C9</f>
+        <v>6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>59</v>
+        <f>(C9-E9)/B9</f>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.14864864864864868</v>
+        <f>(D9-F9+E9)/B9</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0.20270270270270274</v>
+        <f xml:space="preserve"> 1 -F9/B9</f>
+        <v>0.26666666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <f>B10-C10</f>
+        <v>6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>67</v>
+        <f>(C10-E10)/B10</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(D10-F10+E10)/B10</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
-        <v>9.4594594594594628E-2</v>
+        <f xml:space="preserve"> 1 -F10/B10</f>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <f>B11-C11</f>
+        <v>6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <f>(C11-E11)/B11</f>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.20833333333333337</v>
+        <f>(D11-F11+E11)/B11</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <f xml:space="preserve"> 1 -F11/B11</f>
+        <v>3.3333333333333326E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>35</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0.1875</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>0.27083333333333337</v>
+        <f>B12-C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="e">
+        <f>(C12-E12)/B12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f>(D12-F12+E12)/B12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f xml:space="preserve"> 1 -F12/B12</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>37</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.1875</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>0.22916666666666663</v>
+        <f>B13-C13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="e">
+        <f>(C13-E13)/B13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f>(D13-F13+E13)/B13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f xml:space="preserve"> 1 -F13/B13</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>42</v>
-      </c>
-      <c r="G14">
-        <v>46</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>4.166666666666663E-2</v>
+        <f>B14-C14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="e">
+        <f>(C14-E14)/B14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f>(D14-F14+E14)/B14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <f xml:space="preserve"> 1 -F14/B14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <f>B15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="e">
+        <f>(C15-E15)/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <f>(D15-F15+E15)/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f xml:space="preserve"> 1 -F15/B15</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA4E4A-2A37-4DE5-9A13-023FD93A8EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF77848E-B195-4B87-8CE6-FA0BCE26BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23715" yWindow="3870" windowWidth="27810" windowHeight="16635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="5115" windowWidth="22800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Bench</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>qft15(43)</t>
+  </si>
+  <si>
+    <t>IQP12(29)</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 1 -G2/B2</f>
+        <f t="shared" ref="K2:K13" si="0" xml:space="preserve"> 1 -G2/B2</f>
         <v>0.72222222222222221</v>
       </c>
       <c r="M2" t="s">
@@ -710,11 +713,11 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">(B3-C3)/B3</f>
+        <f t="shared" ref="H3:H13" si="1">(B3-C3)/B3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="1">(D3-F3)/B3</f>
+        <f t="shared" ref="I3:I13" si="2">(D3-F3)/B3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="J3">
@@ -722,7 +725,7 @@
         <v>0.22222222222222232</v>
       </c>
       <c r="K3">
-        <f xml:space="preserve"> 1 -G3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="M3" t="s">
@@ -745,15 +748,15 @@
         <v>12</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S13" si="2">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S13" si="3">(O3-Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T13" si="3">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T13" si="4">(P3-R3+Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U13" si="4" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U13" si="5" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -781,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="6">K4-H4-I4</f>
+        <v>0.22222222222222229</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J13" si="5">K4-H4-I4</f>
-        <v>0.22222222222222229</v>
-      </c>
-      <c r="K4">
-        <f xml:space="preserve"> 1 -G4/B4</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="M4" t="s">
@@ -816,15 +819,15 @@
         <v>14</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="U4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -852,19 +855,19 @@
         <v>18</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K5">
-        <f xml:space="preserve"> 1 -G5/B5</f>
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
@@ -887,15 +890,15 @@
         <v>18</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="U5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3571428571428571</v>
       </c>
     </row>
@@ -923,19 +926,19 @@
         <v>15</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="K6">
-        <f xml:space="preserve"> 1 -G6/B6</f>
         <v>0.375</v>
       </c>
       <c r="M6" t="s">
@@ -958,15 +961,15 @@
         <v>15</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31818181818181823</v>
       </c>
     </row>
@@ -984,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="6">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="7">C7-D7</f>
         <v>6</v>
       </c>
       <c r="F7">
@@ -994,19 +997,19 @@
         <v>16</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>0.12500000000000006</v>
-      </c>
-      <c r="K7">
-        <f xml:space="preserve"> 1 -G7/B7</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="M7" t="s">
@@ -1019,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P13" si="7">N7-O7</f>
+        <f t="shared" ref="P7:P13" si="8">N7-O7</f>
         <v>6</v>
       </c>
       <c r="Q7">
@@ -1029,15 +1032,15 @@
         <v>16</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="T7">
         <f t="shared" si="3"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
       <c r="U7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1055,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -1065,19 +1068,19 @@
         <v>17</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333315E-2</v>
-      </c>
-      <c r="K8">
-        <f xml:space="preserve"> 1 -G8/B8</f>
         <v>0.29166666666666663</v>
       </c>
       <c r="M8" t="s">
@@ -1090,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q8">
@@ -1104,11 +1107,11 @@
         <v>0.13636363636363635</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22727272727272729</v>
       </c>
     </row>
@@ -1126,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F9">
@@ -1136,19 +1139,19 @@
         <v>20</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="K9">
-        <f xml:space="preserve"> 1 -G9/B9</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="M9" t="s">
@@ -1161,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q9">
@@ -1171,15 +1174,15 @@
         <v>20</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0909090909090939E-2</v>
       </c>
     </row>
@@ -1197,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -1207,19 +1210,19 @@
         <v>12</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="K10">
-        <f xml:space="preserve"> 1 -G10/B10</f>
         <v>0.4</v>
       </c>
       <c r="M10" t="s">
@@ -1232,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q10">
@@ -1242,15 +1245,15 @@
         <v>12</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1268,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -1278,19 +1281,19 @@
         <v>13</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="K11">
-        <f xml:space="preserve"> 1 -G11/B11</f>
         <v>0.35</v>
       </c>
       <c r="M11" t="s">
@@ -1303,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q11">
@@ -1313,15 +1316,15 @@
         <v>13</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1339,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -1349,19 +1352,19 @@
         <v>15</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>0.15</v>
-      </c>
-      <c r="K12">
-        <f xml:space="preserve"> 1 -G12/B12</f>
         <v>0.25</v>
       </c>
       <c r="M12" t="s">
@@ -1374,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -1384,15 +1387,15 @@
         <v>15</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1410,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -1420,19 +1423,19 @@
         <v>18</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="K13">
-        <f xml:space="preserve"> 1 -G13/B13</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="M13" t="s">
@@ -1445,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -1455,15 +1458,15 @@
         <v>18</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -1478,7 +1481,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:U13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1593,7 @@
         <v>0.11904761904761904</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 1 -G2/B2</f>
+        <f t="shared" ref="K2:K13" si="0" xml:space="preserve"> 1 -G2/B2</f>
         <v>0.63095238095238093</v>
       </c>
       <c r="M2" t="s">
@@ -1649,19 +1652,19 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">(B3-C3)/B3</f>
+        <f t="shared" ref="H3:H13" si="1">(B3-C3)/B3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="1">(D3-F3)/B3</f>
+        <f t="shared" ref="I3:I13" si="2">(D3-F3)/B3</f>
         <v>0.13095238095238096</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="2">K3-H3-I3</f>
+        <f t="shared" ref="J3:J13" si="3">K3-H3-I3</f>
         <v>0.11904761904761899</v>
       </c>
       <c r="K3">
-        <f xml:space="preserve"> 1 -G3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="M3" t="s">
@@ -1684,15 +1687,15 @@
         <v>35</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S13" si="3">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S13" si="4">(O3-Q3)/N3</f>
         <v>0.19642857142857142</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T13" si="4">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T13" si="5">(P3-R3+Q3)/N3</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U13" si="5" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U13" si="6" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.375</v>
       </c>
     </row>
@@ -1720,19 +1723,19 @@
         <v>41</v>
       </c>
       <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.11904761904761903</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>5.9523809523809521E-2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0.11904761904761903</v>
-      </c>
-      <c r="K4">
-        <f xml:space="preserve"> 1 -G4/B4</f>
         <v>0.51190476190476186</v>
       </c>
       <c r="M4" t="s">
@@ -1755,15 +1758,15 @@
         <v>41</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="U4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2678571428571429</v>
       </c>
     </row>
@@ -1791,19 +1794,19 @@
         <v>47</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.10714285714285715</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0.10714285714285715</v>
-      </c>
-      <c r="K5">
-        <f xml:space="preserve"> 1 -G5/B5</f>
         <v>0.44047619047619047</v>
       </c>
       <c r="M5" t="s">
@@ -1826,15 +1829,15 @@
         <v>47</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="U5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1607142857142857</v>
       </c>
     </row>
@@ -1862,19 +1865,19 @@
         <v>42</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>8.064516129032262E-2</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.14516129032258066</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>8.064516129032262E-2</v>
-      </c>
-      <c r="K6">
-        <f xml:space="preserve"> 1 -G6/B6</f>
         <v>0.32258064516129037</v>
       </c>
       <c r="M6" t="s">
@@ -1897,15 +1900,15 @@
         <v>42</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1923,7 +1926,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="6">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="7">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -1933,19 +1936,19 @@
         <v>42</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8.064516129032262E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.14516129032258066</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>8.064516129032262E-2</v>
-      </c>
-      <c r="K7">
-        <f xml:space="preserve"> 1 -G7/B7</f>
         <v>0.32258064516129037</v>
       </c>
       <c r="M7" t="s">
@@ -1958,7 +1961,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P13" si="7">N7-O7</f>
+        <f t="shared" ref="P7:P13" si="8">N7-O7</f>
         <v>8</v>
       </c>
       <c r="Q7">
@@ -1968,15 +1971,15 @@
         <v>42</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="T7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1994,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F8">
@@ -2004,19 +2007,19 @@
         <v>43</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>9.6774193548387052E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.11290322580645161</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>9.6774193548387052E-2</v>
-      </c>
-      <c r="K8">
-        <f xml:space="preserve"> 1 -G8/B8</f>
         <v>0.30645161290322576</v>
       </c>
       <c r="M8" t="s">
@@ -2029,7 +2032,7 @@
         <v>48</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q8">
@@ -2043,11 +2046,11 @@
         <v>0.125</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="U8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2321428571428571</v>
       </c>
     </row>
@@ -2065,7 +2068,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -2075,19 +2078,19 @@
         <v>53</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>4.8387096774193533E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>4.8387096774193533E-2</v>
-      </c>
-      <c r="K9">
-        <f xml:space="preserve"> 1 -G9/B9</f>
         <v>0.14516129032258063</v>
       </c>
       <c r="M9" t="s">
@@ -2100,7 +2103,7 @@
         <v>48</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Q9">
@@ -2110,15 +2113,15 @@
         <v>53</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
@@ -2136,7 +2139,7 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -2146,19 +2149,19 @@
         <v>28</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="K10">
-        <f xml:space="preserve"> 1 -G10/B10</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="M10" t="s">
@@ -2171,7 +2174,7 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q10">
@@ -2181,15 +2184,15 @@
         <v>28</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -2207,7 +2210,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2217,19 +2220,19 @@
         <v>29</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="K11">
-        <f xml:space="preserve"> 1 -G11/B11</f>
         <v>0.27500000000000002</v>
       </c>
       <c r="M11" t="s">
@@ -2242,7 +2245,7 @@
         <v>34</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q11">
@@ -2252,15 +2255,15 @@
         <v>29</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="T11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27500000000000002</v>
       </c>
     </row>
@@ -2278,7 +2281,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -2288,19 +2291,19 @@
         <v>32</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999961E-2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999961E-2</v>
-      </c>
-      <c r="K12">
-        <f xml:space="preserve"> 1 -G12/B12</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="M12" t="s">
@@ -2313,7 +2316,7 @@
         <v>34</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -2323,15 +2326,15 @@
         <v>32</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="U12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -2349,7 +2352,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -2359,19 +2362,19 @@
         <v>38</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K13">
-        <f xml:space="preserve"> 1 -G13/B13</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M13" t="s">
@@ -2384,7 +2387,7 @@
         <v>34</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -2394,15 +2397,15 @@
         <v>38</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -2669,7 +2672,7 @@
         <v>0.10638297872340427</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> 1 -G4/B4</f>
+        <f t="shared" ref="K4:K15" si="8" xml:space="preserve"> 1 -G4/B4</f>
         <v>0.55319148936170215</v>
       </c>
       <c r="M4" t="s">
@@ -2728,19 +2731,19 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H15" si="8">(B5-C5)/B5</f>
+        <f t="shared" ref="H5:H15" si="9">(B5-C5)/B5</f>
         <v>0.27659574468085107</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="9">(D5-F5)/B5</f>
+        <f t="shared" ref="I5:I15" si="10">(D5-F5)/B5</f>
         <v>0.1276595744680851</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J15" si="10">K5-H5-I5</f>
+        <f t="shared" ref="J5:J15" si="11">K5-H5-I5</f>
         <v>0.10638297872340433</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 1 -G5/B5</f>
+        <f t="shared" si="8"/>
         <v>0.5106382978723405</v>
       </c>
       <c r="M5" t="s">
@@ -2799,19 +2802,19 @@
         <v>53</v>
       </c>
       <c r="H6">
+        <f t="shared" si="9"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="10"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="11"/>
+        <v>0.10638297872340427</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="8"/>
-        <v>0.27659574468085107</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="9"/>
-        <v>5.3191489361702128E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="10"/>
-        <v>0.10638297872340427</v>
-      </c>
-      <c r="K6">
-        <f xml:space="preserve"> 1 -G6/B6</f>
         <v>0.43617021276595747</v>
       </c>
       <c r="M6" t="s">
@@ -2870,19 +2873,19 @@
         <v>59</v>
       </c>
       <c r="H7">
+        <f t="shared" si="9"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="11"/>
+        <v>9.5744680851063857E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="8"/>
-        <v>0.27659574468085107</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="10"/>
-        <v>9.5744680851063857E-2</v>
-      </c>
-      <c r="K7">
-        <f xml:space="preserve"> 1 -G7/B7</f>
         <v>0.37234042553191493</v>
       </c>
       <c r="M7" t="s">
@@ -2895,7 +2898,7 @@
         <v>55</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P15" si="11">N7-O7</f>
+        <f t="shared" ref="P7:P15" si="12">N7-O7</f>
         <v>13</v>
       </c>
       <c r="Q7">
@@ -2941,19 +2944,19 @@
         <v>55</v>
       </c>
       <c r="H8">
+        <f t="shared" si="9"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="11"/>
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="8"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="10"/>
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="K8">
-        <f xml:space="preserve"> 1 -G8/B8</f>
         <v>0.29487179487179482</v>
       </c>
       <c r="M8" t="s">
@@ -2966,7 +2969,7 @@
         <v>66</v>
       </c>
       <c r="P8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="Q8">
@@ -3002,7 +3005,7 @@
         <v>66</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E15" si="12">C9-D9</f>
+        <f t="shared" ref="E9:E15" si="13">C9-D9</f>
         <v>8</v>
       </c>
       <c r="F9">
@@ -3012,19 +3015,19 @@
         <v>57</v>
       </c>
       <c r="H9">
+        <f t="shared" si="9"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="11"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="8"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="10"/>
-        <v>5.128205128205135E-2</v>
-      </c>
-      <c r="K9">
-        <f xml:space="preserve"> 1 -G9/B9</f>
         <v>0.26923076923076927</v>
       </c>
       <c r="M9" t="s">
@@ -3037,7 +3040,7 @@
         <v>66</v>
       </c>
       <c r="P9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="Q9">
@@ -3073,7 +3076,7 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -3083,19 +3086,19 @@
         <v>62</v>
       </c>
       <c r="H10">
+        <f t="shared" si="9"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="10"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="11"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="8"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="9"/>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="10"/>
-        <v>5.128205128205135E-2</v>
-      </c>
-      <c r="K10">
-        <f xml:space="preserve"> 1 -G10/B10</f>
         <v>0.20512820512820518</v>
       </c>
       <c r="M10" t="s">
@@ -3108,7 +3111,7 @@
         <v>66</v>
       </c>
       <c r="P10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="Q10">
@@ -3144,7 +3147,7 @@
         <v>66</v>
       </c>
       <c r="E11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="F11">
@@ -3154,19 +3157,19 @@
         <v>71</v>
       </c>
       <c r="H11">
+        <f t="shared" si="9"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="11"/>
+        <v>3.8461538461538478E-2</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="8"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="10"/>
-        <v>3.8461538461538478E-2</v>
-      </c>
-      <c r="K11">
-        <f xml:space="preserve"> 1 -G11/B11</f>
         <v>8.9743589743589758E-2</v>
       </c>
       <c r="M11" t="s">
@@ -3179,7 +3182,7 @@
         <v>66</v>
       </c>
       <c r="P11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="Q11">
@@ -3215,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -3225,19 +3228,19 @@
         <v>34</v>
       </c>
       <c r="H12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333287E-2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="9"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333287E-2</v>
-      </c>
-      <c r="K12">
-        <f xml:space="preserve"> 1 -G12/B12</f>
         <v>0.29166666666666663</v>
       </c>
       <c r="M12" t="s">
@@ -3250,7 +3253,7 @@
         <v>42</v>
       </c>
       <c r="P12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -3286,7 +3289,7 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -3296,19 +3299,19 @@
         <v>35</v>
       </c>
       <c r="H13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="10"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="11"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="9"/>
-        <v>0.1875</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="10"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="K13">
-        <f xml:space="preserve"> 1 -G13/B13</f>
         <v>0.27083333333333337</v>
       </c>
       <c r="M13" t="s">
@@ -3321,7 +3324,7 @@
         <v>42</v>
       </c>
       <c r="P13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -3357,7 +3360,7 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F14">
@@ -3367,19 +3370,19 @@
         <v>40</v>
       </c>
       <c r="H14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="10"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="K14">
-        <f xml:space="preserve"> 1 -G14/B14</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="M14" t="s">
@@ -3392,7 +3395,7 @@
         <v>42</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q14">
@@ -3428,7 +3431,7 @@
         <v>42</v>
       </c>
       <c r="E15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F15">
@@ -3438,19 +3441,19 @@
         <v>46</v>
       </c>
       <c r="H15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="J15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K15">
-        <f xml:space="preserve"> 1 -G15/B15</f>
+        <f t="shared" si="8"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M15" t="s">
@@ -3463,7 +3466,7 @@
         <v>42</v>
       </c>
       <c r="P15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q15">
@@ -3495,7 +3498,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3741,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f>B8-C8</f>
+        <f t="shared" ref="D8:D15" si="4">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -3748,15 +3751,15 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <f>(C8-E8)/B8</f>
+        <f t="shared" ref="G8:G15" si="5">(C8-E8)/B8</f>
         <v>0.21666666666666667</v>
       </c>
       <c r="H8">
-        <f>(D8-F8+E8)/B8</f>
+        <f t="shared" ref="H8:H15" si="6">(D8-F8+E8)/B8</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I8">
-        <f xml:space="preserve"> 1 -F8/B8</f>
+        <f t="shared" ref="I8:I15" si="7" xml:space="preserve"> 1 -F8/B8</f>
         <v>0.28333333333333333</v>
       </c>
     </row>
@@ -3771,7 +3774,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <f>B9-C9</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E9">
@@ -3781,15 +3784,15 @@
         <v>44</v>
       </c>
       <c r="G9">
-        <f>(C9-E9)/B9</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="H9">
-        <f>(D9-F9+E9)/B9</f>
+        <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9">
-        <f xml:space="preserve"> 1 -F9/B9</f>
+        <f t="shared" si="7"/>
         <v>0.26666666666666672</v>
       </c>
     </row>
@@ -3804,7 +3807,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <f>B10-C10</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E10">
@@ -3814,15 +3817,15 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <f>(C10-E10)/B10</f>
+        <f t="shared" si="5"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="H10">
-        <f>(D10-F10+E10)/B10</f>
+        <f t="shared" si="6"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I10">
-        <f xml:space="preserve"> 1 -F10/B10</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
@@ -3837,7 +3840,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <f>B11-C11</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E11">
@@ -3847,15 +3850,15 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <f>(C11-E11)/B11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>(D11-F11+E11)/B11</f>
+        <f t="shared" si="6"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11">
-        <f xml:space="preserve"> 1 -F11/B11</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333326E-2</v>
       </c>
     </row>
@@ -3863,84 +3866,108 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
       <c r="D12">
-        <f>B12-C12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="e">
-        <f>(C12-E12)/B12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
-        <f>(D12-F12+E12)/B12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" t="e">
-        <f xml:space="preserve"> 1 -F12/B12</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
+      <c r="B13">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
       <c r="D13">
-        <f>B13-C13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="e">
-        <f>(C13-E13)/B13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" t="e">
-        <f>(D13-F13+E13)/B13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
-        <f xml:space="preserve"> 1 -F13/B13</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
+      <c r="B14">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
       <c r="D14">
-        <f>B14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="e">
-        <f>(C14-E14)/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" t="e">
-        <f>(D14-F14+E14)/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" t="e">
-        <f xml:space="preserve"> 1 -F14/B14</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
       </c>
       <c r="D15">
-        <f>B15-C15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="e">
-        <f>(C15-E15)/B15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" t="e">
-        <f>(D15-F15+E15)/B15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" t="e">
-        <f xml:space="preserve"> 1 -F15/B15</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF77848E-B195-4B87-8CE6-FA0BCE26BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49609EAB-D990-4F38-9DA7-DBFCA2410D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="5115" windowWidth="22800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
   <si>
     <t>Bench</t>
   </si>
@@ -218,7 +218,28 @@
     <t>qft15(43)</t>
   </si>
   <si>
-    <t>IQP12(29)</t>
+    <t>IQP15(29)</t>
+  </si>
+  <si>
+    <t>IQP15(38)</t>
+  </si>
+  <si>
+    <t>IQP15(32)</t>
+  </si>
+  <si>
+    <t>IQP15(35)</t>
+  </si>
+  <si>
+    <t>hlf7(13)</t>
+  </si>
+  <si>
+    <t>hlf7(15)</t>
+  </si>
+  <si>
+    <t>hlf7(18)</t>
+  </si>
+  <si>
+    <t>hlf7(21)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="M1:U13"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">(B3-C3)/B3</f>
+        <f t="shared" ref="H3:H14" si="1">(B3-C3)/B3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="I3">
@@ -748,15 +769,15 @@
         <v>12</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S13" si="3">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S17" si="3">(O3-Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T13" si="4">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T17" si="4">(P3-R3+Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U13" si="5" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U17" si="5" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -1022,7 +1043,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P13" si="8">N7-O7</f>
+        <f t="shared" ref="P7:P17" si="8">N7-O7</f>
         <v>6</v>
       </c>
       <c r="Q7">
@@ -1468,6 +1489,142 @@
       <c r="U13">
         <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <v>17</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>19</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+      <c r="R17">
+        <v>22</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1480,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2577,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,7 +4021,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -3876,22 +4033,28 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>69</v>
+      </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>0.91304347826086951</v>
+        <v>0.18478260869565216</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>8.6956521739130432E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>92</v>
@@ -3903,22 +4066,28 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="E13">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <v>72</v>
+      </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>0.91304347826086951</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>8.6956521739130432E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.21739130434782605</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>92</v>
@@ -3930,17 +4099,23 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>0.91304347826086951</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>8.6956521739130432E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.16304347826086951</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3957,17 +4132,23 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="E15">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>88</v>
+      </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>0.91304347826086951</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>8.6956521739130432E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4.3478260869565188E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49609EAB-D990-4F38-9DA7-DBFCA2410D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67A86A-AA57-43DD-85A0-7EF5406F4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
   <si>
     <t>Bench</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>hlf7(21)</t>
+  </si>
+  <si>
+    <t>hlf10(19)</t>
+  </si>
+  <si>
+    <t>hlf10(26)</t>
+  </si>
+  <si>
+    <t>hlf10(21)</t>
+  </si>
+  <si>
+    <t>hlf10(24)</t>
+  </si>
+  <si>
+    <t>hlf12(26)</t>
+  </si>
+  <si>
+    <t>hlf12(23)</t>
+  </si>
+  <si>
+    <t>hlf12(34)</t>
+  </si>
+  <si>
+    <t>hlf12(30)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +590,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M14" sqref="M14:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,15 +1868,15 @@
         <v>35</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S13" si="4">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S17" si="4">(O3-Q3)/N3</f>
         <v>0.19642857142857142</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T13" si="5">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T17" si="5">(P3-R3+Q3)/N3</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U13" si="6" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U17" si="6" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.375</v>
       </c>
     </row>
@@ -2118,7 +2142,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P13" si="8">N7-O7</f>
+        <f t="shared" ref="P7:P17" si="8">N7-O7</f>
         <v>8</v>
       </c>
       <c r="Q7">
@@ -2564,6 +2588,138 @@
       <c r="U13">
         <f t="shared" si="6"/>
         <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <v>22</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>19</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>0.3214285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>22</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <v>21</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16">
+        <v>28</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17">
+        <v>28</v>
+      </c>
+      <c r="O17">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>22</v>
+      </c>
+      <c r="R17">
+        <v>25</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>0.1071428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -2574,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,15 +2937,15 @@
         <v>38</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="5">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S19" si="5">(O3-Q3)/N3</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T15" si="6">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T19" si="6">(P3-R3+Q3)/N3</f>
         <v>0.14705882352941177</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U15" si="7" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U19" si="7" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.44117647058823528</v>
       </c>
     </row>
@@ -3055,7 +3211,7 @@
         <v>55</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P15" si="12">N7-O7</f>
+        <f t="shared" ref="P7:P19" si="12">N7-O7</f>
         <v>13</v>
       </c>
       <c r="Q7">
@@ -3643,6 +3799,138 @@
       <c r="U15">
         <f t="shared" si="7"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>34</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>23</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>34</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>29</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <v>34</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>28</v>
+      </c>
+      <c r="R18">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>34</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>34</v>
+      </c>
+      <c r="R19">
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3654,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67A86A-AA57-43DD-85A0-7EF5406F4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A05EA-A939-4580-B183-2F2E6D348ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
   <si>
     <t>Bench</t>
   </si>
@@ -209,12 +209,6 @@
     <t>qft15(29)</t>
   </si>
   <si>
-    <t>qft12(33)</t>
-  </si>
-  <si>
-    <t>qft12(38)</t>
-  </si>
-  <si>
     <t>qft15(43)</t>
   </si>
   <si>
@@ -264,6 +258,24 @@
   </si>
   <si>
     <t>hlf12(30)</t>
+  </si>
+  <si>
+    <t>hlf15(34)</t>
+  </si>
+  <si>
+    <t>hlf15(29)</t>
+  </si>
+  <si>
+    <t>qft15(38)</t>
+  </si>
+  <si>
+    <t>qft15(33)</t>
+  </si>
+  <si>
+    <t>hlf15(41)</t>
+  </si>
+  <si>
+    <t>hlf15(33)</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1533,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>24</v>
@@ -1554,7 +1566,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>24</v>
@@ -1587,7 +1599,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>24</v>
@@ -1620,7 +1632,7 @@
     </row>
     <row r="17" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>24</v>
@@ -2592,7 +2604,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>28</v>
@@ -2625,7 +2637,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>28</v>
@@ -2658,7 +2670,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>28</v>
@@ -2691,7 +2703,7 @@
     </row>
     <row r="17" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>28</v>
@@ -2733,7 +2745,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M16" sqref="M16:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,7 +3815,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -3836,7 +3848,7 @@
     </row>
     <row r="17" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>40</v>
@@ -3869,7 +3881,7 @@
     </row>
     <row r="18" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>40</v>
@@ -3902,7 +3914,7 @@
     </row>
     <row r="19" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>40</v>
@@ -3940,10 +3952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,7 +4189,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -4186,7 +4198,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D15" si="4">B8-C8</f>
+        <f t="shared" ref="D8:D19" si="4">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -4196,21 +4208,21 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G15" si="5">(C8-E8)/B8</f>
+        <f t="shared" ref="G8:G19" si="5">(C8-E8)/B8</f>
         <v>0.21666666666666667</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H15" si="6">(D8-F8+E8)/B8</f>
+        <f t="shared" ref="H8:H19" si="6">(D8-F8+E8)/B8</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I15" si="7" xml:space="preserve"> 1 -F8/B8</f>
+        <f t="shared" ref="I8:I19" si="7" xml:space="preserve"> 1 -F8/B8</f>
         <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -4243,7 +4255,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -4309,7 +4321,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -4342,7 +4354,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>92</v>
@@ -4375,7 +4387,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>92</v>
@@ -4408,7 +4420,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>92</v>
@@ -4437,6 +4449,138 @@
       <c r="I15">
         <f t="shared" si="7"/>
         <v>4.3478260869565188E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>0.28846153846153844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>5.7692307692307709E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A05EA-A939-4580-B183-2F2E6D348ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88375D-05F3-4749-A2CE-4099BAB84185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18465" yWindow="4395" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88375D-05F3-4749-A2CE-4099BAB84185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8004C6-5C36-433D-88BA-93984F54A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18465" yWindow="4395" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
   <si>
     <t>Bench</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>hlf15(33)</t>
+  </si>
+  <si>
+    <t>last step</t>
+  </si>
+  <si>
+    <t>last step re</t>
   </si>
 </sst>
 </file>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M17"/>
+      <selection activeCell="V1" sqref="V1:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +617,11 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +682,14 @@
       <c r="U1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -745,8 +759,15 @@
         <f xml:space="preserve"> 1 -R2/N2</f>
         <v>0.64285714285714279</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>V2/N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -816,8 +837,15 @@
         <f t="shared" ref="U3:U17" si="5" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W17" si="6">V3/N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -849,7 +877,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="6">K4-H4-I4</f>
+        <f t="shared" ref="J4:J13" si="7">K4-H4-I4</f>
         <v>0.22222222222222229</v>
       </c>
       <c r="K4">
@@ -887,8 +915,15 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -920,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K5">
@@ -958,8 +993,15 @@
         <f t="shared" si="5"/>
         <v>0.3571428571428571</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1033,7 @@
         <v>0.125</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="K6">
@@ -1029,8 +1071,15 @@
         <f t="shared" si="5"/>
         <v>0.31818181818181823</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="7">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="8">C7-D7</f>
         <v>6</v>
       </c>
       <c r="F7">
@@ -1062,7 +1111,7 @@
         <v>0.125</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="K7">
@@ -1079,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="8">N7-O7</f>
+        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
         <v>6</v>
       </c>
       <c r="Q7">
@@ -1100,8 +1149,15 @@
         <f t="shared" si="5"/>
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -1133,7 +1189,7 @@
         <v>0.125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="K8">
@@ -1150,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q8">
@@ -1171,8 +1227,15 @@
         <f t="shared" si="5"/>
         <v>0.22727272727272729</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F9">
@@ -1204,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="K9">
@@ -1221,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q9">
@@ -1242,8 +1305,15 @@
         <f t="shared" si="5"/>
         <v>9.0909090909090939E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -1275,7 +1345,7 @@
         <v>0.15</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="K10">
@@ -1292,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q10">
@@ -1313,8 +1383,15 @@
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -1346,7 +1423,7 @@
         <v>0.15</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="K11">
@@ -1363,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q11">
@@ -1384,8 +1461,15 @@
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -1417,7 +1501,7 @@
         <v>0.1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
       <c r="K12">
@@ -1434,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -1455,8 +1539,15 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -1488,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="K13">
@@ -1505,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -1526,8 +1617,15 @@
         <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -1542,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q14">
@@ -1563,8 +1661,15 @@
         <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>63</v>
       </c>
@@ -1575,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q15">
@@ -1596,8 +1701,15 @@
         <f t="shared" si="5"/>
         <v>0.29166666666666663</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>62</v>
       </c>
@@ -1608,7 +1720,7 @@
         <v>18</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q16">
@@ -1629,8 +1741,15 @@
         <f t="shared" si="5"/>
         <v>0.20833333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>61</v>
       </c>
@@ -1641,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q17">
@@ -1661,6 +1780,13 @@
       <c r="U17">
         <f t="shared" si="5"/>
         <v>8.333333333333337E-2</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1671,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1814,7 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1749,8 +1875,14 @@
       <c r="U1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1820,8 +1952,15 @@
         <f xml:space="preserve"> 1 -R2/N2</f>
         <v>0.4464285714285714</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>V2/N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1891,8 +2030,15 @@
         <f t="shared" ref="U3:U17" si="6" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W17" si="7">V3/N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1962,8 +2108,15 @@
         <f t="shared" si="6"/>
         <v>0.2678571428571429</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2033,8 +2186,15 @@
         <f t="shared" si="6"/>
         <v>0.1607142857142857</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2104,8 +2264,15 @@
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2286,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="7">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="8">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -2154,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="8">N7-O7</f>
+        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
         <v>8</v>
       </c>
       <c r="Q7">
@@ -2175,8 +2342,15 @@
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2190,7 +2364,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="F8">
@@ -2225,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="Q8">
@@ -2246,8 +2420,15 @@
         <f t="shared" si="6"/>
         <v>0.2321428571428571</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2261,7 +2442,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -2296,7 +2477,7 @@
         <v>48</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="Q9">
@@ -2317,8 +2498,15 @@
         <f t="shared" si="6"/>
         <v>5.3571428571428603E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2332,7 +2520,7 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -2367,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q10">
@@ -2388,8 +2576,15 @@
         <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2403,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2438,7 +2633,7 @@
         <v>34</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q11">
@@ -2459,8 +2654,15 @@
         <f t="shared" si="6"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2474,7 +2676,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -2509,7 +2711,7 @@
         <v>34</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -2530,8 +2732,15 @@
         <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2754,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -2580,7 +2789,7 @@
         <v>34</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -2601,8 +2810,15 @@
         <f t="shared" si="6"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>66</v>
       </c>
@@ -2613,7 +2829,7 @@
         <v>22</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q14">
@@ -2634,8 +2850,15 @@
         <f t="shared" si="6"/>
         <v>0.3214285714285714</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>68</v>
       </c>
@@ -2646,7 +2869,7 @@
         <v>22</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q15">
@@ -2667,8 +2890,15 @@
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>67</v>
       </c>
@@ -2679,7 +2909,7 @@
         <v>22</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q16">
@@ -2700,8 +2930,15 @@
         <f t="shared" si="6"/>
         <v>0.1785714285714286</v>
       </c>
-    </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>65</v>
       </c>
@@ -2712,7 +2949,7 @@
         <v>22</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q17">
@@ -2732,6 +2969,13 @@
       <c r="U17">
         <f t="shared" si="6"/>
         <v>0.1071428571428571</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2742,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4122154B-B607-4FC5-B72D-2D5F47AE10A5}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:U19"/>
+      <selection activeCell="W19" sqref="V1:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +3001,7 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2818,8 +3062,14 @@
       <c r="U1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2889,8 +3139,15 @@
         <f xml:space="preserve"> 1 -R2/N2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>V2/N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2960,8 +3217,15 @@
         <f t="shared" ref="U3:U19" si="7" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.44117647058823528</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W19" si="8">V3/N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2997,7 +3261,7 @@
         <v>0.10638297872340427</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K15" si="8" xml:space="preserve"> 1 -G4/B4</f>
+        <f t="shared" ref="K4:K15" si="9" xml:space="preserve"> 1 -G4/B4</f>
         <v>0.55319148936170215</v>
       </c>
       <c r="M4" t="s">
@@ -3031,8 +3295,15 @@
         <f t="shared" si="7"/>
         <v>0.38235294117647056</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3056,19 +3327,19 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H15" si="9">(B5-C5)/B5</f>
+        <f t="shared" ref="H5:H15" si="10">(B5-C5)/B5</f>
         <v>0.27659574468085107</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="10">(D5-F5)/B5</f>
+        <f t="shared" ref="I5:I15" si="11">(D5-F5)/B5</f>
         <v>0.1276595744680851</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J15" si="11">K5-H5-I5</f>
+        <f t="shared" ref="J5:J15" si="12">K5-H5-I5</f>
         <v>0.10638297872340433</v>
       </c>
       <c r="K5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5106382978723405</v>
       </c>
       <c r="M5" t="s">
@@ -3102,8 +3373,15 @@
         <f t="shared" si="7"/>
         <v>0.32352941176470584</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3127,19 +3405,19 @@
         <v>53</v>
       </c>
       <c r="H6">
+        <f t="shared" si="10"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="11"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="12"/>
+        <v>0.10638297872340427</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="9"/>
-        <v>0.27659574468085107</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="10"/>
-        <v>5.3191489361702128E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="11"/>
-        <v>0.10638297872340427</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="8"/>
         <v>0.43617021276595747</v>
       </c>
       <c r="M6" t="s">
@@ -3173,8 +3451,15 @@
         <f t="shared" si="7"/>
         <v>0.22058823529411764</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3198,19 +3483,19 @@
         <v>59</v>
       </c>
       <c r="H7">
+        <f t="shared" si="10"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="12"/>
+        <v>9.5744680851063857E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="9"/>
-        <v>0.27659574468085107</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="11"/>
-        <v>9.5744680851063857E-2</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="8"/>
         <v>0.37234042553191493</v>
       </c>
       <c r="M7" t="s">
@@ -3223,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P19" si="12">N7-O7</f>
+        <f t="shared" ref="P7:P19" si="13">N7-O7</f>
         <v>13</v>
       </c>
       <c r="Q7">
@@ -3244,8 +3529,15 @@
         <f t="shared" si="7"/>
         <v>0.13235294117647056</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3269,19 +3561,19 @@
         <v>55</v>
       </c>
       <c r="H8">
+        <f t="shared" si="10"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="12"/>
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="9"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="11"/>
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="8"/>
         <v>0.29487179487179482</v>
       </c>
       <c r="M8" t="s">
@@ -3294,7 +3586,7 @@
         <v>66</v>
       </c>
       <c r="P8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q8">
@@ -3315,8 +3607,15 @@
         <f t="shared" si="7"/>
         <v>0.2567567567567568</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>9.45945945945946E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3330,7 +3629,7 @@
         <v>66</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E15" si="13">C9-D9</f>
+        <f t="shared" ref="E9:E15" si="14">C9-D9</f>
         <v>8</v>
       </c>
       <c r="F9">
@@ -3340,19 +3639,19 @@
         <v>57</v>
       </c>
       <c r="H9">
+        <f t="shared" si="10"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="12"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="9"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="11"/>
-        <v>5.128205128205135E-2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="8"/>
         <v>0.26923076923076927</v>
       </c>
       <c r="M9" t="s">
@@ -3365,7 +3664,7 @@
         <v>66</v>
       </c>
       <c r="P9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q9">
@@ -3386,8 +3685,15 @@
         <f t="shared" si="7"/>
         <v>0.22972972972972971</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>0.12162162162162163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3401,7 +3707,7 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -3411,19 +3717,19 @@
         <v>62</v>
       </c>
       <c r="H10">
+        <f t="shared" si="10"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="11"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="12"/>
+        <v>5.128205128205135E-2</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="9"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="10"/>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="11"/>
-        <v>5.128205128205135E-2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="8"/>
         <v>0.20512820512820518</v>
       </c>
       <c r="M10" t="s">
@@ -3436,7 +3742,7 @@
         <v>66</v>
       </c>
       <c r="P10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q10">
@@ -3457,8 +3763,15 @@
         <f t="shared" si="7"/>
         <v>0.16216216216216217</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>0.12162162162162163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3472,7 +3785,7 @@
         <v>66</v>
       </c>
       <c r="E11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="F11">
@@ -3482,19 +3795,19 @@
         <v>71</v>
       </c>
       <c r="H11">
+        <f t="shared" si="10"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="12"/>
+        <v>3.8461538461538478E-2</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="9"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="11"/>
-        <v>3.8461538461538478E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="8"/>
         <v>8.9743589743589758E-2</v>
       </c>
       <c r="M11" t="s">
@@ -3507,7 +3820,7 @@
         <v>66</v>
       </c>
       <c r="P11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q11">
@@ -3528,8 +3841,15 @@
         <f t="shared" si="7"/>
         <v>4.0540540540540571E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3543,7 +3863,7 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -3553,19 +3873,19 @@
         <v>34</v>
       </c>
       <c r="H12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="11"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="12"/>
+        <v>8.3333333333333287E-2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="10"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="11"/>
-        <v>8.3333333333333287E-2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="8"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="M12" t="s">
@@ -3578,7 +3898,7 @@
         <v>42</v>
       </c>
       <c r="P12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q12">
@@ -3599,8 +3919,15 @@
         <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +3941,7 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -3624,19 +3951,19 @@
         <v>35</v>
       </c>
       <c r="H13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="11"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="12"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="11"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="8"/>
         <v>0.27083333333333337</v>
       </c>
       <c r="M13" t="s">
@@ -3649,7 +3976,7 @@
         <v>42</v>
       </c>
       <c r="P13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q13">
@@ -3670,8 +3997,15 @@
         <f t="shared" si="7"/>
         <v>0.27083333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +4019,7 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="F14">
@@ -3695,19 +4029,19 @@
         <v>40</v>
       </c>
       <c r="H14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="11"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="8"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="M14" t="s">
@@ -3720,7 +4054,7 @@
         <v>42</v>
       </c>
       <c r="P14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q14">
@@ -3741,8 +4075,15 @@
         <f t="shared" si="7"/>
         <v>0.16666666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>14</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +4097,7 @@
         <v>42</v>
       </c>
       <c r="E15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="F15">
@@ -3766,19 +4107,19 @@
         <v>46</v>
       </c>
       <c r="H15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="11"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="8"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="M15" t="s">
@@ -3791,7 +4132,7 @@
         <v>42</v>
       </c>
       <c r="P15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q15">
@@ -3812,8 +4153,15 @@
         <f t="shared" si="7"/>
         <v>4.166666666666663E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>19</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>71</v>
       </c>
@@ -3824,7 +4172,7 @@
         <v>34</v>
       </c>
       <c r="P16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q16">
@@ -3845,8 +4193,15 @@
         <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>72</v>
       </c>
@@ -3857,7 +4212,7 @@
         <v>34</v>
       </c>
       <c r="P17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q17">
@@ -3878,8 +4233,15 @@
         <f t="shared" si="7"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>69</v>
       </c>
@@ -3890,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="P18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q18">
@@ -3911,8 +4273,15 @@
         <f t="shared" si="7"/>
         <v>0.22499999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>70</v>
       </c>
@@ -3923,7 +4292,7 @@
         <v>34</v>
       </c>
       <c r="P19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q19">
@@ -3943,6 +4312,13 @@
       <c r="U19">
         <f t="shared" si="7"/>
         <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3952,15 +4328,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3988,8 +4364,14 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4021,8 +4403,15 @@
         <f xml:space="preserve"> 1 -F2/B2</f>
         <v>0.47777777777777775</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>J2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4054,8 +4443,15 @@
         <f t="shared" ref="I3:I7" si="2" xml:space="preserve"> 1 -F3/B3</f>
         <v>0.42222222222222228</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="3">J3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4087,8 +4483,15 @@
         <f t="shared" si="2"/>
         <v>0.3666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4120,8 +4523,15 @@
         <f t="shared" si="2"/>
         <v>0.31111111111111112</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4153,8 +4563,15 @@
         <f t="shared" si="2"/>
         <v>0.24444444444444446</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4165,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="3">B7-C7</f>
+        <f t="shared" ref="D7" si="4">B7-C7</f>
         <v>13</v>
       </c>
       <c r="E7">
@@ -4186,8 +4603,15 @@
         <f t="shared" si="2"/>
         <v>0.11111111111111116</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -4198,7 +4622,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D19" si="4">B8-C8</f>
+        <f t="shared" ref="D8:D19" si="5">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -4208,19 +4632,26 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G19" si="5">(C8-E8)/B8</f>
+        <f t="shared" ref="G8:G19" si="6">(C8-E8)/B8</f>
         <v>0.21666666666666667</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H19" si="6">(D8-F8+E8)/B8</f>
+        <f t="shared" ref="H8:H19" si="7">(D8-F8+E8)/B8</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I19" si="7" xml:space="preserve"> 1 -F8/B8</f>
+        <f t="shared" ref="I8:I19" si="8" xml:space="preserve"> 1 -F8/B8</f>
         <v>0.28333333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -4231,7 +4662,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E9">
@@ -4241,19 +4672,26 @@
         <v>44</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26666666666666672</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -4264,7 +4702,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E10">
@@ -4274,19 +4712,26 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4742,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E11">
@@ -4307,19 +4752,26 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3333333333333326E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -4330,7 +4782,7 @@
         <v>84</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E12">
@@ -4340,19 +4792,26 @@
         <v>69</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18478260869565216</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4363,7 +4822,7 @@
         <v>84</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E13">
@@ -4373,19 +4832,26 @@
         <v>72</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21739130434782605</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.15217391304347827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4396,7 +4862,7 @@
         <v>84</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E14">
@@ -4406,19 +4872,26 @@
         <v>77</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2608695652173912E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16304347826086951</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.18478260869565216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -4429,7 +4902,7 @@
         <v>84</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E15">
@@ -4439,19 +4912,26 @@
         <v>88</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3478260869565188E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.18478260869565216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -4462,7 +4942,7 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E16">
@@ -4472,19 +4952,26 @@
         <v>37</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21153846153846154</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28846153846153844</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -4495,7 +4982,7 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E17">
@@ -4505,19 +4992,26 @@
         <v>39</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17307692307692307</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4528,7 +5022,7 @@
         <v>46</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E18">
@@ -4538,19 +5032,26 @@
         <v>40</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17307692307692307</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23076923076923073</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -4561,7 +5062,7 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E19">
@@ -4571,16 +5072,23 @@
         <v>49</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7692307692307709E-2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8004C6-5C36-433D-88BA-93984F54A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E406677-D0E0-4762-9F33-A5D2F8045B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="3240" windowWidth="27810" windowHeight="16635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
     <sheet name="Qubit10" sheetId="1" r:id="rId2"/>
     <sheet name="12" sheetId="2" r:id="rId3"/>
     <sheet name="15" sheetId="3" r:id="rId4"/>
+    <sheet name="20" sheetId="6" r:id="rId5"/>
+    <sheet name="27" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
   <si>
     <t>Bench</t>
   </si>
@@ -282,6 +284,30 @@
   </si>
   <si>
     <t>last step re</t>
+  </si>
+  <si>
+    <t>qft27(53)</t>
+  </si>
+  <si>
+    <t>qft27(66)</t>
+  </si>
+  <si>
+    <t>qft27(62)</t>
+  </si>
+  <si>
+    <t>qft27(58)</t>
+  </si>
+  <si>
+    <t>IQP27(53)</t>
+  </si>
+  <si>
+    <t>BV27(53)</t>
+  </si>
+  <si>
+    <t>BV27(104)</t>
+  </si>
+  <si>
+    <t>BV27(93)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +634,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W17"/>
+      <selection activeCell="S6" sqref="S6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1826,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W17"/>
+      <selection activeCell="S6" sqref="S6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +3015,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W19" sqref="V1:W19"/>
+      <selection activeCell="S8" sqref="S8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,4 +5120,882 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E03DA5-84A0-4738-955A-CBE7B8794599}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f>(C2-E2)/B2</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H2">
+        <f>(D2-F2+E2)/B2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> 1 -F2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>J2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>(C3-E3)/B3</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H3">
+        <f>(D3-F3+E3)/B3</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> 1 -F3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>J3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f>(C4-E4)/B4</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H4">
+        <f>(D4-F4+E4)/B4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> 1 -F4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>J4/B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <f>(C5-E5)/B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>(D5-F5+E5)/B5</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> 1 -F5/B5</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <f>J5/B5</f>
+        <v>0.203125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B27A2-21B1-4C43-9BB1-40F9A6DF0A3D}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <v>157</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <f>(C2-E2)/B2</f>
+        <v>0.36470588235294116</v>
+      </c>
+      <c r="H2">
+        <f>(D2-F2+E2)/B2</f>
+        <v>6.4705882352941183E-2</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> 1 -F2/B2</f>
+        <v>0.42941176470588238</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>J2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>104</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="0">(C3-E3)/B3</f>
+        <v>0.31176470588235294</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="1">(D3-F3+E3)/B3</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="2" xml:space="preserve"> 1 -F3/B3</f>
+        <v>0.37058823529411766</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="3">J3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>157</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>117</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.25294117647058822</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.31176470588235294</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>157</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>124</v>
+      </c>
+      <c r="F5">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.19411764705882353</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.25294117647058822</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>137</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>157</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D19" si="4">B7-C7</f>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>157</v>
+      </c>
+      <c r="F7">
+        <v>160</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.19444444444444445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.18518518518518523</v>
+      </c>
+      <c r="J9">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.25925925925925924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.35185185185185186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>106</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.851851851851849E-2</v>
+      </c>
+      <c r="J11">
+        <v>49</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.45370370370370372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>178</v>
+      </c>
+      <c r="C12">
+        <v>170</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>178</v>
+      </c>
+      <c r="C13">
+        <v>170</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>178</v>
+      </c>
+      <c r="C14">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>178</v>
+      </c>
+      <c r="C15">
+        <v>170</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>173</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.8089887640449437E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.8089887640449396E-2</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.24157303370786518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E406677-D0E0-4762-9F33-A5D2F8045B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229D150-52BC-47AD-BD06-C2E45FA28960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="3240" windowWidth="27810" windowHeight="16635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="4905" windowWidth="22800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>Bench</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>BV27(93)</t>
+  </si>
+  <si>
+    <t>HC6(11)</t>
+  </si>
+  <si>
+    <t>HC6(13)</t>
+  </si>
+  <si>
+    <t>HC6(15)</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S17" si="3">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S21" si="3">(O3-Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T17" si="4">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T21" si="4">(P3-R3+Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U17" si="5" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U21" si="5" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W17" si="6">V3/N3</f>
+        <f t="shared" ref="W3:W21" si="6">V3/N3</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
+        <f t="shared" ref="P7:P21" si="9">N7-O7</f>
         <v>6</v>
       </c>
       <c r="Q7">
@@ -1813,6 +1822,126 @@
       <c r="W17">
         <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18">
+        <v>32</v>
+      </c>
+      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <f>N18-O18</f>
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <f>(O18-Q18)/N18</f>
+        <v>0.125</v>
+      </c>
+      <c r="T18">
+        <f>(P18-R18+Q18)/N18</f>
+        <v>0.25</v>
+      </c>
+      <c r="U18">
+        <f xml:space="preserve"> 1 -R18/N18</f>
+        <v>0.375</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f>V18/N18</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>32</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <f>N19-O19</f>
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <f>(O19-Q19)/N19</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="T19">
+        <f>(P19-R19+Q19)/N19</f>
+        <v>0.25</v>
+      </c>
+      <c r="U19">
+        <f xml:space="preserve"> 1 -R19/N19</f>
+        <v>0.34375</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>V19/N19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20">
+        <v>32</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <f>N20-O20</f>
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>26</v>
+      </c>
+      <c r="S20">
+        <f>(O20-Q20)/N20</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>(P20-R20+Q20)/N20</f>
+        <v>0.1875</v>
+      </c>
+      <c r="U20">
+        <f xml:space="preserve"> 1 -R20/N20</f>
+        <v>0.1875</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f>V20/N20</f>
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E03DA5-84A0-4738-955A-CBE7B8794599}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229D150-52BC-47AD-BD06-C2E45FA28960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB5E59-92BF-488F-A73D-6F3555C1807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4905" windowWidth="22800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16485" yWindow="3195" windowWidth="31080" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
   <si>
     <t>Bench</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>HC6(15)</t>
+  </si>
+  <si>
+    <t>QAOA4(7)</t>
+  </si>
+  <si>
+    <t>QAOA4(9)</t>
+  </si>
+  <si>
+    <t>QAOA4(11)</t>
+  </si>
+  <si>
+    <t>QAOA8(15)</t>
   </si>
 </sst>
 </file>
@@ -640,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +664,7 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
@@ -861,22 +874,22 @@
         <v>12</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S21" si="3">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S17" si="3">(O3-Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T21" si="4">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T17" si="4">(P3-R3+Q3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U21" si="5" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U17" si="5" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W21" si="6">V3/N3</f>
+        <f t="shared" ref="W3:W17" si="6">V3/N3</f>
         <v>0</v>
       </c>
     </row>
@@ -1163,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P21" si="9">N7-O7</f>
+        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
         <v>6</v>
       </c>
       <c r="Q7">
@@ -1942,6 +1955,123 @@
       <c r="W20">
         <f>V20/N20</f>
         <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21">
+        <v>74</v>
+      </c>
+      <c r="O21">
+        <v>63</v>
+      </c>
+      <c r="P21">
+        <f>N21-O21</f>
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>36</v>
+      </c>
+      <c r="R21">
+        <v>41</v>
+      </c>
+      <c r="S21">
+        <f>(O21-Q21)/N21</f>
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="T21">
+        <f>(P21-R21+Q21)/N21</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="U21">
+        <f xml:space="preserve"> 1 -R21/N21</f>
+        <v>0.44594594594594594</v>
+      </c>
+      <c r="W21">
+        <f>V21/N21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22">
+        <v>74</v>
+      </c>
+      <c r="O22">
+        <v>63</v>
+      </c>
+      <c r="P22">
+        <f>N22-O22</f>
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <v>40</v>
+      </c>
+      <c r="R22">
+        <v>45</v>
+      </c>
+      <c r="S22">
+        <f>(O22-Q22)/N22</f>
+        <v>0.3108108108108108</v>
+      </c>
+      <c r="T22">
+        <f>(P22-R22+Q22)/N22</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="U22">
+        <f xml:space="preserve"> 1 -R22/N22</f>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f>V22/N22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23">
+        <v>74</v>
+      </c>
+      <c r="O23">
+        <v>63</v>
+      </c>
+      <c r="P23">
+        <f>N23-O23</f>
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>63</v>
+      </c>
+      <c r="R23">
+        <v>66</v>
+      </c>
+      <c r="S23">
+        <f>(O23-Q23)/N23</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>(P23-R23+Q23)/N23</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="U23">
+        <f xml:space="preserve"> 1 -R23/N23</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>V23/N23</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1952,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:T6"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,6 +2097,7 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2174,22 +2305,22 @@
         <v>35</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S17" si="4">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S20" si="4">(O3-Q3)/N3</f>
         <v>0.19642857142857142</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T17" si="5">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T20" si="5">(P3-R3+Q3)/N3</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U17" si="6" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U20" si="6" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.375</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W17" si="7">V3/N3</f>
+        <f t="shared" ref="W3:W20" si="7">V3/N3</f>
         <v>0</v>
       </c>
     </row>
@@ -2476,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
+        <f t="shared" ref="P7:P20" si="9">N7-O7</f>
         <v>8</v>
       </c>
       <c r="Q7">
@@ -3129,6 +3260,120 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18">
+        <v>120</v>
+      </c>
+      <c r="O18">
+        <v>109</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>82</v>
+      </c>
+      <c r="R18">
+        <v>87</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19">
+        <v>120</v>
+      </c>
+      <c r="O19">
+        <v>109</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <v>92</v>
+      </c>
+      <c r="R19">
+        <v>98</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20">
+        <v>120</v>
+      </c>
+      <c r="O20">
+        <v>109</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>109</v>
+      </c>
+      <c r="R20">
+        <v>111</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB5E59-92BF-488F-A73D-6F3555C1807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB8A70-587E-43D5-8859-56F9F81238DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16485" yWindow="3195" windowWidth="31080" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="99">
   <si>
     <t>Bench</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>QAOA8(15)</t>
+  </si>
+  <si>
+    <t>QAOA8(17)</t>
+  </si>
+  <si>
+    <t>QAOA8(19)</t>
+  </si>
+  <si>
+    <t>QAOA8(21)</t>
   </si>
 </sst>
 </file>
@@ -654,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="P18">
-        <f>N18-O18</f>
+        <f t="shared" ref="P18:P23" si="10">N18-O18</f>
         <v>14</v>
       </c>
       <c r="Q18">
@@ -1858,22 +1867,22 @@
         <v>20</v>
       </c>
       <c r="S18">
-        <f>(O18-Q18)/N18</f>
+        <f t="shared" ref="S18:S23" si="11">(O18-Q18)/N18</f>
         <v>0.125</v>
       </c>
       <c r="T18">
-        <f>(P18-R18+Q18)/N18</f>
+        <f t="shared" ref="T18:T23" si="12">(P18-R18+Q18)/N18</f>
         <v>0.25</v>
       </c>
       <c r="U18">
-        <f xml:space="preserve"> 1 -R18/N18</f>
+        <f t="shared" ref="U18:U23" si="13" xml:space="preserve"> 1 -R18/N18</f>
         <v>0.375</v>
       </c>
       <c r="V18">
         <v>1</v>
       </c>
       <c r="W18">
-        <f>V18/N18</f>
+        <f t="shared" ref="W18:W23" si="14">V18/N18</f>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -1888,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="P19">
-        <f>N19-O19</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="Q19">
@@ -1898,22 +1907,22 @@
         <v>21</v>
       </c>
       <c r="S19">
-        <f>(O19-Q19)/N19</f>
+        <f t="shared" si="11"/>
         <v>9.375E-2</v>
       </c>
       <c r="T19">
-        <f>(P19-R19+Q19)/N19</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="U19">
-        <f xml:space="preserve"> 1 -R19/N19</f>
+        <f t="shared" si="13"/>
         <v>0.34375</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <f>V19/N19</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1928,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <f>N20-O20</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="Q20">
@@ -1938,22 +1947,22 @@
         <v>26</v>
       </c>
       <c r="S20">
-        <f>(O20-Q20)/N20</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>(P20-R20+Q20)/N20</f>
+        <f t="shared" si="12"/>
         <v>0.1875</v>
       </c>
       <c r="U20">
-        <f xml:space="preserve"> 1 -R20/N20</f>
+        <f t="shared" si="13"/>
         <v>0.1875</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <f>V20/N20</f>
+        <f t="shared" si="14"/>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -1968,7 +1977,7 @@
         <v>63</v>
       </c>
       <c r="P21">
-        <f>N21-O21</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="Q21">
@@ -1978,19 +1987,19 @@
         <v>41</v>
       </c>
       <c r="S21">
-        <f>(O21-Q21)/N21</f>
+        <f t="shared" si="11"/>
         <v>0.36486486486486486</v>
       </c>
       <c r="T21">
-        <f>(P21-R21+Q21)/N21</f>
+        <f t="shared" si="12"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="U21">
-        <f xml:space="preserve"> 1 -R21/N21</f>
+        <f t="shared" si="13"/>
         <v>0.44594594594594594</v>
       </c>
       <c r="W21">
-        <f>V21/N21</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2005,7 +2014,7 @@
         <v>63</v>
       </c>
       <c r="P22">
-        <f>N22-O22</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="Q22">
@@ -2015,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="S22">
-        <f>(O22-Q22)/N22</f>
+        <f t="shared" si="11"/>
         <v>0.3108108108108108</v>
       </c>
       <c r="T22">
-        <f>(P22-R22+Q22)/N22</f>
+        <f t="shared" si="12"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="U22">
-        <f xml:space="preserve"> 1 -R22/N22</f>
+        <f t="shared" si="13"/>
         <v>0.39189189189189189</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <f>V22/N22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2045,7 +2054,7 @@
         <v>63</v>
       </c>
       <c r="P23">
-        <f>N23-O23</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="Q23">
@@ -2055,22 +2064,22 @@
         <v>66</v>
       </c>
       <c r="S23">
-        <f>(O23-Q23)/N23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>(P23-R23+Q23)/N23</f>
+        <f t="shared" si="12"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="U23">
-        <f xml:space="preserve"> 1 -R23/N23</f>
+        <f t="shared" si="13"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <f>V23/N23</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2082,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,14 +2230,14 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <f>(O2-Q2)/N2</f>
-        <v>0.26785714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="T2">
         <f>(P2-R2+Q2)/N2</f>
@@ -2236,7 +2245,7 @@
       </c>
       <c r="U2">
         <f xml:space="preserve"> 1 -R2/N2</f>
-        <v>0.4464285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -2299,14 +2308,14 @@
         <v>13</v>
       </c>
       <c r="Q3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S20" si="4">(O3-Q3)/N3</f>
-        <v>0.19642857142857142</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T20" si="5">(P3-R3+Q3)/N3</f>
@@ -2314,7 +2323,7 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U20" si="6" xml:space="preserve"> 1 -R3/N3</f>
-        <v>0.375</v>
+        <v>0.3928571428571429</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2377,14 +2386,14 @@
         <v>13</v>
       </c>
       <c r="Q4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
-        <v>8.9285714285714288E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="T4">
         <f t="shared" si="5"/>
@@ -2392,7 +2401,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="6"/>
-        <v>0.2678571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -3266,7 +3275,7 @@
     </row>
     <row r="18" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>120</v>
@@ -3279,14 +3288,14 @@
         <v>11</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="R18">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S18">
         <f t="shared" si="4"/>
-        <v>0.22500000000000001</v>
+        <v>0.34166666666666667</v>
       </c>
       <c r="T18">
         <f t="shared" si="5"/>
@@ -3294,7 +3303,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="6"/>
-        <v>0.27500000000000002</v>
+        <v>0.39166666666666672</v>
       </c>
       <c r="W18">
         <f t="shared" si="7"/>
@@ -3303,7 +3312,7 @@
     </row>
     <row r="19" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>120</v>
@@ -3312,35 +3321,35 @@
         <v>109</v>
       </c>
       <c r="P19">
-        <f t="shared" si="9"/>
+        <f>N19-O19</f>
         <v>11</v>
       </c>
       <c r="Q19">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="R19">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
-        <v>0.14166666666666666</v>
+        <f>(O19-Q19)/N19</f>
+        <v>0.34166666666666667</v>
       </c>
       <c r="T19">
-        <f t="shared" si="5"/>
+        <f>(P19-R19+Q19)/N19</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="U19">
-        <f t="shared" si="6"/>
-        <v>0.18333333333333335</v>
+        <f xml:space="preserve"> 1 -R19/N19</f>
+        <v>0.3833333333333333</v>
       </c>
       <c r="W19">
-        <f t="shared" si="7"/>
+        <f>V19/N19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>120</v>
@@ -3349,32 +3358,69 @@
         <v>109</v>
       </c>
       <c r="P20">
-        <f t="shared" si="9"/>
+        <f>N20-O20</f>
         <v>11</v>
       </c>
       <c r="Q20">
+        <v>76</v>
+      </c>
+      <c r="R20">
+        <v>80</v>
+      </c>
+      <c r="S20">
+        <f>(O20-Q20)/N20</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T20">
+        <f>(P20-R20+Q20)/N20</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="U20">
+        <f xml:space="preserve"> 1 -R20/N20</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="W20">
+        <f>V20/N20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21">
+        <v>120</v>
+      </c>
+      <c r="O21">
         <v>109</v>
       </c>
-      <c r="R20">
+      <c r="P21">
+        <f>N21-O21</f>
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>109</v>
+      </c>
+      <c r="R21">
         <v>111</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="5"/>
+      <c r="S21">
+        <f>(O21-Q21)/N21</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>(P21-R21+Q21)/N21</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="6"/>
+      <c r="U21">
+        <f xml:space="preserve"> 1 -R21/N21</f>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="7"/>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>V21/N21</f>
         <v>0</v>
       </c>
     </row>
@@ -4731,7 +4777,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B27A2-21B1-4C43-9BB1-40F9A6DF0A3D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB8A70-587E-43D5-8859-56F9F81238DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FA1E3-8A3D-42D1-92BB-4F2F28106165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20040" yWindow="2250" windowWidth="29100" windowHeight="16635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="117">
   <si>
     <t>Bench</t>
   </si>
@@ -235,9 +235,6 @@
     <t>hlf7(18)</t>
   </si>
   <si>
-    <t>hlf7(21)</t>
-  </si>
-  <si>
     <t>hlf10(19)</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>hlf12(30)</t>
   </si>
   <si>
-    <t>hlf15(34)</t>
-  </si>
-  <si>
     <t>hlf15(29)</t>
   </si>
   <si>
@@ -338,6 +332,66 @@
   </si>
   <si>
     <t>QAOA8(21)</t>
+  </si>
+  <si>
+    <t>hlf27(45)</t>
+  </si>
+  <si>
+    <t>hlf27(60)</t>
+  </si>
+  <si>
+    <t>hlf27(50)</t>
+  </si>
+  <si>
+    <t>hlf27(55)</t>
+  </si>
+  <si>
+    <t>hlf7(20)</t>
+  </si>
+  <si>
+    <t>hlf</t>
+  </si>
+  <si>
+    <t>wire_remove</t>
+  </si>
+  <si>
+    <t>remove_single</t>
+  </si>
+  <si>
+    <t>remove_swap</t>
+  </si>
+  <si>
+    <t>hlf15(37)</t>
+  </si>
+  <si>
+    <t>IQP15(39)</t>
+  </si>
+  <si>
+    <t>BV5</t>
+  </si>
+  <si>
+    <t>vqe10(19)</t>
+  </si>
+  <si>
+    <t>vqe10(27)</t>
+  </si>
+  <si>
+    <t>vqe10(22)</t>
+  </si>
+  <si>
+    <t>vqe10(25)</t>
+  </si>
+  <si>
+    <t>vqe14(29)</t>
+  </si>
+  <si>
+    <t>vqe14(27)</t>
+  </si>
+  <si>
+    <t>vqe14(39)</t>
+  </si>
+  <si>
+    <t>vqe14(31)</t>
   </si>
 </sst>
 </file>
@@ -661,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1688,7 +1742,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>24</v>
@@ -1701,18 +1755,18 @@
         <v>6</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R14">
         <v>16</v>
       </c>
       <c r="S14">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T14">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="U14">
         <f t="shared" si="5"/>
@@ -1741,18 +1795,18 @@
         <v>6</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15">
         <v>17</v>
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="T15">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U15">
         <f t="shared" si="5"/>
@@ -1848,7 +1902,7 @@
     </row>
     <row r="18" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>32</v>
@@ -1888,7 +1942,7 @@
     </row>
     <row r="19" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>32</v>
@@ -1928,7 +1982,7 @@
     </row>
     <row r="20" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N20">
         <v>32</v>
@@ -1968,7 +2022,7 @@
     </row>
     <row r="21" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>74</v>
@@ -2005,7 +2059,7 @@
     </row>
     <row r="22" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N22">
         <v>74</v>
@@ -2045,7 +2099,7 @@
     </row>
     <row r="23" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N23">
         <v>74</v>
@@ -2081,6 +2135,166 @@
       <c r="W23">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <f>N25-O25</f>
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <v>15</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S26" si="15">(O25-Q25)/N25</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:T28" si="16">(P25-R25+Q25)/N25</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:U28" si="17" xml:space="preserve"> 1 -R25/N25</f>
+        <v>0.31818181818181823</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25:W28" si="18">V25/N25</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P28" si="19">N26-O26</f>
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <v>16</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="15"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="16"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="17"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+      <c r="R27">
+        <v>17</v>
+      </c>
+      <c r="S27">
+        <f>(O27-Q27)/N27</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="16"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="17"/>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28" si="20">(O28-Q28)/N28</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="17"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="18"/>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2091,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2385,10 @@
         <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -2314,22 +2528,22 @@
         <v>34</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S20" si="4">(O3-Q3)/N3</f>
+        <f t="shared" ref="S3:S18" si="4">(O3-Q3)/N3</f>
         <v>0.21428571428571427</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T20" si="5">(P3-R3+Q3)/N3</f>
+        <f t="shared" ref="T3:T18" si="5">(P3-R3+Q3)/N3</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U20" si="6" xml:space="preserve"> 1 -R3/N3</f>
+        <f t="shared" ref="U3:U18" si="6" xml:space="preserve"> 1 -R3/N3</f>
         <v>0.3928571428571429</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W20" si="7">V3/N3</f>
+        <f t="shared" ref="W3:W18" si="7">V3/N3</f>
         <v>0</v>
       </c>
     </row>
@@ -2616,7 +2830,7 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P20" si="9">N7-O7</f>
+        <f t="shared" ref="P7:P18" si="9">N7-O7</f>
         <v>8</v>
       </c>
       <c r="Q7">
@@ -3115,7 +3329,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>28</v>
@@ -3155,7 +3369,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>28</v>
@@ -3195,7 +3409,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>28</v>
@@ -3235,7 +3449,7 @@
     </row>
     <row r="17" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>28</v>
@@ -3275,7 +3489,7 @@
     </row>
     <row r="18" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N18">
         <v>120</v>
@@ -3312,7 +3526,7 @@
     </row>
     <row r="19" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N19">
         <v>120</v>
@@ -3349,7 +3563,7 @@
     </row>
     <row r="20" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>120</v>
@@ -3386,7 +3600,7 @@
     </row>
     <row r="21" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N21">
         <v>120</v>
@@ -3421,6 +3635,351 @@
       </c>
       <c r="W21">
         <f>V21/N21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22">
+        <v>44</v>
+      </c>
+      <c r="O22">
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P25" si="10">N22-O22</f>
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>26</v>
+      </c>
+      <c r="R22">
+        <v>30</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S25" si="11">(O22-Q22)/N22</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:T25" si="12">(P22-R22+Q22)/N22</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:U25" si="13" xml:space="preserve"> 1 -R22/N22</f>
+        <v>0.31818181818181823</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22:W25" si="14">V22/N22</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23">
+        <v>44</v>
+      </c>
+      <c r="O23">
+        <v>34</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>27</v>
+      </c>
+      <c r="R23">
+        <v>32</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="14"/>
+        <v>0.11363636363636363</v>
+      </c>
+    </row>
+    <row r="24" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24">
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="R24">
+        <v>35</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>0.20454545454545459</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="14"/>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="25" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>44</v>
+      </c>
+      <c r="O25">
+        <v>34</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>34</v>
+      </c>
+      <c r="R25">
+        <v>38</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>0.15909090909090909</v>
+      </c>
+    </row>
+    <row r="26" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>54</v>
+      </c>
+      <c r="O26">
+        <v>46</v>
+      </c>
+      <c r="P26">
+        <f>N26-O26</f>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>36</v>
+      </c>
+      <c r="R26">
+        <v>39</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S27" si="15">(O26-Q26)/N26</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:T29" si="16">(P26-R26+Q26)/N26</f>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26:U29" si="17" xml:space="preserve"> 1 -R26/N26</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:W29" si="18">V26/N26</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>54</v>
+      </c>
+      <c r="O27">
+        <v>46</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P29" si="19">N27-O27</f>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>36</v>
+      </c>
+      <c r="R27">
+        <v>40</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="15"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="16"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="17"/>
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>54</v>
+      </c>
+      <c r="O28">
+        <v>46</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>39</v>
+      </c>
+      <c r="R28">
+        <v>41</v>
+      </c>
+      <c r="S28">
+        <f>(O28-Q28)/N28</f>
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="17"/>
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="18"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>54</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>46</v>
+      </c>
+      <c r="R29">
+        <v>51</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29" si="20">(O29-Q29)/N29</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="16"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="17"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="18"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="31" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>0</v>
       </c>
     </row>
@@ -3509,10 +4068,10 @@
         <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4609,7 +5168,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -4649,7 +5208,7 @@
     </row>
     <row r="17" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>40</v>
@@ -4689,7 +5248,7 @@
     </row>
     <row r="18" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>40</v>
@@ -4729,7 +5288,7 @@
     </row>
     <row r="19" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>40</v>
@@ -4774,10 +5333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4811,10 +5370,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4893,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K19" si="3">J3/B3</f>
+        <f t="shared" ref="K3:K23" si="3">J3/B3</f>
         <v>0</v>
       </c>
     </row>
@@ -5068,7 +5627,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D19" si="5">B8-C8</f>
+        <f t="shared" ref="D8:D23" si="5">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -5078,15 +5637,15 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G19" si="6">(C8-E8)/B8</f>
+        <f t="shared" ref="G8:G23" si="6">(C8-E8)/B8</f>
         <v>0.21666666666666667</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H19" si="7">(D8-F8+E8)/B8</f>
+        <f t="shared" ref="H8:H23" si="7">(D8-F8+E8)/B8</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I19" si="8" xml:space="preserve"> 1 -F8/B8</f>
+        <f t="shared" ref="I8:I23" si="8" xml:space="preserve"> 1 -F8/B8</f>
         <v>0.28333333333333333</v>
       </c>
       <c r="J8">
@@ -5099,7 +5658,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -5139,7 +5698,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -5379,7 +5938,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>52</v>
@@ -5419,7 +5978,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>52</v>
@@ -5432,14 +5991,14 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
-        <v>0.17307692307692307</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="H17">
         <f t="shared" si="7"/>
@@ -5447,7 +6006,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.26923076923076927</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -5459,7 +6018,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -5499,7 +6058,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5535,6 +6094,351 @@
       <c r="K19">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D27" si="9">B24-C24</f>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G27" si="10">(C24-E24)/B24</f>
+        <v>0.1875</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="11">(D24-F24+E24)/B24</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I27" si="12" xml:space="preserve"> 1 -F24/B24</f>
+        <v>0.25</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K27" si="13">J24/B24</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="10"/>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="12"/>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="12"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5581,15 +6485,15 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5620,7 +6524,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>128</v>
@@ -5651,7 +6555,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>128</v>
@@ -5682,7 +6586,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>128</v>
@@ -5729,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B27A2-21B1-4C43-9BB1-40F9A6DF0A3D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,15 +6668,15 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>170</v>
@@ -5812,7 +6716,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -5852,7 +6756,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>170</v>
@@ -5892,7 +6796,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>170</v>
@@ -5932,7 +6836,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>170</v>
@@ -5972,7 +6876,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>170</v>
@@ -6012,7 +6916,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -6052,7 +6956,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>108</v>
@@ -6092,7 +6996,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>108</v>
@@ -6132,7 +7036,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>108</v>
@@ -6172,7 +7076,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>178</v>
@@ -6203,7 +7107,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>178</v>
@@ -6234,7 +7138,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>178</v>
@@ -6265,7 +7169,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>178</v>
@@ -6299,120 +7203,167 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
-        <v>0.24157303370786518</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>130</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="e">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>84</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
+        <v>0.27692307692307694</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" t="e">
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="e">
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="e">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>94</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
+        <v>0.22307692307692309</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" t="e">
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27692307692307694</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="e">
+      <c r="K17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="e">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>102</v>
+      </c>
+      <c r="F18">
+        <v>107</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" t="e">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" t="e">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.17692307692307696</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="e">
+      <c r="K18">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" t="e">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>122</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" t="e">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" t="e">
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="e">
+      <c r="K19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FA1E3-8A3D-42D1-92BB-4F2F28106165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32BA5D-58FF-4B0E-A8F5-1A0B07712598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="2250" windowWidth="29100" windowHeight="16635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
   <si>
     <t>Bench</t>
   </si>
@@ -392,6 +392,27 @@
   </si>
   <si>
     <t>vqe14(31)</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>vqe26(51)</t>
+  </si>
+  <si>
+    <t>vqe26(65)</t>
+  </si>
+  <si>
+    <t>vqe26(55)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>base+re</t>
+  </si>
+  <si>
+    <t>bse+re</t>
   </si>
 </sst>
 </file>
@@ -715,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +753,7 @@
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,31 +797,40 @@
         <v>19</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -849,36 +879,46 @@
         <v>15</v>
       </c>
       <c r="P2">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
         <f>N2-O2</f>
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="S2">
-        <f>(O2-Q2)/N2</f>
+      <c r="U2">
+        <f>(O2-S2)/N2</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="T2">
-        <f>(P2-R2+Q2)/N2</f>
+      <c r="V2">
+        <f>(R2-T2+S2)/N2</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U2">
-        <f xml:space="preserve"> 1 -R2/N2</f>
+      <c r="W2">
+        <f xml:space="preserve"> 1 -T2/N2</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>V2/N2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>X2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>1 - (T2*1000 -X2*999)/(1000*N2)</f>
+        <v>0.64285714285714279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -927,36 +967,46 @@
         <v>15</v>
       </c>
       <c r="P3">
+        <v>32</v>
+      </c>
+      <c r="Q3">
+        <v>24</v>
+      </c>
+      <c r="R3">
         <f>N3-O3</f>
         <v>13</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>7</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>12</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S17" si="3">(O3-Q3)/N3</f>
+      <c r="U3">
+        <f>(O3-S3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T17" si="4">(P3-R3+Q3)/N3</f>
+      <c r="V3">
+        <f>(R3-T3+S3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U17" si="5" xml:space="preserve"> 1 -R3/N3</f>
+      <c r="W3">
+        <f xml:space="preserve"> 1 -T3/N3</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W17" si="6">V3/N3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>X3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>1 - (T3*1000 -X3*999)/(1000*N3)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1038,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="7">K4-H4-I4</f>
+        <f t="shared" ref="J4:J13" si="3">K4-H4-I4</f>
         <v>0.22222222222222229</v>
       </c>
       <c r="K4">
@@ -1005,36 +1055,46 @@
         <v>15</v>
       </c>
       <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>24</v>
+      </c>
+      <c r="R4">
         <f>N4-O4</f>
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>9</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>14</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="3"/>
+      <c r="U4">
+        <f>(O4-S4)/N4</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="4"/>
+      <c r="V4">
+        <f>(R4-T4+S4)/N4</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="5"/>
+      <c r="W4">
+        <f xml:space="preserve"> 1 -T4/N4</f>
         <v>0.5</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>X4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>1 - (T4*1000 -X4*999)/(1000*N4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K5">
@@ -1083,36 +1143,46 @@
         <v>15</v>
       </c>
       <c r="P5">
+        <v>32</v>
+      </c>
+      <c r="Q5">
+        <v>24</v>
+      </c>
+      <c r="R5">
         <f>N5-O5</f>
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>15</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>18</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
+      <c r="U5">
+        <f>(O5-S5)/N5</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>(R5-T5+S5)/N5</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="5"/>
+      <c r="W5">
+        <f xml:space="preserve"> 1 -T5/N5</f>
         <v>0.3571428571428571</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>X5/N5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>1 - (T5*1000 -X5*999)/(1000*N5)</f>
+        <v>0.3571428571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1214,7 @@
         <v>0.125</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="K6">
@@ -1161,36 +1231,46 @@
         <v>16</v>
       </c>
       <c r="P6">
+        <v>22</v>
+      </c>
+      <c r="Q6">
+        <v>18</v>
+      </c>
+      <c r="R6">
         <f>N6-O6</f>
         <v>6</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>13</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>15</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
+      <c r="U6">
+        <f>(O6-S6)/N6</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
+      <c r="V6">
+        <f>(R6-T6+S6)/N6</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
+      <c r="W6">
+        <f xml:space="preserve"> 1 -T6/N6</f>
         <v>0.31818181818181823</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>1</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
+      <c r="Y6">
+        <f>X6/N6</f>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <f>1 - (T6*1000 -X6*999)/(1000*N6)</f>
+        <v>0.36359090909090908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="8">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
         <v>6</v>
       </c>
       <c r="F7">
@@ -1222,7 +1302,7 @@
         <v>0.125</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="K7">
@@ -1239,36 +1319,46 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P17" si="9">N7-O7</f>
+        <v>22</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <f>N7-O7</f>
         <v>6</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>13</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>16</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
+      <c r="U7">
+        <f>(O7-S7)/N7</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
+      <c r="V7">
+        <f>(R7-T7+S7)/N7</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
+      <c r="W7">
+        <f xml:space="preserve"> 1 -T7/N7</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f>X7/N7</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="Z7">
+        <f>1 - (T7*1000 -X7*999)/(1000*N7)</f>
+        <v>0.31813636363636366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -1300,7 +1390,7 @@
         <v>0.125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="K8">
@@ -1317,36 +1407,46 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+      <c r="R8">
+        <f>N8-O8</f>
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>13</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>17</v>
       </c>
-      <c r="S8">
-        <f>(O8-Q8)/N8</f>
+      <c r="U8">
+        <f>(O8-S8)/N8</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
+      <c r="V8">
+        <f>(R8-T8+S8)/N8</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
+      <c r="W8">
+        <f xml:space="preserve"> 1 -T8/N8</f>
         <v>0.22727272727272729</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
+      <c r="Y8">
+        <f>X8/N8</f>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <f>1 - (T8*1000 -X8*999)/(1000*N8)</f>
+        <v>0.27268181818181814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F9">
@@ -1378,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="K9">
@@ -1395,36 +1495,46 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+      <c r="R9">
+        <f>N9-O9</f>
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>16</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>20</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
+      <c r="U9">
+        <f>(O9-S9)/N9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>(R9-T9+S9)/N9</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
+      <c r="W9">
+        <f xml:space="preserve"> 1 -T9/N9</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>1</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
+      <c r="Y9">
+        <f>X9/N9</f>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <f>1 - (T9*1000 -X9*999)/(1000*N9)</f>
+        <v>0.13631818181818178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -1456,7 +1566,7 @@
         <v>0.15</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="K10">
@@ -1473,36 +1583,46 @@
         <v>14</v>
       </c>
       <c r="P10">
-        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <f>N10-O10</f>
         <v>6</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>11</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>12</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
+      <c r="U10">
+        <f>(O10-S10)/N10</f>
         <v>0.15</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
+      <c r="V10">
+        <f>(R10-T10+S10)/N10</f>
         <v>0.25</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
+      <c r="W10">
+        <f xml:space="preserve"> 1 -T10/N10</f>
         <v>0.4</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
+      <c r="Y10">
+        <f>X10/N10</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <f>1 - (T10*1000 -X10*999)/(1000*N10)</f>
+        <v>0.49990000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -1534,7 +1654,7 @@
         <v>0.15</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="K11">
@@ -1551,36 +1671,46 @@
         <v>14</v>
       </c>
       <c r="P11">
-        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <f>N11-O11</f>
         <v>6</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>11</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>13</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
+      <c r="U11">
+        <f>(O11-S11)/N11</f>
         <v>0.15</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
+      <c r="V11">
+        <f>(R11-T11+S11)/N11</f>
         <v>0.2</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
+      <c r="W11">
+        <f xml:space="preserve"> 1 -T11/N11</f>
         <v>0.35</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
+      <c r="Y11">
+        <f>X11/N11</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <f>1 - (T11*1000 -X11*999)/(1000*N11)</f>
+        <v>0.44989999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1594,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -1612,7 +1742,7 @@
         <v>0.1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="K12">
@@ -1629,36 +1759,46 @@
         <v>14</v>
       </c>
       <c r="P12">
-        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <f>N12-O12</f>
         <v>6</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>12</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>15</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
+      <c r="U12">
+        <f>(O12-S12)/N12</f>
         <v>0.1</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
+      <c r="V12">
+        <f>(R12-T12+S12)/N12</f>
         <v>0.15</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
+      <c r="W12">
+        <f xml:space="preserve"> 1 -T12/N12</f>
         <v>0.25</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>4</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
+      <c r="Y12">
+        <f>X12/N12</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <f>1 - (T12*1000 -X12*999)/(1000*N12)</f>
+        <v>0.44979999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -1690,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="K13">
@@ -1707,36 +1847,46 @@
         <v>14</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <f>N13-O13</f>
         <v>6</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>14</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>18</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
+      <c r="U13">
+        <f>(O13-S13)/N13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>(R13-T13+S13)/N13</f>
         <v>0.1</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
+      <c r="W13">
+        <f xml:space="preserve"> 1 -T13/N13</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>5</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
+      <c r="Y13">
+        <f>X13/N13</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <f>1 - (T13*1000 -X13*999)/(1000*N13)</f>
+        <v>0.34975000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -1751,36 +1901,46 @@
         <v>18</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <f>N14-O14</f>
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>13</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>16</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
+      <c r="U14">
+        <f>(O14-S14)/N14</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
+      <c r="V14">
+        <f>(R14-T14+S14)/N14</f>
         <v>0.125</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
+      <c r="W14">
+        <f xml:space="preserve"> 1 -T14/N14</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>X14/N14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>1 - (T14*1000 -X14*999)/(1000*N14)</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>63</v>
       </c>
@@ -1791,36 +1951,46 @@
         <v>18</v>
       </c>
       <c r="P15">
-        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Q15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <f>N15-O15</f>
         <v>6</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>13</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>17</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
+      <c r="U15">
+        <f>(O15-S15)/N15</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
+      <c r="V15">
+        <f>(R15-T15+S15)/N15</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
+      <c r="W15">
+        <f xml:space="preserve"> 1 -T15/N15</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>X15/N15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>1 - (T15*1000 -X15*999)/(1000*N15)</f>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>62</v>
       </c>
@@ -1831,36 +2001,46 @@
         <v>18</v>
       </c>
       <c r="P16">
-        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+      <c r="R16">
+        <f>N16-O16</f>
         <v>6</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>15</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>19</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="3"/>
+      <c r="U16">
+        <f>(O16-S16)/N16</f>
         <v>0.125</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
+      <c r="V16">
+        <f>(R16-T16+S16)/N16</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="5"/>
+      <c r="W16">
+        <f xml:space="preserve"> 1 -T16/N16</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>1</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
+      <c r="Y16">
+        <f>X16/N16</f>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="17" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <f>1 - (T16*1000 -X16*999)/(1000*N16)</f>
+        <v>0.24995833333333328</v>
+      </c>
+    </row>
+    <row r="17" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>61</v>
       </c>
@@ -1871,36 +2051,46 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Q17">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <f>N17-O17</f>
         <v>6</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>18</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>22</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
+      <c r="U17">
+        <f>(O17-S17)/N17</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>(R17-T17+S17)/N17</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="5"/>
+      <c r="W17">
+        <f xml:space="preserve"> 1 -T17/N17</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>X17/N17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>1 - (T17*1000 -X17*999)/(1000*N17)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>89</v>
       </c>
@@ -1911,36 +2101,46 @@
         <v>18</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P23" si="10">N18-O18</f>
+        <v>28</v>
+      </c>
+      <c r="Q18">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <f>N18-O18</f>
         <v>14</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>14</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>20</v>
       </c>
-      <c r="S18">
-        <f t="shared" ref="S18:S23" si="11">(O18-Q18)/N18</f>
+      <c r="U18">
+        <f>(O18-S18)/N18</f>
         <v>0.125</v>
       </c>
-      <c r="T18">
-        <f t="shared" ref="T18:T23" si="12">(P18-R18+Q18)/N18</f>
+      <c r="V18">
+        <f>(R18-T18+S18)/N18</f>
         <v>0.25</v>
       </c>
-      <c r="U18">
-        <f t="shared" ref="U18:U23" si="13" xml:space="preserve"> 1 -R18/N18</f>
+      <c r="W18">
+        <f xml:space="preserve"> 1 -T18/N18</f>
         <v>0.375</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>1</v>
       </c>
-      <c r="W18">
-        <f t="shared" ref="W18:W23" si="14">V18/N18</f>
+      <c r="Y18">
+        <f>X18/N18</f>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="19" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <f>1 - (T18*1000 -X18*999)/(1000*N18)</f>
+        <v>0.40621874999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>88</v>
       </c>
@@ -1951,36 +2151,46 @@
         <v>18</v>
       </c>
       <c r="P19">
-        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <f>N19-O19</f>
         <v>14</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>15</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>21</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="11"/>
+      <c r="U19">
+        <f>(O19-S19)/N19</f>
         <v>9.375E-2</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="12"/>
+      <c r="V19">
+        <f>(R19-T19+S19)/N19</f>
         <v>0.25</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="13"/>
+      <c r="W19">
+        <f xml:space="preserve"> 1 -T19/N19</f>
         <v>0.34375</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>X19/N19</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>1 - (T19*1000 -X19*999)/(1000*N19)</f>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="20" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>87</v>
       </c>
@@ -1991,36 +2201,46 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="Q20">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <f>N20-O20</f>
         <v>14</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>18</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>26</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="12"/>
+      <c r="U20">
+        <f>(O20-S20)/N20</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>(R20-T20+S20)/N20</f>
         <v>0.1875</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="13"/>
+      <c r="W20">
+        <f xml:space="preserve"> 1 -T20/N20</f>
         <v>0.1875</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="14"/>
+      <c r="Y20">
+        <f>X20/N20</f>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="21" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <f>1 - (T20*1000 -X20*999)/(1000*N20)</f>
+        <v>0.21871874999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>92</v>
       </c>
@@ -2030,34 +2250,38 @@
       <c r="O21">
         <v>63</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="10"/>
+      <c r="R21">
+        <f>N21-O21</f>
         <v>11</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>36</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>41</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="11"/>
+      <c r="U21">
+        <f>(O21-S21)/N21</f>
         <v>0.36486486486486486</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="12"/>
+      <c r="V21">
+        <f>(R21-T21+S21)/N21</f>
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="13"/>
+      <c r="W21">
+        <f xml:space="preserve"> 1 -T21/N21</f>
         <v>0.44594594594594594</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f>X21/N21</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>1 - (T21*1000 -X21*999)/(1000*N21)</f>
+        <v>0.44594594594594594</v>
+      </c>
+    </row>
+    <row r="22" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>91</v>
       </c>
@@ -2067,37 +2291,41 @@
       <c r="O22">
         <v>63</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="10"/>
+      <c r="R22">
+        <f>N22-O22</f>
         <v>11</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>40</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>45</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="11"/>
+      <c r="U22">
+        <f>(O22-S22)/N22</f>
         <v>0.3108108108108108</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="12"/>
+      <c r="V22">
+        <f>(R22-T22+S22)/N22</f>
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="13"/>
+      <c r="W22">
+        <f xml:space="preserve"> 1 -T22/N22</f>
         <v>0.39189189189189189</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>X22/N22</f>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>1 - (T22*1000 -X22*999)/(1000*N22)</f>
+        <v>0.39189189189189189</v>
+      </c>
+    </row>
+    <row r="23" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>90</v>
       </c>
@@ -2107,37 +2335,41 @@
       <c r="O23">
         <v>63</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="10"/>
+      <c r="R23">
+        <f>N23-O23</f>
         <v>11</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>63</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>66</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="12"/>
+      <c r="U23">
+        <f>(O23-S23)/N23</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>(R23-T23+S23)/N23</f>
         <v>0.10810810810810811</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="13"/>
+      <c r="W23">
+        <f xml:space="preserve"> 1 -T23/N23</f>
         <v>0.10810810810810811</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>X23/N23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>1 - (T23*1000 -X23*999)/(1000*N23)</f>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="25" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
         <v>10</v>
       </c>
@@ -2147,37 +2379,37 @@
       <c r="O25">
         <v>16</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <f>N25-O25</f>
         <v>6</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>13</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>15</v>
       </c>
-      <c r="S25">
-        <f t="shared" ref="S25:S26" si="15">(O25-Q25)/N25</f>
+      <c r="U25">
+        <f>(O25-S25)/N25</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T25">
-        <f t="shared" ref="T25:T28" si="16">(P25-R25+Q25)/N25</f>
+      <c r="V25">
+        <f>(R25-T25+S25)/N25</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="U25">
-        <f t="shared" ref="U25:U28" si="17" xml:space="preserve"> 1 -R25/N25</f>
+      <c r="W25">
+        <f xml:space="preserve"> 1 -T25/N25</f>
         <v>0.31818181818181823</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>1</v>
       </c>
-      <c r="W25">
-        <f t="shared" ref="W25:W28" si="18">V25/N25</f>
+      <c r="Y25">
+        <f>X25/N25</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="26" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
         <v>11</v>
       </c>
@@ -2187,37 +2419,37 @@
       <c r="O26">
         <v>16</v>
       </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P28" si="19">N26-O26</f>
+      <c r="R26">
+        <f>N26-O26</f>
         <v>6</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>13</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>16</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="15"/>
+      <c r="U26">
+        <f>(O26-S26)/N26</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="16"/>
+      <c r="V26">
+        <f>(R26-T26+S26)/N26</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="17"/>
+      <c r="W26">
+        <f xml:space="preserve"> 1 -T26/N26</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>2</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="18"/>
+      <c r="Y26">
+        <f>X26/N26</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="27" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>12</v>
       </c>
@@ -2227,37 +2459,37 @@
       <c r="O27">
         <v>16</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="19"/>
+      <c r="R27">
+        <f>N27-O27</f>
         <v>6</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>13</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>17</v>
       </c>
-      <c r="S27">
-        <f>(O27-Q27)/N27</f>
+      <c r="U27">
+        <f>(O27-S27)/N27</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="16"/>
+      <c r="V27">
+        <f>(R27-T27+S27)/N27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="17"/>
+      <c r="W27">
+        <f xml:space="preserve"> 1 -T27/N27</f>
         <v>0.22727272727272729</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="18"/>
+      <c r="Y27">
+        <f>X27/N27</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="28" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>13</v>
       </c>
@@ -2267,33 +2499,33 @@
       <c r="O28">
         <v>16</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="19"/>
+      <c r="R28">
+        <f>N28-O28</f>
         <v>6</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>16</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>20</v>
       </c>
-      <c r="S28">
-        <f t="shared" ref="S28" si="20">(O28-Q28)/N28</f>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="16"/>
+      <c r="U28">
+        <f>(O28-S28)/N28</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>(R28-T28+S28)/N28</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="17"/>
+      <c r="W28">
+        <f xml:space="preserve"> 1 -T28/N28</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="18"/>
+      <c r="Y28">
+        <f>X28/N28</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
@@ -2305,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M25"/>
+      <selection activeCell="Q14" sqref="Q14:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2555,7 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2367,31 +2599,40 @@
         <v>19</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2440,36 +2681,46 @@
         <v>43</v>
       </c>
       <c r="P2">
+        <v>88</v>
+      </c>
+      <c r="Q2">
+        <v>48</v>
+      </c>
+      <c r="R2">
         <f>N2-O2</f>
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>27</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>30</v>
       </c>
-      <c r="S2">
-        <f>(O2-Q2)/N2</f>
+      <c r="U2">
+        <f>(O2-S2)/N2</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="T2">
-        <f>(P2-R2+Q2)/N2</f>
+      <c r="V2">
+        <f>(R2-T2+S2)/N2</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="U2">
-        <f xml:space="preserve"> 1 -R2/N2</f>
+      <c r="W2">
+        <f xml:space="preserve"> 1 -T2/N2</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>V2/N2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>X2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>1 - (T2*1000 -X2*999)/(1000*N2)</f>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2518,36 +2769,46 @@
         <v>43</v>
       </c>
       <c r="P3">
+        <v>88</v>
+      </c>
+      <c r="Q3">
+        <v>48</v>
+      </c>
+      <c r="R3">
         <f>N3-O3</f>
         <v>13</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>31</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>34</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S18" si="4">(O3-Q3)/N3</f>
+      <c r="U3">
+        <f>(O3-S3)/N3</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T18" si="5">(P3-R3+Q3)/N3</f>
+      <c r="V3">
+        <f>(R3-T3+S3)/N3</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U18" si="6" xml:space="preserve"> 1 -R3/N3</f>
+      <c r="W3">
+        <f xml:space="preserve"> 1 -T3/N3</f>
         <v>0.3928571428571429</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W18" si="7">V3/N3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>X3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>1 - (T3*1000 -X3*999)/(1000*N3)</f>
+        <v>0.3928571428571429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2596,36 +2857,46 @@
         <v>43</v>
       </c>
       <c r="P4">
+        <v>88</v>
+      </c>
+      <c r="Q4">
+        <v>48</v>
+      </c>
+      <c r="R4">
         <f>N4-O4</f>
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>37</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>40</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="4"/>
+      <c r="U4">
+        <f>(O4-S4)/N4</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="5"/>
+      <c r="V4">
+        <f>(R4-T4+S4)/N4</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="6"/>
+      <c r="W4">
+        <f xml:space="preserve"> 1 -T4/N4</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>X4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>1 - (T4*1000 -X4*999)/(1000*N4)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2674,36 +2945,46 @@
         <v>43</v>
       </c>
       <c r="P5">
+        <v>88</v>
+      </c>
+      <c r="Q5">
+        <v>48</v>
+      </c>
+      <c r="R5">
         <f>N5-O5</f>
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>43</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>47</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="5"/>
+      <c r="U5">
+        <f>(O5-S5)/N5</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>(R5-T5+S5)/N5</f>
         <v>0.16071428571428573</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="6"/>
+      <c r="W5">
+        <f xml:space="preserve"> 1 -T5/N5</f>
         <v>0.1607142857142857</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>X5/N5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>1 - (T5*1000 -X5*999)/(1000*N5)</f>
+        <v>0.1607142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2752,36 +3033,46 @@
         <v>48</v>
       </c>
       <c r="P6">
+        <v>64</v>
+      </c>
+      <c r="Q6">
+        <v>56</v>
+      </c>
+      <c r="R6">
         <f>N6-O6</f>
         <v>8</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>39</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>42</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="4"/>
+      <c r="U6">
+        <f>(O6-S6)/N6</f>
         <v>0.16071428571428573</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="5"/>
+      <c r="V6">
+        <f>(R6-T6+S6)/N6</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="6"/>
+      <c r="W6">
+        <f xml:space="preserve"> 1 -T6/N6</f>
         <v>0.25</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>6</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="7"/>
+      <c r="Y6">
+        <f>X6/N6</f>
         <v>0.10714285714285714</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <f>1 - (T6*1000 -X6*999)/(1000*N6)</f>
+        <v>0.35703571428571423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2795,7 +3086,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="8">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -2830,36 +3121,46 @@
         <v>48</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P18" si="9">N7-O7</f>
+        <v>64</v>
+      </c>
+      <c r="Q7">
+        <v>56</v>
+      </c>
+      <c r="R7">
+        <f>N7-O7</f>
         <v>8</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>39</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>42</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
+      <c r="U7">
+        <f>(O7-S7)/N7</f>
         <v>0.16071428571428573</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
+      <c r="V7">
+        <f>(R7-T7+S7)/N7</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="6"/>
+      <c r="W7">
+        <f xml:space="preserve"> 1 -T7/N7</f>
         <v>0.25</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="7"/>
+      <c r="Y7">
+        <f>X7/N7</f>
         <v>8.9285714285714288E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <f>1 - (T7*1000 -X7*999)/(1000*N7)</f>
+        <v>0.33919642857142862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2873,7 +3174,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F8">
@@ -2908,36 +3209,46 @@
         <v>48</v>
       </c>
       <c r="P8">
-        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="Q8">
+        <v>56</v>
+      </c>
+      <c r="R8">
+        <f>N8-O8</f>
         <v>8</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>41</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>43</v>
       </c>
-      <c r="S8">
-        <f>(O8-Q8)/N8</f>
+      <c r="U8">
+        <f>(O8-S8)/N8</f>
         <v>0.125</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="5"/>
+      <c r="V8">
+        <f>(R8-T8+S8)/N8</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="6"/>
+      <c r="W8">
+        <f xml:space="preserve"> 1 -T8/N8</f>
         <v>0.2321428571428571</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="7"/>
+      <c r="Y8">
+        <f>X8/N8</f>
         <v>5.3571428571428568E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <f>1 - (T8*1000 -X8*999)/(1000*N8)</f>
+        <v>0.28566071428571427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2951,7 +3262,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -2986,36 +3297,46 @@
         <v>48</v>
       </c>
       <c r="P9">
-        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="Q9">
+        <v>56</v>
+      </c>
+      <c r="R9">
+        <f>N9-O9</f>
         <v>8</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>48</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>53</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
+      <c r="U9">
+        <f>(O9-S9)/N9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>(R9-T9+S9)/N9</f>
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="6"/>
+      <c r="W9">
+        <f xml:space="preserve"> 1 -T9/N9</f>
         <v>5.3571428571428603E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="7"/>
+      <c r="Y9">
+        <f>X9/N9</f>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <f>1 - (T9*1000 -X9*999)/(1000*N9)</f>
+        <v>0.19628571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3350,7 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -3064,36 +3385,46 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="R10">
+        <f>N10-O10</f>
         <v>6</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>28</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
+      <c r="U10">
+        <f>(O10-S10)/N10</f>
         <v>0.2</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
+      <c r="V10">
+        <f>(R10-T10+S10)/N10</f>
         <v>0.1</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="6"/>
+      <c r="W10">
+        <f xml:space="preserve"> 1 -T10/N10</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>4</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="7"/>
+      <c r="Y10">
+        <f>X10/N10</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <f>1 - (T10*1000 -X10*999)/(1000*N10)</f>
+        <v>0.39990000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3438,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3142,36 +3473,46 @@
         <v>34</v>
       </c>
       <c r="P11">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <f>N11-O11</f>
         <v>6</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>27</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>29</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
+      <c r="U11">
+        <f>(O11-S11)/N11</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
+      <c r="V11">
+        <f>(R11-T11+S11)/N11</f>
         <v>0.1</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="6"/>
+      <c r="W11">
+        <f xml:space="preserve"> 1 -T11/N11</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>6</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="7"/>
+      <c r="Y11">
+        <f>X11/N11</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <f>1 - (T11*1000 -X11*999)/(1000*N11)</f>
+        <v>0.42484999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3185,7 +3526,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -3220,36 +3561,46 @@
         <v>34</v>
       </c>
       <c r="P12">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>40</v>
+      </c>
+      <c r="R12">
+        <f>N12-O12</f>
         <v>6</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>28</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>32</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
+      <c r="U12">
+        <f>(O12-S12)/N12</f>
         <v>0.15</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
+      <c r="V12">
+        <f>(R12-T12+S12)/N12</f>
         <v>0.05</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="6"/>
+      <c r="W12">
+        <f xml:space="preserve"> 1 -T12/N12</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>10</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="7"/>
+      <c r="Y12">
+        <f>X12/N12</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <f>1 - (T12*1000 -X12*999)/(1000*N12)</f>
+        <v>0.44974999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3263,7 +3614,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -3298,36 +3649,46 @@
         <v>34</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13">
+        <f>N13-O13</f>
         <v>6</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>34</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>38</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="5"/>
+      <c r="U13">
+        <f>(O13-S13)/N13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>(R13-T13+S13)/N13</f>
         <v>0.05</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="6"/>
+      <c r="W13">
+        <f xml:space="preserve"> 1 -T13/N13</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>15</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="7"/>
+      <c r="Y13">
+        <f>X13/N13</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <f>1 - (T13*1000 -X13*999)/(1000*N13)</f>
+        <v>0.42462500000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>65</v>
       </c>
@@ -3338,36 +3699,46 @@
         <v>22</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <f>N14-O14</f>
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>16</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>19</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
+      <c r="U14">
+        <f>(O14-S14)/N14</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="5"/>
+      <c r="V14">
+        <f>(R14-T14+S14)/N14</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="6"/>
+      <c r="W14">
+        <f xml:space="preserve"> 1 -T14/N14</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>X14/N14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>1 - (T14*1000 -X14*999)/(1000*N14)</f>
+        <v>0.3214285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>67</v>
       </c>
@@ -3378,36 +3749,46 @@
         <v>22</v>
       </c>
       <c r="P15">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>26</v>
+      </c>
+      <c r="R15">
+        <f>N15-O15</f>
         <v>6</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>17</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>21</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
+      <c r="U15">
+        <f>(O15-S15)/N15</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="5"/>
+      <c r="V15">
+        <f>(R15-T15+S15)/N15</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="6"/>
+      <c r="W15">
+        <f xml:space="preserve"> 1 -T15/N15</f>
         <v>0.25</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>X15/N15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>1 - (T15*1000 -X15*999)/(1000*N15)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>66</v>
       </c>
@@ -3418,36 +3799,46 @@
         <v>22</v>
       </c>
       <c r="P16">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+      <c r="R16">
+        <f>N16-O16</f>
         <v>6</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>20</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>23</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
+      <c r="U16">
+        <f>(O16-S16)/N16</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="5"/>
+      <c r="V16">
+        <f>(R16-T16+S16)/N16</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="6"/>
+      <c r="W16">
+        <f xml:space="preserve"> 1 -T16/N16</f>
         <v>0.1785714285714286</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>X16/N16</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>1 - (T16*1000 -X16*999)/(1000*N16)</f>
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>64</v>
       </c>
@@ -3458,36 +3849,46 @@
         <v>22</v>
       </c>
       <c r="P17">
-        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <f>N17-O17</f>
         <v>6</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>22</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>25</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="5"/>
+      <c r="U17">
+        <f>(O17-S17)/N17</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>(R17-T17+S17)/N17</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="6"/>
+      <c r="W17">
+        <f xml:space="preserve"> 1 -T17/N17</f>
         <v>0.1071428571428571</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>X17/N17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>1 - (T17*1000 -X17*999)/(1000*N17)</f>
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>96</v>
       </c>
@@ -3497,34 +3898,38 @@
       <c r="O18">
         <v>109</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="9"/>
+      <c r="R18">
+        <f>N18-O18</f>
         <v>11</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>68</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>73</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
+      <c r="U18">
+        <f>(O18-S18)/N18</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="5"/>
+      <c r="V18">
+        <f>(R18-T18+S18)/N18</f>
         <v>0.05</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="6"/>
+      <c r="W18">
+        <f xml:space="preserve"> 1 -T18/N18</f>
         <v>0.39166666666666672</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f>X18/N18</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>1 - (T18*1000 -X18*999)/(1000*N18)</f>
+        <v>0.39166666666666672</v>
+      </c>
+    </row>
+    <row r="19" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>95</v>
       </c>
@@ -3534,34 +3939,38 @@
       <c r="O19">
         <v>109</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <f>N19-O19</f>
         <v>11</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>68</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>74</v>
       </c>
-      <c r="S19">
-        <f>(O19-Q19)/N19</f>
+      <c r="U19">
+        <f>(O19-S19)/N19</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="T19">
-        <f>(P19-R19+Q19)/N19</f>
+      <c r="V19">
+        <f>(R19-T19+S19)/N19</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="U19">
-        <f xml:space="preserve"> 1 -R19/N19</f>
+      <c r="W19">
+        <f xml:space="preserve"> 1 -T19/N19</f>
         <v>0.3833333333333333</v>
       </c>
-      <c r="W19">
-        <f>V19/N19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f>X19/N19</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>1 - (T19*1000 -X19*999)/(1000*N19)</f>
+        <v>0.3833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>94</v>
       </c>
@@ -3571,34 +3980,38 @@
       <c r="O20">
         <v>109</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <f>N20-O20</f>
         <v>11</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>76</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>80</v>
       </c>
-      <c r="S20">
-        <f>(O20-Q20)/N20</f>
+      <c r="U20">
+        <f>(O20-S20)/N20</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="T20">
-        <f>(P20-R20+Q20)/N20</f>
+      <c r="V20">
+        <f>(R20-T20+S20)/N20</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="U20">
-        <f xml:space="preserve"> 1 -R20/N20</f>
+      <c r="W20">
+        <f xml:space="preserve"> 1 -T20/N20</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="W20">
-        <f>V20/N20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f>X20/N20</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>1 - (T20*1000 -X20*999)/(1000*N20)</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>93</v>
       </c>
@@ -3608,37 +4021,41 @@
       <c r="O21">
         <v>109</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <f>N21-O21</f>
         <v>11</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>109</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>111</v>
       </c>
-      <c r="S21">
-        <f>(O21-Q21)/N21</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f>(P21-R21+Q21)/N21</f>
+      <c r="U21">
+        <f>(O21-S21)/N21</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>(R21-T21+S21)/N21</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U21">
-        <f xml:space="preserve"> 1 -R21/N21</f>
+      <c r="W21">
+        <f xml:space="preserve"> 1 -T21/N21</f>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f>V21/N21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f>X21/N21</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>1 - (T21*1000 -X21*999)/(1000*N21)</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>110</v>
       </c>
@@ -3649,36 +4066,46 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P25" si="10">N22-O22</f>
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+      <c r="R22">
+        <f>N22-O22</f>
         <v>10</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>26</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>30</v>
       </c>
-      <c r="S22">
-        <f t="shared" ref="S22:S25" si="11">(O22-Q22)/N22</f>
+      <c r="U22">
+        <f>(O22-S22)/N22</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="T22">
-        <f t="shared" ref="T22:T25" si="12">(P22-R22+Q22)/N22</f>
+      <c r="V22">
+        <f>(R22-T22+S22)/N22</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="U22">
-        <f t="shared" ref="U22:U25" si="13" xml:space="preserve"> 1 -R22/N22</f>
+      <c r="W22">
+        <f xml:space="preserve"> 1 -T22/N22</f>
         <v>0.31818181818181823</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="W22">
-        <f t="shared" ref="W22:W25" si="14">V22/N22</f>
+      <c r="Y22">
+        <f>X22/N22</f>
         <v>6.8181818181818177E-2</v>
       </c>
-    </row>
-    <row r="23" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <f>1 - (T22*1000 -X22*999)/(1000*N22)</f>
+        <v>0.38629545454545455</v>
+      </c>
+    </row>
+    <row r="23" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>112</v>
       </c>
@@ -3689,36 +4116,46 @@
         <v>34</v>
       </c>
       <c r="P23">
-        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <f>N23-O23</f>
         <v>10</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>27</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>32</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="11"/>
+      <c r="U23">
+        <f>(O23-S23)/N23</f>
         <v>0.15909090909090909</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="12"/>
+      <c r="V23">
+        <f>(R23-T23+S23)/N23</f>
         <v>0.11363636363636363</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="13"/>
+      <c r="W23">
+        <f xml:space="preserve"> 1 -T23/N23</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>5</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="14"/>
+      <c r="Y23">
+        <f>X23/N23</f>
         <v>0.11363636363636363</v>
       </c>
-    </row>
-    <row r="24" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f>1 - (T23*1000 -X23*999)/(1000*N23)</f>
+        <v>0.38624999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>111</v>
       </c>
@@ -3729,36 +4166,46 @@
         <v>34</v>
       </c>
       <c r="P24">
-        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <v>44</v>
+      </c>
+      <c r="R24">
+        <f>N24-O24</f>
         <v>10</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>30</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>35</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="11"/>
+      <c r="U24">
+        <f>(O24-S24)/N24</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="12"/>
+      <c r="V24">
+        <f>(R24-T24+S24)/N24</f>
         <v>0.11363636363636363</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="13"/>
+      <c r="W24">
+        <f xml:space="preserve"> 1 -T24/N24</f>
         <v>0.20454545454545459</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>6</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="14"/>
+      <c r="Y24">
+        <f>X24/N24</f>
         <v>0.13636363636363635</v>
       </c>
-    </row>
-    <row r="25" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f>1 - (T24*1000 -X24*999)/(1000*N24)</f>
+        <v>0.34077272727272723</v>
+      </c>
+    </row>
+    <row r="25" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
         <v>109</v>
       </c>
@@ -3769,36 +4216,46 @@
         <v>34</v>
       </c>
       <c r="P25">
-        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="Q25">
+        <v>44</v>
+      </c>
+      <c r="R25">
+        <f>N25-O25</f>
         <v>10</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>34</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>38</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="12"/>
+      <c r="U25">
+        <f>(O25-S25)/N25</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>(R25-T25+S25)/N25</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="13"/>
+      <c r="W25">
+        <f xml:space="preserve"> 1 -T25/N25</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>7</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="14"/>
+      <c r="Y25">
+        <f>X25/N25</f>
         <v>0.15909090909090909</v>
       </c>
-    </row>
-    <row r="26" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <f>1 - (T25*1000 -X25*999)/(1000*N25)</f>
+        <v>0.29529545454545458</v>
+      </c>
+    </row>
+    <row r="26" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
         <v>27</v>
       </c>
@@ -3808,37 +4265,37 @@
       <c r="O26">
         <v>46</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <f>N26-O26</f>
         <v>8</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>36</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>39</v>
       </c>
-      <c r="S26">
-        <f t="shared" ref="S26:S27" si="15">(O26-Q26)/N26</f>
+      <c r="U26">
+        <f>(O26-S26)/N26</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="T26">
-        <f t="shared" ref="T26:T29" si="16">(P26-R26+Q26)/N26</f>
+      <c r="V26">
+        <f>(R26-T26+S26)/N26</f>
         <v>9.2592592592592587E-2</v>
       </c>
-      <c r="U26">
-        <f t="shared" ref="U26:U29" si="17" xml:space="preserve"> 1 -R26/N26</f>
+      <c r="W26">
+        <f xml:space="preserve"> 1 -T26/N26</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>4</v>
       </c>
-      <c r="W26">
-        <f t="shared" ref="W26:W29" si="18">V26/N26</f>
+      <c r="Y26">
+        <f>X26/N26</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="27" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>28</v>
       </c>
@@ -3848,37 +4305,37 @@
       <c r="O27">
         <v>46</v>
       </c>
-      <c r="P27">
-        <f t="shared" ref="P27:P29" si="19">N27-O27</f>
+      <c r="R27">
+        <f>N27-O27</f>
         <v>8</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>36</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>40</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="15"/>
+      <c r="U27">
+        <f>(O27-S27)/N27</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="16"/>
+      <c r="V27">
+        <f>(R27-T27+S27)/N27</f>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="17"/>
+      <c r="W27">
+        <f xml:space="preserve"> 1 -T27/N27</f>
         <v>0.2592592592592593</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>4</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="18"/>
+      <c r="Y27">
+        <f>X27/N27</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="28" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>29</v>
       </c>
@@ -3888,37 +4345,37 @@
       <c r="O28">
         <v>46</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="19"/>
+      <c r="R28">
+        <f>N28-O28</f>
         <v>8</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>39</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>41</v>
       </c>
-      <c r="S28">
-        <f>(O28-Q28)/N28</f>
+      <c r="U28">
+        <f>(O28-S28)/N28</f>
         <v>0.12962962962962962</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="16"/>
+      <c r="V28">
+        <f>(R28-T28+S28)/N28</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="17"/>
+      <c r="W28">
+        <f xml:space="preserve"> 1 -T28/N28</f>
         <v>0.2407407407407407</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>5</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="18"/>
+      <c r="Y28">
+        <f>X28/N28</f>
         <v>9.2592592592592587E-2</v>
       </c>
     </row>
-    <row r="29" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M29" t="s">
         <v>30</v>
       </c>
@@ -3928,37 +4385,37 @@
       <c r="O29">
         <v>46</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="19"/>
+      <c r="R29">
+        <f>N29-O29</f>
         <v>8</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>46</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>51</v>
       </c>
-      <c r="S29">
-        <f t="shared" ref="S29" si="20">(O29-Q29)/N29</f>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="16"/>
+      <c r="U29">
+        <f>(O29-S29)/N29</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>(R29-T29+S29)/N29</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="17"/>
+      <c r="W29">
+        <f xml:space="preserve"> 1 -T29/N29</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>8</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="18"/>
+      <c r="Y29">
+        <f>X29/N29</f>
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="31" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>102</v>
       </c>
@@ -3972,7 +4429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="13:26" x14ac:dyDescent="0.25">
       <c r="N32">
         <v>1</v>
       </c>
@@ -5333,15 +5790,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295084A2-B2D2-4E5F-BB0C-D346381CD2B2}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5355,28 +5812,37 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5391,32 +5857,42 @@
         <v>13</v>
       </c>
       <c r="E2">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>47</v>
       </c>
-      <c r="G2">
-        <f>(C2-E2)/B2</f>
+      <c r="I2">
+        <f>(C2-G2)/B2</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="H2">
-        <f>(D2-F2+E2)/B2</f>
+      <c r="J2">
+        <f>(D2-H2+G2)/B2</f>
         <v>0.12222222222222222</v>
       </c>
-      <c r="I2">
-        <f xml:space="preserve"> 1 -F2/B2</f>
+      <c r="K2">
+        <f xml:space="preserve"> 1 -H2/B2</f>
         <v>0.47777777777777775</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>J2/B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>L2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>1 - (H2*1000 -L2*999)/(1000*B2)</f>
+        <v>0.47777777777777775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -5431,32 +5907,42 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
         <v>49</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>52</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">(C3-E3)/B3</f>
+      <c r="I3">
+        <f>(C3-G3)/B3</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="1">(D3-F3+E3)/B3</f>
+      <c r="J3">
+        <f>(D3-H3+G3)/B3</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I7" si="2" xml:space="preserve"> 1 -F3/B3</f>
+      <c r="K3">
+        <f xml:space="preserve"> 1 -H3/B3</f>
         <v>0.42222222222222228</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K23" si="3">J3/B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>L3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>1 - (H3*1000 -L3*999)/(1000*B3)</f>
+        <v>0.42222222222222228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -5471,32 +5957,42 @@
         <v>13</v>
       </c>
       <c r="E4">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>57</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="I4">
+        <f>(C4-G4)/B4</f>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4">
+        <f>(D4-H4+G4)/B4</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="K4">
+        <f xml:space="preserve"> 1 -H4/B4</f>
         <v>0.3666666666666667</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>L4/B4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>1 - (H4*1000 -L4*999)/(1000*B4)</f>
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -5511,32 +6007,42 @@
         <v>13</v>
       </c>
       <c r="E5">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
         <v>59</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>62</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="I5">
+        <f>(C5-G5)/B5</f>
         <v>0.2</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f>(D5-H5+G5)/B5</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="K5">
+        <f xml:space="preserve"> 1 -H5/B5</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>L5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>1 - (H5*1000 -L5*999)/(1000*B5)</f>
+        <v>0.31111111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5551,32 +6057,42 @@
         <v>13</v>
       </c>
       <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="G6">
         <v>65</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>68</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="I6">
+        <f>(C6-G6)/B6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6">
+        <f>(D6-H6+G6)/B6</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="K6">
+        <f xml:space="preserve"> 1 -H6/B6</f>
         <v>0.24444444444444446</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>L6/B6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>1 - (H6*1000 -L6*999)/(1000*B6)</f>
+        <v>0.24444444444444446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5587,36 +6103,46 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="4">B7-C7</f>
+        <f t="shared" ref="D7" si="0">B7-C7</f>
         <v>13</v>
       </c>
       <c r="E7">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
         <v>77</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="I7">
+        <f>(C7-G7)/B7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>(D7-H7+G7)/B7</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="K7">
+        <f xml:space="preserve"> 1 -H7/B7</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>L7/B7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>1 - (H7*1000 -L7*999)/(1000*B7)</f>
+        <v>0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5627,36 +6153,46 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D23" si="5">B8-C8</f>
+        <f t="shared" ref="D8:D23" si="1">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
         <v>41</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>43</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G23" si="6">(C8-E8)/B8</f>
+      <c r="I8">
+        <f>(C8-G8)/B8</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H23" si="7">(D8-F8+E8)/B8</f>
+      <c r="J8">
+        <f>(D8-H8+G8)/B8</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I23" si="8" xml:space="preserve"> 1 -F8/B8</f>
+      <c r="K8">
+        <f xml:space="preserve"> 1 -H8/B8</f>
         <v>0.28333333333333333</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
+      <c r="M8">
+        <f>L8/B8</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f>1 - (H8*1000 -L8*999)/(1000*B8)</f>
+        <v>0.43318333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -5667,36 +6203,46 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
         <v>42</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>44</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
+      <c r="I9">
+        <f>(C9-G9)/B9</f>
         <v>0.2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="7"/>
+      <c r="J9">
+        <f>(D9-H9+G9)/B9</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="8"/>
+      <c r="K9">
+        <f xml:space="preserve"> 1 -H9/B9</f>
         <v>0.26666666666666672</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>11</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
+      <c r="M9">
+        <f>L9/B9</f>
         <v>0.18333333333333332</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f>1 - (H9*1000 -L9*999)/(1000*B9)</f>
+        <v>0.44981666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -5707,36 +6253,46 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
         <v>46</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
+      <c r="I10">
+        <f>(C10-G10)/B10</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="7"/>
+      <c r="J10">
+        <f>(D10-H10+G10)/B10</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="8"/>
+      <c r="K10">
+        <f xml:space="preserve"> 1 -H10/B10</f>
         <v>0.16666666666666663</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>17</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+      <c r="M10">
+        <f>L10/B10</f>
         <v>0.28333333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f>1 - (H10*1000 -L10*999)/(1000*B10)</f>
+        <v>0.44971666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5747,36 +6303,46 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
         <v>54</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>58</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="7"/>
+      <c r="I11">
+        <f>(C11-G11)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>(D11-H11+G11)/B11</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="8"/>
+      <c r="K11">
+        <f xml:space="preserve"> 1 -H11/B11</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>25</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
+      <c r="M11">
+        <f>L11/B11</f>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f>1 - (H11*1000 -L11*999)/(1000*B11)</f>
+        <v>0.44958333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -5787,36 +6353,46 @@
         <v>84</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E12">
+        <v>140</v>
+      </c>
+      <c r="F12">
+        <v>102</v>
+      </c>
+      <c r="G12">
         <v>67</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>69</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
+      <c r="I12">
+        <f>(C12-G12)/B12</f>
         <v>0.18478260869565216</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="7"/>
+      <c r="J12">
+        <f>(D12-H12+G12)/B12</f>
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="8"/>
+      <c r="K12">
+        <f xml:space="preserve"> 1 -H12/B12</f>
         <v>0.25</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
+      <c r="M12">
+        <f>L12/B12</f>
         <v>0.13043478260869565</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>1 - (H12*1000 -L12*999)/(1000*B12)</f>
+        <v>0.38030434782608691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5827,36 +6403,46 @@
         <v>84</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>102</v>
+      </c>
+      <c r="G13">
         <v>68</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>72</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
+      <c r="I13">
+        <f>(C13-G13)/B13</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
+      <c r="J13">
+        <f>(D13-H13+G13)/B13</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="8"/>
+      <c r="K13">
+        <f xml:space="preserve"> 1 -H13/B13</f>
         <v>0.21739130434782605</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+      <c r="M13">
+        <f>L13/B13</f>
         <v>0.15217391304347827</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>1 - (H13*1000 -L13*999)/(1000*B13)</f>
+        <v>0.36941304347826087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5867,36 +6453,46 @@
         <v>84</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E14">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>102</v>
+      </c>
+      <c r="G14">
         <v>72</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>77</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
+      <c r="I14">
+        <f>(C14-G14)/B14</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
+      <c r="J14">
+        <f>(D14-H14+G14)/B14</f>
         <v>3.2608695652173912E-2</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="8"/>
+      <c r="K14">
+        <f xml:space="preserve"> 1 -H14/B14</f>
         <v>0.16304347826086951</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>17</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
+      <c r="M14">
+        <f>L14/B14</f>
         <v>0.18478260869565216</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f>1 - (H14*1000 -L14*999)/(1000*B14)</f>
+        <v>0.34764130434782614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5907,36 +6503,46 @@
         <v>84</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E15">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>102</v>
+      </c>
+      <c r="G15">
         <v>84</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>88</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="7"/>
+      <c r="I15">
+        <f>(C15-G15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>(D15-H15+G15)/B15</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="8"/>
+      <c r="K15">
+        <f xml:space="preserve"> 1 -H15/B15</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>17</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
+      <c r="M15">
+        <f>L15/B15</f>
         <v>0.18478260869565216</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>1 - (H15*1000 -L15*999)/(1000*B15)</f>
+        <v>0.22807608695652171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -5947,36 +6553,46 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>54</v>
+      </c>
+      <c r="G16">
         <v>35</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>37</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
+      <c r="I16">
+        <f>(C16-G16)/B16</f>
         <v>0.21153846153846154</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
+      <c r="J16">
+        <f>(D16-H16+G16)/B16</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="8"/>
+      <c r="K16">
+        <f xml:space="preserve"> 1 -H16/B16</f>
         <v>0.28846153846153844</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>L16/B16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>1 - (H16*1000 -L16*999)/(1000*B16)</f>
+        <v>0.28846153846153844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -5987,36 +6603,46 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E17">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <v>54</v>
+      </c>
+      <c r="G17">
         <v>36</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>38</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
+      <c r="I17">
+        <f>(C17-G17)/B17</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="7"/>
+      <c r="J17">
+        <f>(D17-H17+G17)/B17</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="8"/>
+      <c r="K17">
+        <f xml:space="preserve"> 1 -H17/B17</f>
         <v>0.26923076923076927</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>L17/B17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>1 - (H17*1000 -L17*999)/(1000*B17)</f>
+        <v>0.26923076923076927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -6027,36 +6653,46 @@
         <v>46</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
+      </c>
+      <c r="G18">
         <v>37</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>40</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
+      <c r="I18">
+        <f>(C18-G18)/B18</f>
         <v>0.17307692307692307</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
+      <c r="J18">
+        <f>(D18-H18+G18)/B18</f>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="8"/>
+      <c r="K18">
+        <f xml:space="preserve"> 1 -H18/B18</f>
         <v>0.23076923076923073</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>L18/B18</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>1 - (H18*1000 -L18*999)/(1000*B18)</f>
+        <v>0.23076923076923073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -6067,36 +6703,46 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>54</v>
+      </c>
+      <c r="G19">
         <v>46</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>49</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="7"/>
+      <c r="I19">
+        <f>(C19-G19)/B19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>(D19-H19+G19)/B19</f>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="8"/>
+      <c r="K19">
+        <f xml:space="preserve"> 1 -H19/B19</f>
         <v>5.7692307692307709E-2</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>L19/B19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>1 - (H19*1000 -L19*999)/(1000*B19)</f>
+        <v>5.7692307692307709E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -6107,36 +6753,46 @@
         <v>50</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
         <v>38</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>42</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
+      <c r="I20">
+        <f>(C20-G20)/B20</f>
         <v>0.2</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="7"/>
+      <c r="J20">
+        <f>(D20-H20+G20)/B20</f>
         <v>0.1</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="8"/>
+      <c r="K20">
+        <f xml:space="preserve"> 1 -H20/B20</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>5</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
+      <c r="M20">
+        <f>L20/B20</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f>1 - (H20*1000 -L20*999)/(1000*B20)</f>
+        <v>0.38324999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6147,36 +6803,46 @@
         <v>50</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21">
         <v>39</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>43</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
+      <c r="I21">
+        <f>(C21-G21)/B21</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="7"/>
+      <c r="J21">
+        <f>(D21-H21+G21)/B21</f>
         <v>0.1</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="8"/>
+      <c r="K21">
+        <f xml:space="preserve"> 1 -H21/B21</f>
         <v>0.28333333333333333</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>7</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
+      <c r="M21">
+        <f>L21/B21</f>
         <v>0.11666666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f>1 - (H21*1000 -L21*999)/(1000*B21)</f>
+        <v>0.39988333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6187,36 +6853,46 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22">
         <v>42</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>47</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
+      <c r="I22">
+        <f>(C22-G22)/B22</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="7"/>
+      <c r="J22">
+        <f>(D22-H22+G22)/B22</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="8"/>
+      <c r="K22">
+        <f xml:space="preserve"> 1 -H22/B22</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>11</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
+      <c r="M22">
+        <f>L22/B22</f>
         <v>0.18333333333333332</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f>1 - (H22*1000 -L22*999)/(1000*B22)</f>
+        <v>0.39981666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -6227,36 +6903,46 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>54</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="7"/>
+      <c r="I23">
+        <f>(C23-G23)/B23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>(D23-H23+G23)/B23</f>
         <v>0.1</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="8"/>
+      <c r="K23">
+        <f xml:space="preserve"> 1 -H23/B23</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>15</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
+      <c r="M23">
+        <f>L23/B23</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f>1 - (H23*1000 -L23*999)/(1000*B23)</f>
+        <v>0.34975000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -6267,36 +6953,36 @@
         <v>72</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="9">B24-C24</f>
+        <f t="shared" ref="D24:D27" si="2">B24-C24</f>
         <v>8</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>57</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>60</v>
       </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G27" si="10">(C24-E24)/B24</f>
+      <c r="I24">
+        <f>(C24-G24)/B24</f>
         <v>0.1875</v>
       </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H27" si="11">(D24-F24+E24)/B24</f>
+      <c r="J24">
+        <f>(D24-H24+G24)/B24</f>
         <v>6.25E-2</v>
       </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I27" si="12" xml:space="preserve"> 1 -F24/B24</f>
+      <c r="K24">
+        <f xml:space="preserve"> 1 -H24/B24</f>
         <v>0.25</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="K24">
-        <f t="shared" ref="K24:K27" si="13">J24/B24</f>
+      <c r="M24">
+        <f>L24/B24</f>
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -6307,36 +6993,36 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>59</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>63</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="10"/>
+      <c r="I25">
+        <f>(C25-G25)/B25</f>
         <v>0.16250000000000001</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="11"/>
+      <c r="J25">
+        <f>(D25-H25+G25)/B25</f>
         <v>0.05</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="12"/>
+      <c r="K25">
+        <f xml:space="preserve"> 1 -H25/B25</f>
         <v>0.21250000000000002</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>8</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="13"/>
+      <c r="M25">
+        <f>L25/B25</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -6347,36 +7033,36 @@
         <v>72</v>
       </c>
       <c r="D26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>62</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>66</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="10"/>
+      <c r="I26">
+        <f>(C26-G26)/B26</f>
         <v>0.125</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="11"/>
+      <c r="J26">
+        <f>(D26-H26+G26)/B26</f>
         <v>0.05</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="12"/>
+      <c r="K26">
+        <f xml:space="preserve"> 1 -H26/B26</f>
         <v>0.17500000000000004</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>8</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="13"/>
+      <c r="M26">
+        <f>L26/B26</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -6387,36 +7073,36 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>72</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>76</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="11"/>
+      <c r="I27">
+        <f>(C27-G27)/B27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>(D27-H27+G27)/B27</f>
         <v>0.05</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="12"/>
+      <c r="K27">
+        <f xml:space="preserve"> 1 -H27/B27</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>15</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="13"/>
+      <c r="M27">
+        <f>L27/B27</f>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6430,7 +7116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
@@ -6631,15 +7317,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B27A2-21B1-4C43-9BB1-40F9A6DF0A3D}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6653,28 +7339,37 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -6689,32 +7384,42 @@
         <v>13</v>
       </c>
       <c r="E2">
+        <v>530</v>
+      </c>
+      <c r="F2">
+        <v>144</v>
+      </c>
+      <c r="G2">
         <v>95</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>97</v>
       </c>
-      <c r="G2">
-        <f>(C2-E2)/B2</f>
+      <c r="I2">
+        <f>(C2-G2)/B2</f>
         <v>0.36470588235294116</v>
       </c>
-      <c r="H2">
-        <f>(D2-F2+E2)/B2</f>
+      <c r="J2">
+        <f>(D2-H2+G2)/B2</f>
         <v>6.4705882352941183E-2</v>
       </c>
-      <c r="I2">
-        <f xml:space="preserve"> 1 -F2/B2</f>
+      <c r="K2">
+        <f xml:space="preserve"> 1 -H2/B2</f>
         <v>0.42941176470588238</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>J2/B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>L2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>1 - (H2*1000 -L2*999)/(1000*B2)</f>
+        <v>0.42941176470588238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -6729,32 +7434,42 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>530</v>
+      </c>
+      <c r="F3">
+        <v>144</v>
+      </c>
+      <c r="G3">
         <v>104</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>107</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">(C3-E3)/B3</f>
+      <c r="I3">
+        <f>(C3-G3)/B3</f>
         <v>0.31176470588235294</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H19" si="1">(D3-F3+E3)/B3</f>
+      <c r="J3">
+        <f>(D3-H3+G3)/B3</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I19" si="2" xml:space="preserve"> 1 -F3/B3</f>
+      <c r="K3">
+        <f xml:space="preserve"> 1 -H3/B3</f>
         <v>0.37058823529411766</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K19" si="3">J3/B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>L3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>1 - (H3*1000 -L3*999)/(1000*B3)</f>
+        <v>0.37058823529411766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6769,32 +7484,42 @@
         <v>13</v>
       </c>
       <c r="E4">
+        <v>530</v>
+      </c>
+      <c r="F4">
+        <v>144</v>
+      </c>
+      <c r="G4">
         <v>114</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>117</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="I4">
+        <f>(C4-G4)/B4</f>
         <v>0.25294117647058822</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4">
+        <f>(D4-H4+G4)/B4</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="K4">
+        <f xml:space="preserve"> 1 -H4/B4</f>
         <v>0.31176470588235294</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>L4/B4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>1 - (H4*1000 -L4*999)/(1000*B4)</f>
+        <v>0.31176470588235294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -6809,32 +7534,42 @@
         <v>13</v>
       </c>
       <c r="E5">
+        <v>530</v>
+      </c>
+      <c r="F5">
+        <v>144</v>
+      </c>
+      <c r="G5">
         <v>124</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>127</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="I5">
+        <f>(C5-G5)/B5</f>
         <v>0.19411764705882353</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f>(D5-H5+G5)/B5</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="K5">
+        <f xml:space="preserve"> 1 -H5/B5</f>
         <v>0.25294117647058822</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>L5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>1 - (H5*1000 -L5*999)/(1000*B5)</f>
+        <v>0.25294117647058822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -6849,32 +7584,42 @@
         <v>13</v>
       </c>
       <c r="E6">
+        <v>530</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6">
         <v>137</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>140</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="I6">
+        <f>(C6-G6)/B6</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6">
+        <f>(D6-H6+G6)/B6</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="K6">
+        <f xml:space="preserve"> 1 -H6/B6</f>
         <v>0.17647058823529416</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>L6/B6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>1 - (H6*1000 -L6*999)/(1000*B6)</f>
+        <v>0.17647058823529416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -6885,36 +7630,46 @@
         <v>157</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D19" si="4">B7-C7</f>
+        <f t="shared" ref="D7:D23" si="0">B7-C7</f>
         <v>13</v>
       </c>
       <c r="E7">
+        <v>530</v>
+      </c>
+      <c r="F7">
+        <v>144</v>
+      </c>
+      <c r="G7">
         <v>157</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>160</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="I7">
+        <f>(C7-G7)/B7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>(D7-H7+G7)/B7</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="K7">
+        <f xml:space="preserve"> 1 -H7/B7</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>L7/B7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>1 - (H7*1000 -L7*999)/(1000*B7)</f>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6925,36 +7680,46 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8">
+        <v>108</v>
+      </c>
+      <c r="F8">
+        <v>108</v>
+      </c>
+      <c r="G8">
         <v>78</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>81</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="I8">
+        <f>(C8-G8)/B8</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8">
+        <f>(D8-H8+G8)/B8</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="K8">
+        <f xml:space="preserve"> 1 -H8/B8</f>
         <v>0.25</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>21</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
+      <c r="M8">
+        <f>L8/B8</f>
         <v>0.19444444444444445</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f>1 - (H8*1000 -L8*999)/(1000*B8)</f>
+        <v>0.44425000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6965,36 +7730,46 @@
         <v>102</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="F9">
+        <v>108</v>
+      </c>
+      <c r="G9">
         <v>84</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>88</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="I9">
+        <f>(C9-G9)/B9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="J9">
+        <f>(D9-H9+G9)/B9</f>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="K9">
+        <f xml:space="preserve"> 1 -H9/B9</f>
         <v>0.18518518518518523</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>28</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
+      <c r="M9">
+        <f>L9/B9</f>
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f>1 - (H9*1000 -L9*999)/(1000*B9)</f>
+        <v>0.44418518518518524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7005,36 +7780,46 @@
         <v>102</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E10">
+        <v>108</v>
+      </c>
+      <c r="F10">
+        <v>108</v>
+      </c>
+      <c r="G10">
         <v>92</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>96</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="I10">
+        <f>(C10-G10)/B10</f>
         <v>9.2592592592592587E-2</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="J10">
+        <f>(D10-H10+G10)/B10</f>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="K10">
+        <f xml:space="preserve"> 1 -H10/B10</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>38</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+      <c r="M10">
+        <f>L10/B10</f>
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f>1 - (H10*1000 -L10*999)/(1000*B10)</f>
+        <v>0.46261111111111108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -7045,36 +7830,46 @@
         <v>102</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E11">
+        <v>108</v>
+      </c>
+      <c r="F11">
+        <v>108</v>
+      </c>
+      <c r="G11">
         <v>102</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>106</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <f>(C11-G11)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>(D11-H11+G11)/B11</f>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="K11">
+        <f xml:space="preserve"> 1 -H11/B11</f>
         <v>1.851851851851849E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>49</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
+      <c r="M11">
+        <f>L11/B11</f>
         <v>0.45370370370370372</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f>1 - (H11*1000 -L11*999)/(1000*B11)</f>
+        <v>0.47176851851851853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -7085,27 +7880,34 @@
         <v>170</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <v>186</v>
+      </c>
+      <c r="I12">
+        <f>(C12-G12)/B12</f>
         <v>0.9550561797752809</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="J12">
+        <f>(D12-H12+G12)/B12</f>
         <v>4.49438202247191E-2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="K12">
+        <f xml:space="preserve"> 1 -H12/B12</f>
         <v>1</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>L12/B12</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>1 - (H12*1000 -L12*999)/(1000*B12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -7116,27 +7918,34 @@
         <v>170</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <v>186</v>
+      </c>
+      <c r="I13">
+        <f>(C13-G13)/B13</f>
         <v>0.9550561797752809</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="J13">
+        <f>(D13-H13+G13)/B13</f>
         <v>4.49438202247191E-2</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="K13">
+        <f xml:space="preserve"> 1 -H13/B13</f>
         <v>1</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f>L13/B13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>1 - (H13*1000 -L13*999)/(1000*B13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -7147,27 +7956,34 @@
         <v>170</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <v>186</v>
+      </c>
+      <c r="I14">
+        <f>(C14-G14)/B14</f>
         <v>0.9550561797752809</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="J14">
+        <f>(D14-H14+G14)/B14</f>
         <v>4.49438202247191E-2</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
+      <c r="K14">
+        <f xml:space="preserve"> 1 -H14/B14</f>
         <v>1</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>L14/B14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>1 - (H14*1000 -L14*999)/(1000*B14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -7178,35 +7994,42 @@
         <v>170</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>186</v>
+      </c>
+      <c r="G15">
         <v>170</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>173</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <f>(C15-G15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>(D15-H15+G15)/B15</f>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="K15">
+        <f xml:space="preserve"> 1 -H15/B15</f>
         <v>2.8089887640449396E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>43</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>1 - (H15*1000 -L15*999)/(1000*B15)</f>
+        <v>0.26942134831460673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -7217,36 +8040,43 @@
         <v>120</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>132</v>
+      </c>
+      <c r="G16">
         <v>84</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>88</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="I16">
+        <f>(C16-G16)/B16</f>
         <v>0.27692307692307694</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="J16">
+        <f>(D16-H16+G16)/B16</f>
         <v>4.6153846153846156E-2</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="K16">
+        <f xml:space="preserve"> 1 -H16/B16</f>
         <v>0.32307692307692304</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>L16/B16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>1 - (H16*1000 -L16*999)/(1000*B16)</f>
+        <v>0.32307692307692304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -7257,36 +8087,43 @@
         <v>120</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>132</v>
+      </c>
+      <c r="G17">
         <v>91</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>94</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f>(C17-G17)/B17</f>
         <v>0.22307692307692309</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="J17">
+        <f>(D17-H17+G17)/B17</f>
         <v>5.3846153846153849E-2</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="K17">
+        <f xml:space="preserve"> 1 -H17/B17</f>
         <v>0.27692307692307694</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>L17/B17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>1 - (H17*1000 -L17*999)/(1000*B17)</f>
+        <v>0.27692307692307694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -7297,36 +8134,43 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>132</v>
+      </c>
+      <c r="G18">
         <v>102</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>107</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f>(C18-G18)/B18</f>
         <v>0.13846153846153847</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="J18">
+        <f>(D18-H18+G18)/B18</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="K18">
+        <f xml:space="preserve"> 1 -H18/B18</f>
         <v>0.17692307692307696</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>L18/B18</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>1 - (H18*1000 -L18*999)/(1000*B18)</f>
+        <v>0.17692307692307696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -7337,33 +8181,240 @@
         <v>120</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>132</v>
+      </c>
+      <c r="G19">
         <v>120</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>122</v>
       </c>
-      <c r="G19">
+      <c r="I19">
+        <f>(C19-G19)/B19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>(D19-H19+G19)/B19</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> 1 -H19/B19</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>L19/B19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>1 - (H19*1000 -L19*999)/(1000*B19)</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>108</v>
+      </c>
+      <c r="C20">
+        <v>98</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>6.1538461538461542E-2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>6.1538461538461542E-2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>610</v>
+      </c>
+      <c r="F20">
+        <v>108</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <f>(C20-G20)/B20</f>
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="J20">
+        <f>(D20-H20+G20)/B20</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> 1 -H20/B20</f>
+        <v>0.26851851851851849</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <f>L20/B20</f>
+        <v>0.15740740740740741</v>
+      </c>
+      <c r="N20">
+        <f>1 - (H20*1000 -L20*999)/(1000*B20)</f>
+        <v>0.42576851851851849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>108</v>
+      </c>
+      <c r="C21">
+        <v>98</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>610</v>
+      </c>
+      <c r="F21">
+        <v>108</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <f>(C21-G21)/B21</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J21">
+        <f>(D21-H21+G21)/B21</f>
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> 1 -H21/B21</f>
+        <v>0.21296296296296291</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <f>L21/B21</f>
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="N21">
+        <f>1 - (H21*1000 -L21*999)/(1000*B21)</f>
+        <v>0.42571296296296302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>108</v>
+      </c>
+      <c r="C22">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>610</v>
+      </c>
+      <c r="F22">
+        <v>108</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <f>(C22-G22)/B22</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="J22">
+        <f>(D22-H22+G22)/B22</f>
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> 1 -H22/B22</f>
+        <v>0.12037037037037035</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <f>L22/B22</f>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="N22">
+        <f>1 - (H22*1000 -L22*999)/(1000*B22)</f>
+        <v>0.44412037037037033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>98</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>610</v>
+      </c>
+      <c r="F23">
+        <v>108</v>
+      </c>
+      <c r="G23">
+        <v>98</v>
+      </c>
+      <c r="H23">
+        <v>102</v>
+      </c>
+      <c r="I23">
+        <f>(C23-G23)/B23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>(D23-H23+G23)/B23</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> 1 -H23/B23</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <f>L23/B23</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="N23">
+        <f>1 - (H23*1000 -L23*999)/(1000*B23)</f>
+        <v>0.4163055555555556</v>
       </c>
     </row>
   </sheetData>

--- a/example/result.xlsx
+++ b/example/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32BA5D-58FF-4B0E-A8F5-1A0B07712598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA6838-4DAD-4B5E-BBF7-8F23D1C53816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="158">
   <si>
     <t>Bench</t>
   </si>
@@ -413,6 +413,108 @@
   </si>
   <si>
     <t>bse+re</t>
+  </si>
+  <si>
+    <t>IQP5</t>
+  </si>
+  <si>
+    <t>QFT5</t>
+  </si>
+  <si>
+    <t>HLF7</t>
+  </si>
+  <si>
+    <t>HC6</t>
+  </si>
+  <si>
+    <t>BV10</t>
+  </si>
+  <si>
+    <t>IQP10</t>
+  </si>
+  <si>
+    <t>QFT10</t>
+  </si>
+  <si>
+    <t>HLF10</t>
+  </si>
+  <si>
+    <t>HC10</t>
+  </si>
+  <si>
+    <t>BV15</t>
+  </si>
+  <si>
+    <t>IQP15</t>
+  </si>
+  <si>
+    <t>QFT15</t>
+  </si>
+  <si>
+    <t>HLF15</t>
+  </si>
+  <si>
+    <t>BV27</t>
+  </si>
+  <si>
+    <t>IQP27</t>
+  </si>
+  <si>
+    <t>QFT27</t>
+  </si>
+  <si>
+    <t>HLF27</t>
+  </si>
+  <si>
+    <t>HC14</t>
+  </si>
+  <si>
+    <t>HC26</t>
+  </si>
+  <si>
+    <t>IQP27(35)</t>
+  </si>
+  <si>
+    <t>IQP27(39)</t>
+  </si>
+  <si>
+    <t>IQP27(43)</t>
+  </si>
+  <si>
+    <t>IQP27(47)</t>
+  </si>
+  <si>
+    <t>Ave.5</t>
+  </si>
+  <si>
+    <t>Ave.10</t>
+  </si>
+  <si>
+    <t>Ave.15</t>
+  </si>
+  <si>
+    <t>Ave.27</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t>BV27(63)</t>
+  </si>
+  <si>
+    <t>BV27(73)</t>
+  </si>
+  <si>
+    <t>BV27(83)</t>
+  </si>
+  <si>
+    <t>BV27(70)</t>
+  </si>
+  <si>
+    <t>BV27(87)</t>
+  </si>
+  <si>
+    <t>BV27(103)</t>
   </si>
 </sst>
 </file>
@@ -471,6 +573,1522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Table-based</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$B$24:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>BV5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HC6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ave.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BV10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IQP10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QFT10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HLF10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HC10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ave.10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BV15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IQP15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>QFT15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HLF15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>HC14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ave.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>BV27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IQP27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>QFT27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>HLF27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>HC26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ave.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$C$24:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19536796536796536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16071428571428573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20850649350649347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18478260869565216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23370865849126718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22307692307692309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21296296296296297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2465935981230099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22104417887218403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA36-49B3-854A-E5ACB271C4D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Leaves Placement</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$B$24:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>BV5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HC6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ave.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BV10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IQP10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QFT10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HLF10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HC10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ave.10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BV15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IQP15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>QFT15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HLF15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>HC14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ave.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>BV27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IQP27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>QFT27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>HLF27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>HC26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ave.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$D$24:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21850649350649348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9285714285714288E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12227272727272727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5217391304347824E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.620587142326272E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4705882352941183E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3846153846153849E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2377073906485674E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11984054152724229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA36-49B3-854A-E5ACB271C4D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Circuit Scheduling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$B$24:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>BV5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HC6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ave.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BV10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IQP10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QFT10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HLF10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HC10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ave.10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BV15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IQP15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>QFT15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HLF15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>HC14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ave.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>BV27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IQP27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>QFT27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>HLF27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>HC26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ave.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$E$24:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.5714285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2483766233766235E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3636363636363634E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13043478260869565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3266443701226295E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3529411764705882E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6923076923076927E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0614714261773102E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5000321958282296E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA36-49B3-854A-E5ACB271C4D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2013833951"/>
+        <c:axId val="2013832031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2013833951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013832031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2013832031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>W.R.T. Depth Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013833951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F0D656-12AB-A2DD-C01F-101EF290CD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,14 +2354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6991F49-6444-43CA-9AF8-AA5E2FA14897}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -885,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="R2">
-        <f>N2-O2</f>
+        <f t="shared" ref="R2:R23" si="1">N2-O2</f>
         <v>13</v>
       </c>
       <c r="S2">
@@ -895,27 +2514,25 @@
         <v>10</v>
       </c>
       <c r="U2">
-        <f>(O2-S2)/N2</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="V2">
-        <f>(R2-T2+S2)/N2</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="W2">
-        <f xml:space="preserve"> 1 -T2/N2</f>
+        <f t="shared" ref="W2:W23" si="2" xml:space="preserve"> 1 -T2/N2</f>
         <v>0.64285714285714279</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <f>X2/N2</f>
-        <v>0</v>
+        <f t="shared" ref="Y2:Y23" si="3">X2/N2</f>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z2">
-        <f>1 - (T2*1000 -X2*999)/(1000*N2)</f>
-        <v>0.64285714285714279</v>
+        <f t="shared" ref="Z2:Z23" si="4">1 - (T2*1000 -X2*999)/(1000*N2)</f>
+        <v>0.67853571428571424</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -942,11 +2559,11 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">(B3-C3)/B3</f>
+        <f t="shared" ref="H3:H14" si="5">(B3-C3)/B3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="2">(D3-F3)/B3</f>
+        <f t="shared" ref="I3:I13" si="6">(D3-F3)/B3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="J3">
@@ -973,7 +2590,7 @@
         <v>24</v>
       </c>
       <c r="R3">
-        <f>N3-O3</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S3">
@@ -983,27 +2600,27 @@
         <v>12</v>
       </c>
       <c r="U3">
-        <f>(O3-S3)/N3</f>
+        <f t="shared" ref="U2:U23" si="7">(O3-S3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="V3">
-        <f>(R3-T3+S3)/N3</f>
+        <f t="shared" ref="V2:V23" si="8">(R3-T3+S3)/N3</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="W3">
-        <f xml:space="preserve"> 1 -T3/N3</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <f>X3/N3</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z3">
-        <f>1 - (T3*1000 -X3*999)/(1000*N3)</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>0.60710714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1030,15 +2647,15 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="3">K4-H4-I4</f>
+        <f t="shared" ref="J4:J13" si="9">K4-H4-I4</f>
         <v>0.22222222222222229</v>
       </c>
       <c r="K4">
@@ -1061,37 +2678,37 @@
         <v>24</v>
       </c>
       <c r="R4">
-        <f>N4-O4</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S4">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U4">
-        <f>(O4-S4)/N4</f>
+        <f t="shared" si="7"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="V4">
-        <f>(R4-T4+S4)/N4</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="8"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="W4">
-        <f xml:space="preserve"> 1 -T4/N4</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.4285714285714286</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <f>X4/N4</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z4">
-        <f>1 - (T4*1000 -X4*999)/(1000*N4)</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.46425000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1118,15 +2735,15 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K5">
@@ -1149,37 +2766,37 @@
         <v>24</v>
       </c>
       <c r="R5">
-        <f>N5-O5</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S5">
         <v>15</v>
       </c>
       <c r="T5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U5">
-        <f>(O5-S5)/N5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>(R5-T5+S5)/N5</f>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="8"/>
+        <v>0.17857142857142858</v>
       </c>
       <c r="W5">
-        <f xml:space="preserve"> 1 -T5/N5</f>
-        <v>0.3571428571428571</v>
+        <f t="shared" si="2"/>
+        <v>0.1785714285714286</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <f>X5/N5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z5">
-        <f>1 - (T5*1000 -X5*999)/(1000*N5)</f>
-        <v>0.3571428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.21425000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1206,15 +2823,15 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="K6">
@@ -1237,7 +2854,7 @@
         <v>18</v>
       </c>
       <c r="R6">
-        <f>N6-O6</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S6">
@@ -1247,26 +2864,26 @@
         <v>15</v>
       </c>
       <c r="U6">
-        <f>(O6-S6)/N6</f>
+        <f t="shared" si="7"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="V6">
-        <f>(R6-T6+S6)/N6</f>
+        <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="W6">
-        <f xml:space="preserve"> 1 -T6/N6</f>
+        <f t="shared" si="2"/>
         <v>0.31818181818181823</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <f>X6/N6</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Z6">
-        <f>1 - (T6*1000 -X6*999)/(1000*N6)</f>
+        <f t="shared" si="4"/>
         <v>0.36359090909090908</v>
       </c>
     </row>
@@ -1284,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="10">C7-D7</f>
         <v>6</v>
       </c>
       <c r="F7">
@@ -1294,15 +2911,15 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="K7">
@@ -1325,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="R7">
-        <f>N7-O7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S7">
@@ -1335,26 +2952,26 @@
         <v>16</v>
       </c>
       <c r="U7">
-        <f>(O7-S7)/N7</f>
+        <f t="shared" si="7"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="V7">
-        <f>(R7-T7+S7)/N7</f>
+        <f t="shared" si="8"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="W7">
-        <f xml:space="preserve"> 1 -T7/N7</f>
+        <f t="shared" si="2"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <f>X7/N7</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Z7">
-        <f>1 - (T7*1000 -X7*999)/(1000*N7)</f>
+        <f t="shared" si="4"/>
         <v>0.31813636363636366</v>
       </c>
     </row>
@@ -1372,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -1382,15 +2999,15 @@
         <v>17</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="K8">
@@ -1413,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="R8">
-        <f>N8-O8</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S8">
@@ -1423,26 +3040,26 @@
         <v>17</v>
       </c>
       <c r="U8">
-        <f>(O8-S8)/N8</f>
+        <f t="shared" si="7"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="V8">
-        <f>(R8-T8+S8)/N8</f>
+        <f t="shared" si="8"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="W8">
-        <f xml:space="preserve"> 1 -T8/N8</f>
+        <f t="shared" si="2"/>
         <v>0.22727272727272729</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <f>X8/N8</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Z8">
-        <f>1 - (T8*1000 -X8*999)/(1000*N8)</f>
+        <f t="shared" si="4"/>
         <v>0.27268181818181814</v>
       </c>
     </row>
@@ -1460,7 +3077,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F9">
@@ -1470,15 +3087,15 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="K9">
@@ -1501,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="R9">
-        <f>N9-O9</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S9">
@@ -1511,26 +3128,26 @@
         <v>20</v>
       </c>
       <c r="U9">
-        <f>(O9-S9)/N9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>(R9-T9+S9)/N9</f>
+        <f t="shared" si="8"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="W9">
-        <f xml:space="preserve"> 1 -T9/N9</f>
+        <f t="shared" si="2"/>
         <v>9.0909090909090939E-2</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>X9/N9</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Z9">
-        <f>1 - (T9*1000 -X9*999)/(1000*N9)</f>
+        <f t="shared" si="4"/>
         <v>0.13631818181818178</v>
       </c>
     </row>
@@ -1548,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -1558,15 +3175,15 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="K10">
@@ -1589,7 +3206,7 @@
         <v>20</v>
       </c>
       <c r="R10">
-        <f>N10-O10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S10">
@@ -1599,22 +3216,22 @@
         <v>12</v>
       </c>
       <c r="U10">
-        <f>(O10-S10)/N10</f>
+        <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
       <c r="V10">
-        <f>(R10-T10+S10)/N10</f>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="W10">
-        <f xml:space="preserve"> 1 -T10/N10</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="X10">
         <v>2</v>
       </c>
       <c r="Y10">
-        <f>X10/N10</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Z10">
@@ -1636,7 +3253,7 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -1646,15 +3263,15 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="K11">
@@ -1677,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="R11">
-        <f>N11-O11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S11">
@@ -1687,26 +3304,26 @@
         <v>13</v>
       </c>
       <c r="U11">
-        <f>(O11-S11)/N11</f>
+        <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
       <c r="V11">
-        <f>(R11-T11+S11)/N11</f>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="W11">
-        <f xml:space="preserve"> 1 -T11/N11</f>
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11">
-        <f>X11/N11</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Z11">
-        <f>1 - (T11*1000 -X11*999)/(1000*N11)</f>
+        <f t="shared" si="4"/>
         <v>0.44989999999999997</v>
       </c>
     </row>
@@ -1724,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -1734,15 +3351,15 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
       <c r="K12">
@@ -1765,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="R12">
-        <f>N12-O12</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S12">
@@ -1775,26 +3392,26 @@
         <v>15</v>
       </c>
       <c r="U12">
-        <f>(O12-S12)/N12</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="V12">
-        <f>(R12-T12+S12)/N12</f>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="W12">
-        <f xml:space="preserve"> 1 -T12/N12</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="X12">
         <v>4</v>
       </c>
       <c r="Y12">
-        <f>X12/N12</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="Z12">
-        <f>1 - (T12*1000 -X12*999)/(1000*N12)</f>
+        <f t="shared" si="4"/>
         <v>0.44979999999999998</v>
       </c>
     </row>
@@ -1812,7 +3429,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -1822,15 +3439,15 @@
         <v>18</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="K13">
@@ -1853,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="R13">
-        <f>N13-O13</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S13">
@@ -1863,32 +3480,32 @@
         <v>18</v>
       </c>
       <c r="U13">
-        <f>(O13-S13)/N13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>(R13-T13+S13)/N13</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="W13">
-        <f xml:space="preserve"> 1 -T13/N13</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Y13">
-        <f>X13/N13</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="Z13">
-        <f>1 - (T13*1000 -X13*999)/(1000*N13)</f>
+        <f t="shared" si="4"/>
         <v>0.34975000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" t="s">
@@ -1907,7 +3524,7 @@
         <v>26</v>
       </c>
       <c r="R14">
-        <f>N14-O14</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S14">
@@ -1917,26 +3534,26 @@
         <v>16</v>
       </c>
       <c r="U14">
-        <f>(O14-S14)/N14</f>
+        <f t="shared" si="7"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="V14">
-        <f>(R14-T14+S14)/N14</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="W14">
-        <f xml:space="preserve"> 1 -T14/N14</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>X14/N14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>1 - (T14*1000 -X14*999)/(1000*N14)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -1957,7 +3574,7 @@
         <v>26</v>
       </c>
       <c r="R15">
-        <f>N15-O15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S15">
@@ -1967,26 +3584,26 @@
         <v>17</v>
       </c>
       <c r="U15">
-        <f>(O15-S15)/N15</f>
+        <f t="shared" si="7"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="V15">
-        <f>(R15-T15+S15)/N15</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="W15">
-        <f xml:space="preserve"> 1 -T15/N15</f>
+        <f t="shared" si="2"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>X15/N15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>1 - (T15*1000 -X15*999)/(1000*N15)</f>
+        <f t="shared" si="4"/>
         <v>0.29166666666666663</v>
       </c>
     </row>
@@ -2007,7 +3624,7 @@
         <v>26</v>
       </c>
       <c r="R16">
-        <f>N16-O16</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S16">
@@ -2017,30 +3634,30 @@
         <v>19</v>
       </c>
       <c r="U16">
-        <f>(O16-S16)/N16</f>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="V16">
-        <f>(R16-T16+S16)/N16</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="W16">
-        <f xml:space="preserve"> 1 -T16/N16</f>
+        <f t="shared" si="2"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <f>X16/N16</f>
+        <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="Z16">
-        <f>1 - (T16*1000 -X16*999)/(1000*N16)</f>
+        <f t="shared" si="4"/>
         <v>0.24995833333333328</v>
       </c>
     </row>
-    <row r="17" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +3674,7 @@
         <v>26</v>
       </c>
       <c r="R17">
-        <f>N17-O17</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S17">
@@ -2067,30 +3684,30 @@
         <v>22</v>
       </c>
       <c r="U17">
-        <f>(O17-S17)/N17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>(R17-T17+S17)/N17</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="W17">
-        <f xml:space="preserve"> 1 -T17/N17</f>
+        <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>X17/N17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>1 - (T17*1000 -X17*999)/(1000*N17)</f>
+        <f t="shared" si="4"/>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="18" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>89</v>
       </c>
@@ -2107,7 +3724,7 @@
         <v>24</v>
       </c>
       <c r="R18">
-        <f>N18-O18</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="S18">
@@ -2117,30 +3734,30 @@
         <v>20</v>
       </c>
       <c r="U18">
-        <f>(O18-S18)/N18</f>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="V18">
-        <f>(R18-T18+S18)/N18</f>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="W18">
-        <f xml:space="preserve"> 1 -T18/N18</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <f>X18/N18</f>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
       <c r="Z18">
-        <f>1 - (T18*1000 -X18*999)/(1000*N18)</f>
+        <f t="shared" si="4"/>
         <v>0.40621874999999996</v>
       </c>
     </row>
-    <row r="19" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>88</v>
       </c>
@@ -2157,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="R19">
-        <f>N19-O19</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="S19">
@@ -2167,30 +3784,30 @@
         <v>21</v>
       </c>
       <c r="U19">
-        <f>(O19-S19)/N19</f>
+        <f t="shared" si="7"/>
         <v>9.375E-2</v>
       </c>
       <c r="V19">
-        <f>(R19-T19+S19)/N19</f>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="W19">
-        <f xml:space="preserve"> 1 -T19/N19</f>
+        <f t="shared" si="2"/>
         <v>0.34375</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <f>X19/N19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>1 - (T19*1000 -X19*999)/(1000*N19)</f>
+        <f t="shared" si="4"/>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="20" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>87</v>
       </c>
@@ -2207,7 +3824,7 @@
         <v>24</v>
       </c>
       <c r="R20">
-        <f>N20-O20</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="S20">
@@ -2217,30 +3834,30 @@
         <v>26</v>
       </c>
       <c r="U20">
-        <f>(O20-S20)/N20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>(R20-T20+S20)/N20</f>
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
       <c r="W20">
-        <f xml:space="preserve"> 1 -T20/N20</f>
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
-        <f>X20/N20</f>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
       <c r="Z20">
-        <f>1 - (T20*1000 -X20*999)/(1000*N20)</f>
+        <f t="shared" si="4"/>
         <v>0.21871874999999996</v>
       </c>
     </row>
-    <row r="21" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>92</v>
       </c>
@@ -2251,7 +3868,7 @@
         <v>63</v>
       </c>
       <c r="R21">
-        <f>N21-O21</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S21">
@@ -2261,27 +3878,27 @@
         <v>41</v>
       </c>
       <c r="U21">
-        <f>(O21-S21)/N21</f>
+        <f t="shared" si="7"/>
         <v>0.36486486486486486</v>
       </c>
       <c r="V21">
-        <f>(R21-T21+S21)/N21</f>
+        <f t="shared" si="8"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="W21">
-        <f xml:space="preserve"> 1 -T21/N21</f>
+        <f t="shared" si="2"/>
         <v>0.44594594594594594</v>
       </c>
       <c r="Y21">
-        <f>X21/N21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f>1 - (T21*1000 -X21*999)/(1000*N21)</f>
+        <f t="shared" si="4"/>
         <v>0.44594594594594594</v>
       </c>
     </row>
-    <row r="22" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>91</v>
       </c>
@@ -2292,7 +3909,7 @@
         <v>63</v>
       </c>
       <c r="R22">
-        <f>N22-O22</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S22">
@@ -2302,30 +3919,30 @@
         <v>45</v>
       </c>
       <c r="U22">
-        <f>(O22-S22)/N22</f>
+        <f t="shared" si="7"/>
         <v>0.3108108108108108</v>
       </c>
       <c r="V22">
-        <f>(R22-T22+S22)/N22</f>
+        <f t="shared" si="8"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="W22">
-        <f xml:space="preserve"> 1 -T22/N22</f>
+        <f t="shared" si="2"/>
         <v>0.39189189189189189</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <f>X22/N22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f>1 - (T22*1000 -X22*999)/(1000*N22)</f>
+        <f t="shared" si="4"/>
         <v>0.39189189189189189</v>
       </c>
     </row>
-    <row r="23" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>90</v>
       </c>
@@ -2336,7 +3953,7 @@
         <v>63</v>
       </c>
       <c r="R23">
-        <f>N23-O23</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S23">
@@ -2346,30 +3963,64 @@
         <v>66</v>
       </c>
       <c r="U23">
-        <f>(O23-S23)/N23</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>(R23-T23+S23)/N23</f>
+        <f t="shared" si="8"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="W23">
-        <f xml:space="preserve"> 1 -T23/N23</f>
+        <f t="shared" si="2"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>X23/N23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f>1 - (T23*1000 -X23*999)/(1000*N23)</f>
+        <f t="shared" si="4"/>
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="25" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="D24">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E24">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F24">
+        <f>C24+D24+E24</f>
+        <v>0.67857142857142849</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D25">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E25">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F28" si="11">C25+D25+E25</f>
+        <v>0.36363636363636365</v>
+      </c>
       <c r="M25" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +4060,23 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="26" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <v>0.15</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
@@ -2449,7 +4116,23 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="27" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D27">
+        <v>0.125</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333337</v>
+      </c>
       <c r="M27" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +4172,23 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="28" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>0.125</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+      <c r="E28">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="11"/>
+        <v>0.40625</v>
+      </c>
       <c r="M28" t="s">
         <v>13</v>
       </c>
@@ -2529,9 +4228,673 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C24:C28)</f>
+        <v>0.19536796536796536</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:F29" si="12">AVERAGE(D24:D28)</f>
+        <v>0.21850649350649348</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="12"/>
+        <v>4.2483766233766235E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="12"/>
+        <v>0.4563582251082251</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D30">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="E30">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="F30">
+        <f>C30+D30+E30</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="D31">
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="F31">
+        <f>C31+D31+E31</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <f>C32+D32+E32</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="D33">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="E33">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F33">
+        <f>C33+D33+E33</f>
+        <v>0.3571428571428571</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D34">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E34">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="F34">
+        <f>C34+D34+E34</f>
+        <v>0.38636363636363635</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(C30:C34)</f>
+        <v>0.20850649350649347</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="13">AVERAGE(D30:D34)</f>
+        <v>0.12227272727272727</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="14">AVERAGE(E30:E34)</f>
+        <v>8.3636363636363634E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="15">AVERAGE(F30:F34)</f>
+        <v>0.41441558441558446</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D36">
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="E36">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F36">
+        <f>C36+D36+E36</f>
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37">
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="D37">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="F37">
+        <f>C37+D37+E37</f>
+        <v>0.38043478260869568</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D38">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <f>C38+D38+E38</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="D39">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E39">
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="F39">
+        <f>C39+D39+E39</f>
+        <v>0.30769230769230765</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F40">
+        <f>C40+D40+E40</f>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE(C36:C40)</f>
+        <v>0.23370865849126718</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">AVERAGE(D36:D40)</f>
+        <v>8.620587142326272E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">AVERAGE(E36:E40)</f>
+        <v>8.3266443701226295E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="18">AVERAGE(F36:F40)</f>
+        <v>0.40318097361575622</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42">
+        <v>0.36470588235294116</v>
+      </c>
+      <c r="D42">
+        <v>6.4705882352941183E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="F42">
+        <f>C42+D42+E42</f>
+        <v>0.45294117647058818</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43">
+        <v>0.21</v>
+      </c>
+      <c r="D43">
+        <v>0.06</v>
+      </c>
+      <c r="E43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F43">
+        <f>C43+D43+E43</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D44">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F44">
+        <f>C44+D44+E44</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>0.22307692307692309</v>
+      </c>
+      <c r="D45">
+        <v>5.3846153846153849E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.6923076923076927E-3</v>
+      </c>
+      <c r="F45">
+        <f>C45+D45+E45</f>
+        <v>0.2846153846153846</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="D46">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.15740740740740741</v>
+      </c>
+      <c r="F46">
+        <f>C46+D46+E46</f>
+        <v>0.42592592592592593</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE(C42:C46)</f>
+        <v>0.2465935981230099</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="19">AVERAGE(D42:D46)</f>
+        <v>5.2377073906485674E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="20">AVERAGE(E42:E46)</f>
+        <v>9.0614714261773102E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="21">AVERAGE(F42:F46)</f>
+        <v>0.38958538629126871</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48">
+        <f>(C29*5+C35*5+C41*5+C47*5)/20</f>
+        <v>0.22104417887218403</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:F48" si="22">(D29*5+D35*5+D41*5+D47*5)/20</f>
+        <v>0.11984054152724229</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="22"/>
+        <v>7.5000321958282296E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="22"/>
+        <v>0.41588504235770862</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="E51">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F54" si="23">C51+D51+E51</f>
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="D52">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E52">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="23"/>
+        <v>0.46428571428571425</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D53">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E53">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="23"/>
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="D54">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E54">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="23"/>
+        <v>0.67857142857142849</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <v>0.25</v>
+      </c>
+      <c r="F55">
+        <f>C55+D55+E55</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>0.1</v>
+      </c>
+      <c r="D56">
+        <v>0.15</v>
+      </c>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
+      <c r="F56">
+        <f>C56+D56+E56</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>0.15</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <f>C57+D57+E57</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0.15</v>
+      </c>
+      <c r="D58">
+        <v>0.25</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F55:F69" si="24">C58+D58+E58</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E59">
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="F59">
+        <f>C59+D59+E59</f>
+        <v>9.4117647058823528E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="D60">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E60">
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="F60">
+        <f>C60+D60+E60</f>
+        <v>0.27058823529411763</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61">
+        <v>0.27647058823529413</v>
+      </c>
+      <c r="D61">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E61">
+        <v>1.7647058823529412E-2</v>
+      </c>
+      <c r="F61">
+        <f>C61+D61+E61</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62">
+        <v>0.36470588235294116</v>
+      </c>
+      <c r="D62">
+        <v>6.4705882352941183E-2</v>
+      </c>
+      <c r="E62">
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="24"/>
+        <v>0.45294117647058818</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F63">
+        <f>C63+D63+E63</f>
+        <v>0.43518518518518523</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="F64">
+        <f>C64+D64+E64</f>
+        <v>0.43518518518518517</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D65">
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.25</v>
+      </c>
+      <c r="F65">
+        <f>C65+D65+E65</f>
+        <v>0.43518518518518517</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D66">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="24"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2540,7 +4903,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q17"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +5050,7 @@
         <v>48</v>
       </c>
       <c r="R2">
-        <f>N2-O2</f>
+        <f t="shared" ref="R2:R29" si="1">N2-O2</f>
         <v>13</v>
       </c>
       <c r="S2">
@@ -2697,27 +5060,27 @@
         <v>30</v>
       </c>
       <c r="U2">
-        <f>(O2-S2)/N2</f>
+        <f t="shared" ref="U2:U29" si="2">(O2-S2)/N2</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="V2">
-        <f>(R2-T2+S2)/N2</f>
+        <f t="shared" ref="V2:V29" si="3">(R2-T2+S2)/N2</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="W2">
-        <f xml:space="preserve"> 1 -T2/N2</f>
+        <f t="shared" ref="W2:W29" si="4" xml:space="preserve"> 1 -T2/N2</f>
         <v>0.4642857142857143</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y2">
-        <f>X2/N2</f>
-        <v>0</v>
+        <f t="shared" ref="Y2:Y29" si="5">X2/N2</f>
+        <v>0.10714285714285714</v>
       </c>
       <c r="Z2">
-        <f>1 - (T2*1000 -X2*999)/(1000*N2)</f>
-        <v>0.4642857142857143</v>
+        <f t="shared" ref="Z2:Z25" si="6">1 - (T2*1000 -X2*999)/(1000*N2)</f>
+        <v>0.57132142857142854</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -2744,15 +5107,15 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">(B3-C3)/B3</f>
+        <f t="shared" ref="H3:H13" si="7">(B3-C3)/B3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="2">(D3-F3)/B3</f>
+        <f t="shared" ref="I3:I13" si="8">(D3-F3)/B3</f>
         <v>0.13095238095238096</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="3">K3-H3-I3</f>
+        <f t="shared" ref="J3:J13" si="9">K3-H3-I3</f>
         <v>0.11904761904761899</v>
       </c>
       <c r="K3">
@@ -2775,7 +5138,7 @@
         <v>48</v>
       </c>
       <c r="R3">
-        <f>N3-O3</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S3">
@@ -2785,26 +5148,26 @@
         <v>34</v>
       </c>
       <c r="U3">
-        <f>(O3-S3)/N3</f>
+        <f t="shared" si="2"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="V3">
-        <f>(R3-T3+S3)/N3</f>
+        <f t="shared" si="3"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="W3">
-        <f xml:space="preserve"> 1 -T3/N3</f>
+        <f t="shared" si="4"/>
         <v>0.3928571428571429</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>X3/N3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>1 - (T3*1000 -X3*999)/(1000*N3)</f>
+        <f t="shared" si="6"/>
         <v>0.3928571428571429</v>
       </c>
     </row>
@@ -2832,15 +5195,15 @@
         <v>41</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.9523809523809521E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.11904761904761903</v>
       </c>
       <c r="K4">
@@ -2863,7 +5226,7 @@
         <v>48</v>
       </c>
       <c r="R4">
-        <f>N4-O4</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S4">
@@ -2873,26 +5236,26 @@
         <v>40</v>
       </c>
       <c r="U4">
-        <f>(O4-S4)/N4</f>
+        <f t="shared" si="2"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="V4">
-        <f>(R4-T4+S4)/N4</f>
+        <f t="shared" si="3"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="W4">
-        <f xml:space="preserve"> 1 -T4/N4</f>
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>X4/N4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>1 - (T4*1000 -X4*999)/(1000*N4)</f>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -2920,15 +5283,15 @@
         <v>47</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10714285714285715</v>
       </c>
       <c r="K5">
@@ -2951,7 +5314,7 @@
         <v>48</v>
       </c>
       <c r="R5">
-        <f>N5-O5</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S5">
@@ -2961,26 +5324,26 @@
         <v>47</v>
       </c>
       <c r="U5">
-        <f>(O5-S5)/N5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>(R5-T5+S5)/N5</f>
+        <f t="shared" si="3"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="W5">
-        <f xml:space="preserve"> 1 -T5/N5</f>
+        <f t="shared" si="4"/>
         <v>0.1607142857142857</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>X5/N5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>1 - (T5*1000 -X5*999)/(1000*N5)</f>
+        <f t="shared" si="6"/>
         <v>0.1607142857142857</v>
       </c>
     </row>
@@ -3008,15 +5371,15 @@
         <v>42</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14516129032258066</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.064516129032262E-2</v>
       </c>
       <c r="K6">
@@ -3039,7 +5402,7 @@
         <v>56</v>
       </c>
       <c r="R6">
-        <f>N6-O6</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S6">
@@ -3049,26 +5412,26 @@
         <v>42</v>
       </c>
       <c r="U6">
-        <f>(O6-S6)/N6</f>
+        <f t="shared" si="2"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="V6">
-        <f>(R6-T6+S6)/N6</f>
+        <f t="shared" si="3"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="W6">
-        <f xml:space="preserve"> 1 -T6/N6</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="X6">
         <v>6</v>
       </c>
       <c r="Y6">
-        <f>X6/N6</f>
+        <f t="shared" si="5"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="Z6">
-        <f>1 - (T6*1000 -X6*999)/(1000*N6)</f>
+        <f t="shared" si="6"/>
         <v>0.35703571428571423</v>
       </c>
     </row>
@@ -3086,7 +5449,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E13" si="4">C7-D7</f>
+        <f t="shared" ref="E7:E13" si="10">C7-D7</f>
         <v>8</v>
       </c>
       <c r="F7">
@@ -3096,15 +5459,15 @@
         <v>42</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.14516129032258066</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.064516129032262E-2</v>
       </c>
       <c r="K7">
@@ -3127,7 +5490,7 @@
         <v>56</v>
       </c>
       <c r="R7">
-        <f>N7-O7</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S7">
@@ -3137,26 +5500,26 @@
         <v>42</v>
       </c>
       <c r="U7">
-        <f>(O7-S7)/N7</f>
+        <f t="shared" si="2"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="V7">
-        <f>(R7-T7+S7)/N7</f>
+        <f t="shared" si="3"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="W7">
-        <f xml:space="preserve"> 1 -T7/N7</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <f>X7/N7</f>
+        <f t="shared" si="5"/>
         <v>8.9285714285714288E-2</v>
       </c>
       <c r="Z7">
-        <f>1 - (T7*1000 -X7*999)/(1000*N7)</f>
+        <f t="shared" si="6"/>
         <v>0.33919642857142862</v>
       </c>
     </row>
@@ -3174,7 +5537,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="F8">
@@ -3184,15 +5547,15 @@
         <v>43</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.11290322580645161</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.6774193548387052E-2</v>
       </c>
       <c r="K8">
@@ -3215,7 +5578,7 @@
         <v>56</v>
       </c>
       <c r="R8">
-        <f>N8-O8</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S8">
@@ -3225,26 +5588,26 @@
         <v>43</v>
       </c>
       <c r="U8">
-        <f>(O8-S8)/N8</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="V8">
-        <f>(R8-T8+S8)/N8</f>
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="W8">
-        <f xml:space="preserve"> 1 -T8/N8</f>
+        <f t="shared" si="4"/>
         <v>0.2321428571428571</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8">
-        <f>X8/N8</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="Z8">
-        <f>1 - (T8*1000 -X8*999)/(1000*N8)</f>
+        <f t="shared" si="6"/>
         <v>0.28566071428571427</v>
       </c>
     </row>
@@ -3262,7 +5625,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="F9">
@@ -3272,15 +5635,15 @@
         <v>53</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.8387096774193533E-2</v>
       </c>
       <c r="K9">
@@ -3303,7 +5666,7 @@
         <v>56</v>
       </c>
       <c r="R9">
-        <f>N9-O9</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S9">
@@ -3313,26 +5676,26 @@
         <v>53</v>
       </c>
       <c r="U9">
-        <f>(O9-S9)/N9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>(R9-T9+S9)/N9</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="W9">
-        <f xml:space="preserve"> 1 -T9/N9</f>
+        <f t="shared" si="4"/>
         <v>5.3571428571428603E-2</v>
       </c>
       <c r="X9">
         <v>8</v>
       </c>
       <c r="Y9">
-        <f>X9/N9</f>
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Z9">
-        <f>1 - (T9*1000 -X9*999)/(1000*N9)</f>
+        <f t="shared" si="6"/>
         <v>0.19628571428571429</v>
       </c>
     </row>
@@ -3350,7 +5713,7 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F10">
@@ -3360,15 +5723,15 @@
         <v>28</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="K10">
@@ -3391,7 +5754,7 @@
         <v>40</v>
       </c>
       <c r="R10">
-        <f>N10-O10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S10">
@@ -3401,26 +5764,26 @@
         <v>28</v>
       </c>
       <c r="U10">
-        <f>(O10-S10)/N10</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="V10">
-        <f>(R10-T10+S10)/N10</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="W10">
-        <f xml:space="preserve"> 1 -T10/N10</f>
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="X10">
         <v>4</v>
       </c>
       <c r="Y10">
-        <f>X10/N10</f>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Z10">
-        <f>1 - (T10*1000 -X10*999)/(1000*N10)</f>
+        <f t="shared" si="6"/>
         <v>0.39990000000000003</v>
       </c>
     </row>
@@ -3438,7 +5801,7 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3448,15 +5811,15 @@
         <v>29</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="K11">
@@ -3479,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="R11">
-        <f>N11-O11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S11">
@@ -3489,26 +5852,26 @@
         <v>29</v>
       </c>
       <c r="U11">
-        <f>(O11-S11)/N11</f>
+        <f t="shared" si="2"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="V11">
-        <f>(R11-T11+S11)/N11</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="W11">
-        <f xml:space="preserve"> 1 -T11/N11</f>
+        <f t="shared" si="4"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="X11">
         <v>6</v>
       </c>
       <c r="Y11">
-        <f>X11/N11</f>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
       <c r="Z11">
-        <f>1 - (T11*1000 -X11*999)/(1000*N11)</f>
+        <f t="shared" si="6"/>
         <v>0.42484999999999995</v>
       </c>
     </row>
@@ -3526,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F12">
@@ -3536,15 +5899,15 @@
         <v>32</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.9999999999999961E-2</v>
       </c>
       <c r="K12">
@@ -3567,7 +5930,7 @@
         <v>40</v>
       </c>
       <c r="R12">
-        <f>N12-O12</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S12">
@@ -3577,26 +5940,26 @@
         <v>32</v>
       </c>
       <c r="U12">
-        <f>(O12-S12)/N12</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="V12">
-        <f>(R12-T12+S12)/N12</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="W12">
-        <f xml:space="preserve"> 1 -T12/N12</f>
+        <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X12">
         <v>10</v>
       </c>
       <c r="Y12">
-        <f>X12/N12</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="Z12">
-        <f>1 - (T12*1000 -X12*999)/(1000*N12)</f>
+        <f t="shared" si="6"/>
         <v>0.44974999999999998</v>
       </c>
     </row>
@@ -3614,7 +5977,7 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F13">
@@ -3624,15 +5987,15 @@
         <v>38</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K13">
@@ -3655,7 +6018,7 @@
         <v>40</v>
       </c>
       <c r="R13">
-        <f>N13-O13</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S13">
@@ -3665,26 +6028,26 @@
         <v>38</v>
       </c>
       <c r="U13">
-        <f>(O13-S13)/N13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>(R13-T13+S13)/N13</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="W13">
-        <f xml:space="preserve"> 1 -T13/N13</f>
+        <f t="shared" si="4"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X13">
         <v>15</v>
       </c>
       <c r="Y13">
-        <f>X13/N13</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="Z13">
-        <f>1 - (T13*1000 -X13*999)/(1000*N13)</f>
+        <f t="shared" si="6"/>
         <v>0.42462500000000003</v>
       </c>
     </row>
@@ -3705,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="R14">
-        <f>N14-O14</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S14">
@@ -3715,27 +6078,27 @@
         <v>19</v>
       </c>
       <c r="U14">
-        <f>(O14-S14)/N14</f>
+        <f t="shared" si="2"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="V14">
-        <f>(R14-T14+S14)/N14</f>
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="W14">
-        <f xml:space="preserve"> 1 -T14/N14</f>
+        <f t="shared" si="4"/>
         <v>0.3214285714285714</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <f>X14/N14</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z14">
-        <f>1 - (T14*1000 -X14*999)/(1000*N14)</f>
-        <v>0.3214285714285714</v>
+        <f t="shared" si="6"/>
+        <v>0.35710714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -3755,7 +6118,7 @@
         <v>26</v>
       </c>
       <c r="R15">
-        <f>N15-O15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S15">
@@ -3765,26 +6128,26 @@
         <v>21</v>
       </c>
       <c r="U15">
-        <f>(O15-S15)/N15</f>
+        <f t="shared" si="2"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="V15">
-        <f>(R15-T15+S15)/N15</f>
+        <f t="shared" si="3"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="W15">
-        <f xml:space="preserve"> 1 -T15/N15</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>X15/N15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>1 - (T15*1000 -X15*999)/(1000*N15)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3805,7 +6168,7 @@
         <v>26</v>
       </c>
       <c r="R16">
-        <f>N16-O16</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S16">
@@ -3815,26 +6178,26 @@
         <v>23</v>
       </c>
       <c r="U16">
-        <f>(O16-S16)/N16</f>
+        <f t="shared" si="2"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="V16">
-        <f>(R16-T16+S16)/N16</f>
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="W16">
-        <f xml:space="preserve"> 1 -T16/N16</f>
+        <f t="shared" si="4"/>
         <v>0.1785714285714286</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>X16/N16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>1 - (T16*1000 -X16*999)/(1000*N16)</f>
+        <f t="shared" si="6"/>
         <v>0.1785714285714286</v>
       </c>
     </row>
@@ -3855,7 +6218,7 @@
         <v>26</v>
       </c>
       <c r="R17">
-        <f>N17-O17</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S17">
@@ -3865,26 +6228,26 @@
         <v>25</v>
       </c>
       <c r="U17">
-        <f>(O17-S17)/N17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>(R17-T17+S17)/N17</f>
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="W17">
-        <f xml:space="preserve"> 1 -T17/N17</f>
+        <f t="shared" si="4"/>
         <v>0.1071428571428571</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>X17/N17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>1 - (T17*1000 -X17*999)/(1000*N17)</f>
+        <f t="shared" si="6"/>
         <v>0.1071428571428571</v>
       </c>
     </row>
@@ -3899,7 +6262,7 @@
         <v>109</v>
       </c>
       <c r="R18">
-        <f>N18-O18</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S18">
@@ -3909,23 +6272,23 @@
         <v>73</v>
       </c>
       <c r="U18">
-        <f>(O18-S18)/N18</f>
+        <f t="shared" si="2"/>
         <v>0.34166666666666667</v>
       </c>
       <c r="V18">
-        <f>(R18-T18+S18)/N18</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="W18">
-        <f xml:space="preserve"> 1 -T18/N18</f>
+        <f t="shared" si="4"/>
         <v>0.39166666666666672</v>
       </c>
       <c r="Y18">
-        <f>X18/N18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>1 - (T18*1000 -X18*999)/(1000*N18)</f>
+        <f t="shared" si="6"/>
         <v>0.39166666666666672</v>
       </c>
     </row>
@@ -3940,7 +6303,7 @@
         <v>109</v>
       </c>
       <c r="R19">
-        <f>N19-O19</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S19">
@@ -3950,23 +6313,23 @@
         <v>74</v>
       </c>
       <c r="U19">
-        <f>(O19-S19)/N19</f>
+        <f t="shared" si="2"/>
         <v>0.34166666666666667</v>
       </c>
       <c r="V19">
-        <f>(R19-T19+S19)/N19</f>
+        <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="W19">
-        <f xml:space="preserve"> 1 -T19/N19</f>
+        <f t="shared" si="4"/>
         <v>0.3833333333333333</v>
       </c>
       <c r="Y19">
-        <f>X19/N19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>1 - (T19*1000 -X19*999)/(1000*N19)</f>
+        <f t="shared" si="6"/>
         <v>0.3833333333333333</v>
       </c>
     </row>
@@ -3981,7 +6344,7 @@
         <v>109</v>
       </c>
       <c r="R20">
-        <f>N20-O20</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S20">
@@ -3991,23 +6354,23 @@
         <v>80</v>
       </c>
       <c r="U20">
-        <f>(O20-S20)/N20</f>
+        <f t="shared" si="2"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="V20">
-        <f>(R20-T20+S20)/N20</f>
+        <f t="shared" si="3"/>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="W20">
-        <f xml:space="preserve"> 1 -T20/N20</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="Y20">
-        <f>X20/N20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>1 - (T20*1000 -X20*999)/(1000*N20)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -4022,7 +6385,7 @@
         <v>109</v>
       </c>
       <c r="R21">
-        <f>N21-O21</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S21">
@@ -4032,26 +6395,26 @@
         <v>111</v>
       </c>
       <c r="U21">
-        <f>(O21-S21)/N21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>(R21-T21+S21)/N21</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W21">
-        <f xml:space="preserve"> 1 -T21/N21</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999956E-2</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <f>X21/N21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f>1 - (T21*1000 -X21*999)/(1000*N21)</f>
+        <f t="shared" si="6"/>
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
@@ -4072,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="R22">
-        <f>N22-O22</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S22">
@@ -4082,26 +6445,26 @@
         <v>30</v>
       </c>
       <c r="U22">
-        <f>(O22-S22)/N22</f>
+        <f t="shared" si="2"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="V22">
-        <f>(R22-T22+S22)/N22</f>
+        <f t="shared" si="3"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="W22">
-        <f xml:space="preserve"> 1 -T22/N22</f>
+        <f t="shared" si="4"/>
         <v>0.31818181818181823</v>
       </c>
       <c r="X22">
         <v>3</v>
       </c>
       <c r="Y22">
-        <f>X22/N22</f>
+        <f t="shared" si="5"/>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Z22">
-        <f>1 - (T22*1000 -X22*999)/(1000*N22)</f>
+        <f t="shared" si="6"/>
         <v>0.38629545454545455</v>
       </c>
     </row>
@@ -4122,7 +6485,7 @@
         <v>44</v>
       </c>
       <c r="R23">
-        <f>N23-O23</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S23">
@@ -4132,26 +6495,26 @@
         <v>32</v>
       </c>
       <c r="U23">
-        <f>(O23-S23)/N23</f>
+        <f t="shared" si="2"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="V23">
-        <f>(R23-T23+S23)/N23</f>
+        <f t="shared" si="3"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="W23">
-        <f xml:space="preserve"> 1 -T23/N23</f>
+        <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="X23">
         <v>5</v>
       </c>
       <c r="Y23">
-        <f>X23/N23</f>
+        <f t="shared" si="5"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="Z23">
-        <f>1 - (T23*1000 -X23*999)/(1000*N23)</f>
+        <f t="shared" si="6"/>
         <v>0.38624999999999998</v>
       </c>
     </row>
@@ -4172,7 +6535,7 @@
         <v>44</v>
       </c>
       <c r="R24">
-        <f>N24-O24</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S24">
@@ -4182,26 +6545,26 @@
         <v>35</v>
       </c>
       <c r="U24">
-        <f>(O24-S24)/N24</f>
+        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="V24">
-        <f>(R24-T24+S24)/N24</f>
+        <f t="shared" si="3"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="W24">
-        <f xml:space="preserve"> 1 -T24/N24</f>
+        <f t="shared" si="4"/>
         <v>0.20454545454545459</v>
       </c>
       <c r="X24">
         <v>6</v>
       </c>
       <c r="Y24">
-        <f>X24/N24</f>
+        <f t="shared" si="5"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="Z24">
-        <f>1 - (T24*1000 -X24*999)/(1000*N24)</f>
+        <f t="shared" si="6"/>
         <v>0.34077272727272723</v>
       </c>
     </row>
@@ -4222,7 +6585,7 @@
         <v>44</v>
       </c>
       <c r="R25">
-        <f>N25-O25</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S25">
@@ -4232,26 +6595,26 @@
         <v>38</v>
       </c>
       <c r="U25">
-        <f>(O25-S25)/N25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>(R25-T25+S25)/N25</f>
+        <f t="shared" si="3"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="W25">
-        <f xml:space="preserve"> 1 -T25/N25</f>
+        <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="X25">
         <v>7</v>
       </c>
       <c r="Y25">
-        <f>X25/N25</f>
+        <f t="shared" si="5"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="Z25">
-        <f>1 - (T25*1000 -X25*999)/(1000*N25)</f>
+        <f t="shared" si="6"/>
         <v>0.29529545454545458</v>
       </c>
     </row>
@@ -4266,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="R26">
-        <f>N26-O26</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S26">
@@ -4276,22 +6639,22 @@
         <v>39</v>
       </c>
       <c r="U26">
-        <f>(O26-S26)/N26</f>
+        <f t="shared" si="2"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="V26">
-        <f>(R26-T26+S26)/N26</f>
+        <f t="shared" si="3"/>
         <v>9.2592592592592587E-2</v>
       </c>
       <c r="W26">
-        <f xml:space="preserve"> 1 -T26/N26</f>
+        <f t="shared" si="4"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="X26">
         <v>4</v>
       </c>
       <c r="Y26">
-        <f>X26/N26</f>
+        <f t="shared" si="5"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -4306,7 +6669,7 @@
         <v>46</v>
       </c>
       <c r="R27">
-        <f>N27-O27</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S27">
@@ -4316,22 +6679,22 @@
         <v>40</v>
       </c>
       <c r="U27">
-        <f>(O27-S27)/N27</f>
+        <f t="shared" si="2"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="V27">
-        <f>(R27-T27+S27)/N27</f>
+        <f t="shared" si="3"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="W27">
-        <f xml:space="preserve"> 1 -T27/N27</f>
+        <f t="shared" si="4"/>
         <v>0.2592592592592593</v>
       </c>
       <c r="X27">
         <v>4</v>
       </c>
       <c r="Y27">
-        <f>X27/N27</f>
+        <f t="shared" si="5"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -4346,7 +6709,7 @@
         <v>46</v>
       </c>
       <c r="R28">
-        <f>N28-O28</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S28">
@@ -4356,22 +6719,22 @@
         <v>41</v>
       </c>
       <c r="U28">
-        <f>(O28-S28)/N28</f>
+        <f t="shared" si="2"/>
         <v>0.12962962962962962</v>
       </c>
       <c r="V28">
-        <f>(R28-T28+S28)/N28</f>
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="W28">
-        <f xml:space="preserve"> 1 -T28/N28</f>
+        <f t="shared" si="4"/>
         <v>0.2407407407407407</v>
       </c>
       <c r="X28">
         <v>5</v>
       </c>
       <c r="Y28">
-        <f>X28/N28</f>
+        <f t="shared" si="5"/>
         <v>9.2592592592592587E-2</v>
       </c>
     </row>
@@ -4386,7 +6749,7 @@
         <v>46</v>
       </c>
       <c r="R29">
-        <f>N29-O29</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S29">
@@ -4396,22 +6759,22 @@
         <v>51</v>
       </c>
       <c r="U29">
-        <f>(O29-S29)/N29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>(R29-T29+S29)/N29</f>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W29">
-        <f xml:space="preserve"> 1 -T29/N29</f>
+        <f t="shared" si="4"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="X29">
         <v>8</v>
       </c>
       <c r="Y29">
-        <f>X29/N29</f>
+        <f t="shared" si="5"/>
         <v>0.14814814814814814</v>
       </c>
     </row>
@@ -5793,7 +8156,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,27 +8232,27 @@
         <v>47</v>
       </c>
       <c r="I2">
-        <f>(C2-G2)/B2</f>
+        <f t="shared" ref="I2:I27" si="0">(C2-G2)/B2</f>
         <v>0.35555555555555557</v>
       </c>
       <c r="J2">
-        <f>(D2-H2+G2)/B2</f>
+        <f t="shared" ref="J2:J27" si="1">(D2-H2+G2)/B2</f>
         <v>0.12222222222222222</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 1 -H2/B2</f>
+        <f t="shared" ref="K2:K27" si="2" xml:space="preserve"> 1 -H2/B2</f>
         <v>0.47777777777777775</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <f>L2/B2</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="N2">
-        <f>1 - (H2*1000 -L2*999)/(1000*B2)</f>
-        <v>0.47777777777777775</v>
+        <f t="shared" ref="N2:N23" si="3">1 - (H2*1000 -L2*999)/(1000*B2)</f>
+        <v>0.51107777777777774</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5919,26 +8282,26 @@
         <v>52</v>
       </c>
       <c r="I3">
-        <f>(C3-G3)/B3</f>
+        <f t="shared" si="0"/>
         <v>0.31111111111111112</v>
       </c>
       <c r="J3">
-        <f>(D3-H3+G3)/B3</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K3">
-        <f xml:space="preserve"> 1 -H3/B3</f>
+        <f t="shared" si="2"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <f>L3/B3</f>
+        <f t="shared" ref="M2:M27" si="4">L3/B3</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>1 - (H3*1000 -L3*999)/(1000*B3)</f>
+        <f t="shared" si="3"/>
         <v>0.42222222222222228</v>
       </c>
     </row>
@@ -5969,26 +8332,26 @@
         <v>57</v>
       </c>
       <c r="I4">
-        <f>(C4-G4)/B4</f>
+        <f t="shared" si="0"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="J4">
-        <f>(D4-H4+G4)/B4</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> 1 -H4/B4</f>
+        <f t="shared" si="2"/>
         <v>0.3666666666666667</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f>L4/B4</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>1 - (H4*1000 -L4*999)/(1000*B4)</f>
+        <f t="shared" si="3"/>
         <v>0.3666666666666667</v>
       </c>
     </row>
@@ -6019,26 +8382,26 @@
         <v>62</v>
       </c>
       <c r="I5">
-        <f>(C5-G5)/B5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J5">
-        <f>(D5-H5+G5)/B5</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 1 -H5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.31111111111111112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <f>L5/B5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>1 - (H5*1000 -L5*999)/(1000*B5)</f>
+        <f t="shared" si="3"/>
         <v>0.31111111111111112</v>
       </c>
     </row>
@@ -6069,26 +8432,26 @@
         <v>68</v>
       </c>
       <c r="I6">
-        <f>(C6-G6)/B6</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J6">
-        <f>(D6-H6+G6)/B6</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> 1 -H6/B6</f>
+        <f t="shared" si="2"/>
         <v>0.24444444444444446</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <f>L6/B6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>1 - (H6*1000 -L6*999)/(1000*B6)</f>
+        <f t="shared" si="3"/>
         <v>0.24444444444444446</v>
       </c>
     </row>
@@ -6103,7 +8466,7 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="0">B7-C7</f>
+        <f t="shared" ref="D7" si="5">B7-C7</f>
         <v>13</v>
       </c>
       <c r="E7">
@@ -6119,26 +8482,26 @@
         <v>80</v>
       </c>
       <c r="I7">
-        <f>(C7-G7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>(D7-H7+G7)/B7</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> 1 -H7/B7</f>
+        <f t="shared" si="2"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <f>L7/B7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>1 - (H7*1000 -L7*999)/(1000*B7)</f>
+        <f t="shared" si="3"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
@@ -6153,7 +8516,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D23" si="1">B8-C8</f>
+        <f t="shared" ref="D8:D23" si="6">B8-C8</f>
         <v>6</v>
       </c>
       <c r="E8">
@@ -6169,26 +8532,26 @@
         <v>43</v>
       </c>
       <c r="I8">
-        <f>(C8-G8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="J8">
-        <f>(D8-H8+G8)/B8</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="K8">
-        <f xml:space="preserve"> 1 -H8/B8</f>
+        <f t="shared" si="2"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="L8">
         <v>9</v>
       </c>
       <c r="M8">
-        <f>L8/B8</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="N8">
-        <f>1 - (H8*1000 -L8*999)/(1000*B8)</f>
+        <f t="shared" si="3"/>
         <v>0.43318333333333336</v>
       </c>
     </row>
@@ -6203,7 +8566,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E9">
@@ -6219,26 +8582,26 @@
         <v>44</v>
       </c>
       <c r="I9">
-        <f>(C9-G9)/B9</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J9">
-        <f>(D9-H9+G9)/B9</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="K9">
-        <f xml:space="preserve"> 1 -H9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.26666666666666672</v>
       </c>
       <c r="L9">
         <v>11</v>
       </c>
       <c r="M9">
-        <f>L9/B9</f>
+        <f t="shared" si="4"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="N9">
-        <f>1 - (H9*1000 -L9*999)/(1000*B9)</f>
+        <f t="shared" si="3"/>
         <v>0.44981666666666664</v>
       </c>
     </row>
@@ -6253,7 +8616,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E10">
@@ -6269,26 +8632,26 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <f>(C10-G10)/B10</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J10">
-        <f>(D10-H10+G10)/B10</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K10">
-        <f xml:space="preserve"> 1 -H10/B10</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="L10">
         <v>17</v>
       </c>
       <c r="M10">
-        <f>L10/B10</f>
+        <f t="shared" si="4"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="N10">
-        <f>1 - (H10*1000 -L10*999)/(1000*B10)</f>
+        <f t="shared" si="3"/>
         <v>0.44971666666666665</v>
       </c>
     </row>
@@ -6303,7 +8666,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E11">
@@ -6319,26 +8682,26 @@
         <v>58</v>
       </c>
       <c r="I11">
-        <f>(C11-G11)/B11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>(D11-H11+G11)/B11</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K11">
-        <f xml:space="preserve"> 1 -H11/B11</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333326E-2</v>
       </c>
       <c r="L11">
         <v>25</v>
       </c>
       <c r="M11">
-        <f>L11/B11</f>
+        <f t="shared" si="4"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="N11">
-        <f>1 - (H11*1000 -L11*999)/(1000*B11)</f>
+        <f t="shared" si="3"/>
         <v>0.44958333333333333</v>
       </c>
     </row>
@@ -6353,7 +8716,7 @@
         <v>84</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E12">
@@ -6369,26 +8732,26 @@
         <v>69</v>
       </c>
       <c r="I12">
-        <f>(C12-G12)/B12</f>
+        <f t="shared" si="0"/>
         <v>0.18478260869565216</v>
       </c>
       <c r="J12">
-        <f>(D12-H12+G12)/B12</f>
+        <f t="shared" si="1"/>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="K12">
-        <f xml:space="preserve"> 1 -H12/B12</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="L12">
         <v>12</v>
       </c>
       <c r="M12">
-        <f>L12/B12</f>
+        <f t="shared" si="4"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="N12">
-        <f>1 - (H12*1000 -L12*999)/(1000*B12)</f>
+        <f t="shared" si="3"/>
         <v>0.38030434782608691</v>
       </c>
     </row>
@@ -6403,7 +8766,7 @@
         <v>84</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E13">
@@ -6419,26 +8782,26 @@
         <v>72</v>
       </c>
       <c r="I13">
-        <f>(C13-G13)/B13</f>
+        <f t="shared" si="0"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="J13">
-        <f>(D13-H13+G13)/B13</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="K13">
-        <f xml:space="preserve"> 1 -H13/B13</f>
+        <f t="shared" si="2"/>
         <v>0.21739130434782605</v>
       </c>
       <c r="L13">
         <v>14</v>
       </c>
       <c r="M13">
-        <f>L13/B13</f>
+        <f t="shared" si="4"/>
         <v>0.15217391304347827</v>
       </c>
       <c r="N13">
-        <f>1 - (H13*1000 -L13*999)/(1000*B13)</f>
+        <f t="shared" si="3"/>
         <v>0.36941304347826087</v>
       </c>
     </row>
@@ -6453,7 +8816,7 @@
         <v>84</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E14">
@@ -6469,26 +8832,26 @@
         <v>77</v>
       </c>
       <c r="I14">
-        <f>(C14-G14)/B14</f>
+        <f t="shared" si="0"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="J14">
-        <f>(D14-H14+G14)/B14</f>
+        <f t="shared" si="1"/>
         <v>3.2608695652173912E-2</v>
       </c>
       <c r="K14">
-        <f xml:space="preserve"> 1 -H14/B14</f>
+        <f t="shared" si="2"/>
         <v>0.16304347826086951</v>
       </c>
       <c r="L14">
         <v>17</v>
       </c>
       <c r="M14">
-        <f>L14/B14</f>
+        <f t="shared" si="4"/>
         <v>0.18478260869565216</v>
       </c>
       <c r="N14">
-        <f>1 - (H14*1000 -L14*999)/(1000*B14)</f>
+        <f t="shared" si="3"/>
         <v>0.34764130434782614</v>
       </c>
     </row>
@@ -6503,7 +8866,7 @@
         <v>84</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E15">
@@ -6519,26 +8882,26 @@
         <v>88</v>
       </c>
       <c r="I15">
-        <f>(C15-G15)/B15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>(D15-H15+G15)/B15</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="K15">
-        <f xml:space="preserve"> 1 -H15/B15</f>
+        <f t="shared" si="2"/>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="L15">
         <v>17</v>
       </c>
       <c r="M15">
-        <f>L15/B15</f>
+        <f t="shared" si="4"/>
         <v>0.18478260869565216</v>
       </c>
       <c r="N15">
-        <f>1 - (H15*1000 -L15*999)/(1000*B15)</f>
+        <f t="shared" si="3"/>
         <v>0.22807608695652171</v>
       </c>
     </row>
@@ -6553,7 +8916,7 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E16">
@@ -6569,27 +8932,27 @@
         <v>37</v>
       </c>
       <c r="I16">
-        <f>(C16-G16)/B16</f>
+        <f t="shared" si="0"/>
         <v>0.21153846153846154</v>
       </c>
       <c r="J16">
-        <f>(D16-H16+G16)/B16</f>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="K16">
-        <f xml:space="preserve"> 1 -H16/B16</f>
+        <f t="shared" si="2"/>
         <v>0.28846153846153844</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <f>L16/B16</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="N16">
-        <f>1 - (H16*1000 -L16*999)/(1000*B16)</f>
-        <v>0.28846153846153844</v>
+        <f t="shared" si="3"/>
+        <v>0.30767307692307688</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -6603,7 +8966,7 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E17">
@@ -6619,26 +8982,26 @@
         <v>38</v>
       </c>
       <c r="I17">
-        <f>(C17-G17)/B17</f>
+        <f t="shared" si="0"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="J17">
-        <f>(D17-H17+G17)/B17</f>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="K17">
-        <f xml:space="preserve"> 1 -H17/B17</f>
+        <f t="shared" si="2"/>
         <v>0.26923076923076927</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <f>L17/B17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>1 - (H17*1000 -L17*999)/(1000*B17)</f>
+        <f t="shared" si="3"/>
         <v>0.26923076923076927</v>
       </c>
     </row>
@@ -6653,7 +9016,7 @@
         <v>46</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E18">
@@ -6669,26 +9032,26 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <f>(C18-G18)/B18</f>
+        <f t="shared" si="0"/>
         <v>0.17307692307692307</v>
       </c>
       <c r="J18">
-        <f>(D18-H18+G18)/B18</f>
+        <f t="shared" si="1"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="K18">
-        <f xml:space="preserve"> 1 -H18/B18</f>
+        <f t="shared" si="2"/>
         <v>0.23076923076923073</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <f>L18/B18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>1 - (H18*1000 -L18*999)/(1000*B18)</f>
+        <f t="shared" si="3"/>
         <v>0.23076923076923073</v>
       </c>
     </row>
@@ -6703,7 +9066,7 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E19">
@@ -6719,26 +9082,26 @@
         <v>49</v>
       </c>
       <c r="I19">
-        <f>(C19-G19)/B19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>(D19-H19+G19)/B19</f>
+        <f t="shared" si="1"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="K19">
-        <f xml:space="preserve"> 1 -H19/B19</f>
+        <f t="shared" si="2"/>
         <v>5.7692307692307709E-2</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <f>L19/B19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>1 - (H19*1000 -L19*999)/(1000*B19)</f>
+        <f t="shared" si="3"/>
         <v>5.7692307692307709E-2</v>
       </c>
     </row>
@@ -6753,7 +9116,7 @@
         <v>50</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E20">
@@ -6769,26 +9132,26 @@
         <v>42</v>
       </c>
       <c r="I20">
-        <f>(C20-G20)/B20</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J20">
-        <f>(D20-H20+G20)/B20</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K20">
-        <f xml:space="preserve"> 1 -H20/B20</f>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <f>L20/B20</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N20">
-        <f>1 - (H20*1000 -L20*999)/(1000*B20)</f>
+        <f t="shared" si="3"/>
         <v>0.38324999999999998</v>
       </c>
     </row>
@@ -6803,7 +9166,7 @@
         <v>50</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E21">
@@ -6819,26 +9182,26 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <f>(C21-G21)/B21</f>
+        <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="J21">
-        <f>(D21-H21+G21)/B21</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K21">
-        <f xml:space="preserve"> 1 -H21/B21</f>
+        <f t="shared" si="2"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="L21">
         <v>7</v>
       </c>
       <c r="M21">
-        <f>L21/B21</f>
+        <f t="shared" si="4"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="N21">
-        <f>1 - (H21*1000 -L21*999)/(1000*B21)</f>
+        <f t="shared" si="3"/>
         <v>0.39988333333333337</v>
       </c>
     </row>
@@ -6853,7 +9216,7 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E22">
@@ -6869,26 +9232,26 @@
         <v>47</v>
       </c>
       <c r="I22">
-        <f>(C22-G22)/B22</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J22">
-        <f>(D22-H22+G22)/B22</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K22">
-        <f xml:space="preserve"> 1 -H22/B22</f>
+        <f t="shared" si="2"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="L22">
         <v>11</v>
       </c>
       <c r="M22">
-        <f>L22/B22</f>
+        <f t="shared" si="4"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="N22">
-        <f>1 - (H22*1000 -L22*999)/(1000*B22)</f>
+        <f t="shared" si="3"/>
         <v>0.39981666666666671</v>
       </c>
     </row>
@@ -6903,7 +9266,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E23">
@@ -6919,26 +9282,26 @@
         <v>54</v>
       </c>
       <c r="I23">
-        <f>(C23-G23)/B23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>(D23-H23+G23)/B23</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> 1 -H23/B23</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L23">
         <v>15</v>
       </c>
       <c r="M23">
-        <f>L23/B23</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="N23">
-        <f>1 - (H23*1000 -L23*999)/(1000*B23)</f>
+        <f t="shared" si="3"/>
         <v>0.34975000000000001</v>
       </c>
     </row>
@@ -6953,7 +9316,7 @@
         <v>72</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="2">B24-C24</f>
+        <f t="shared" ref="D24:D27" si="7">B24-C24</f>
         <v>8</v>
       </c>
       <c r="G24">
@@ -6963,22 +9326,22 @@
         <v>60</v>
       </c>
       <c r="I24">
-        <f>(C24-G24)/B24</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="J24">
-        <f>(D24-H24+G24)/B24</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="K24">
-        <f xml:space="preserve"> 1 -H24/B24</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="L24">
         <v>7</v>
       </c>
       <c r="M24">
-        <f>L24/B24</f>
+        <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
@@ -6993,7 +9356,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G25">
@@ -7003,22 +9366,22 @@
         <v>63</v>
       </c>
       <c r="I25">
-        <f>(C25-G25)/B25</f>
+        <f t="shared" si="0"/>
         <v>0.16250000000000001</v>
       </c>
       <c r="J25">
-        <f>(D25-H25+G25)/B25</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="K25">
-        <f xml:space="preserve"> 1 -H25/B25</f>
+        <f t="shared" si="2"/>
         <v>0.21250000000000002</v>
       </c>
       <c r="L25">
         <v>8</v>
       </c>
       <c r="M25">
-        <f>L25/B25</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7033,7 +9396,7 @@
         <v>72</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G26">
@@ -7043,22 +9406,22 @@
         <v>66</v>
       </c>
       <c r="I26">
-        <f>(C26-G26)/B26</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="J26">
-        <f>(D26-H26+G26)/B26</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="K26">
-        <f xml:space="preserve"> 1 -H26/B26</f>
+        <f t="shared" si="2"/>
         <v>0.17500000000000004</v>
       </c>
       <c r="L26">
         <v>8</v>
       </c>
       <c r="M26">
-        <f>L26/B26</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7073,7 +9436,7 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G27">
@@ -7083,22 +9446,22 @@
         <v>76</v>
       </c>
       <c r="I27">
-        <f>(C27-G27)/B27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>(D27-H27+G27)/B27</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="K27">
-        <f xml:space="preserve"> 1 -H27/B27</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L27">
         <v>15</v>
       </c>
       <c r="M27">
-        <f>L27/B27</f>
+        <f t="shared" si="4"/>
         <v>0.1875</v>
       </c>
     </row>
@@ -7317,10 +9680,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B27A2-21B1-4C43-9BB1-40F9A6DF0A3D}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7396,27 +9759,27 @@
         <v>97</v>
       </c>
       <c r="I2">
-        <f>(C2-G2)/B2</f>
+        <f t="shared" ref="I2:I5" si="0">(C2-G2)/B2</f>
         <v>0.36470588235294116</v>
       </c>
       <c r="J2">
-        <f>(D2-H2+G2)/B2</f>
+        <f t="shared" ref="J2:J5" si="1">(D2-H2+G2)/B2</f>
         <v>6.4705882352941183E-2</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 1 -H2/B2</f>
+        <f t="shared" ref="K2:K5" si="2" xml:space="preserve"> 1 -H2/B2</f>
         <v>0.42941176470588238</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <f>L2/B2</f>
-        <v>0</v>
+        <f t="shared" ref="M2:M5" si="3">L2/B2</f>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="N2">
-        <f>1 - (H2*1000 -L2*999)/(1000*B2)</f>
-        <v>0.42941176470588238</v>
+        <f t="shared" ref="N2:N5" si="4">1 - (H2*1000 -L2*999)/(1000*B2)</f>
+        <v>0.45291764705882354</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7446,32 +9809,32 @@
         <v>107</v>
       </c>
       <c r="I3">
-        <f>(C3-G3)/B3</f>
+        <f t="shared" si="0"/>
         <v>0.31176470588235294</v>
       </c>
       <c r="J3">
-        <f>(D3-H3+G3)/B3</f>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="K3">
-        <f xml:space="preserve"> 1 -H3/B3</f>
+        <f t="shared" si="2"/>
         <v>0.37058823529411766</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <f>L3/B3</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="N3">
-        <f>1 - (H3*1000 -L3*999)/(1000*B3)</f>
-        <v>0.37058823529411766</v>
+        <f t="shared" si="4"/>
+        <v>0.39409411764705882</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>170</v>
@@ -7496,32 +9859,32 @@
         <v>117</v>
       </c>
       <c r="I4">
-        <f>(C4-G4)/B4</f>
+        <f t="shared" si="0"/>
         <v>0.25294117647058822</v>
       </c>
       <c r="J4">
-        <f>(D4-H4+G4)/B4</f>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> 1 -H4/B4</f>
+        <f t="shared" si="2"/>
         <v>0.31176470588235294</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <f>L4/B4</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="N4">
-        <f>1 - (H4*1000 -L4*999)/(1000*B4)</f>
-        <v>0.31176470588235294</v>
+        <f t="shared" si="4"/>
+        <v>0.3352705882352941</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>170</v>
@@ -7546,32 +9909,32 @@
         <v>127</v>
       </c>
       <c r="I5">
-        <f>(C5-G5)/B5</f>
+        <f t="shared" si="0"/>
         <v>0.19411764705882353</v>
       </c>
       <c r="J5">
-        <f>(D5-H5+G5)/B5</f>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 1 -H5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.25294117647058822</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <f>L5/B5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="N5">
-        <f>1 - (H5*1000 -L5*999)/(1000*B5)</f>
-        <v>0.25294117647058822</v>
+        <f t="shared" si="4"/>
+        <v>0.27644705882352938</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>170</v>
@@ -7608,20 +9971,20 @@
         <v>0.17647058823529416</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <f>L6/B6</f>
-        <v>0</v>
+        <v>2.3529411764705882E-2</v>
       </c>
       <c r="N6">
         <f>1 - (H6*1000 -L6*999)/(1000*B6)</f>
-        <v>0.17647058823529416</v>
+        <v>0.19997647058823531</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>170</v>
@@ -7630,148 +9993,136 @@
         <v>157</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D23" si="0">B7-C7</f>
+        <f t="shared" ref="D7:D8" si="5">B7-C7</f>
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>530</v>
-      </c>
-      <c r="F7">
-        <v>144</v>
-      </c>
       <c r="G7">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="I7">
-        <f>(C7-G7)/B7</f>
-        <v>0</v>
+        <f t="shared" ref="I7:I8" si="6">(C7-G7)/B7</f>
+        <v>0.27647058823529413</v>
       </c>
       <c r="J7">
-        <f>(D7-H7+G7)/B7</f>
+        <f t="shared" ref="J7:J8" si="7">(D7-H7+G7)/B7</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> 1 -H7/B7</f>
-        <v>5.8823529411764719E-2</v>
+        <f t="shared" ref="K7:K8" si="8" xml:space="preserve"> 1 -H7/B7</f>
+        <v>0.33529411764705885</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <f>L7/B7</f>
-        <v>0</v>
+        <f t="shared" ref="M7:M8" si="9">L7/B7</f>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="N7">
-        <f>1 - (H7*1000 -L7*999)/(1000*B7)</f>
-        <v>5.8823529411764719E-2</v>
+        <f t="shared" ref="N7:N8" si="10">1 - (H7*1000 -L7*999)/(1000*B7)</f>
+        <v>0.35292352941176475</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>127</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>108</v>
-      </c>
-      <c r="F8">
-        <v>108</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="H8">
-        <v>81</v>
-      </c>
-      <c r="I8">
-        <f>(C8-G8)/B8</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="J8">
-        <f>(D8-H8+G8)/B8</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="K8">
-        <f xml:space="preserve"> 1 -H8/B8</f>
-        <v>0.25</v>
-      </c>
-      <c r="L8">
-        <v>21</v>
-      </c>
       <c r="M8">
-        <f>L8/B8</f>
-        <v>0.19444444444444445</v>
+        <f t="shared" si="9"/>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="N8">
-        <f>1 - (H8*1000 -L8*999)/(1000*B8)</f>
-        <v>0.44425000000000003</v>
+        <f t="shared" si="10"/>
+        <v>0.27055294117647055</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="D9:D25" si="11">B9-C9</f>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>108</v>
+        <v>530</v>
       </c>
       <c r="F9">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G9">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I9">
         <f>(C9-G9)/B9</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>(D9-H9+G9)/B9</f>
-        <v>1.8518518518518517E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K9">
         <f xml:space="preserve"> 1 -H9/B9</f>
-        <v>0.18518518518518523</v>
+        <v>5.8823529411764719E-2</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <f>L9/B9</f>
-        <v>0.25925925925925924</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="N9">
         <f>1 - (H9*1000 -L9*999)/(1000*B9)</f>
-        <v>0.44418518518518524</v>
+        <v>9.4082352941176506E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>108</v>
@@ -7780,7 +10131,7 @@
         <v>102</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E10">
@@ -7790,38 +10141,38 @@
         <v>108</v>
       </c>
       <c r="G10">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H10">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <f>(C10-G10)/B10</f>
-        <v>9.2592592592592587E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="J10">
         <f>(D10-H10+G10)/B10</f>
-        <v>1.8518518518518517E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K10">
         <f xml:space="preserve"> 1 -H10/B10</f>
-        <v>0.11111111111111116</v>
+        <v>0.25</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <f>L10/B10</f>
-        <v>0.35185185185185186</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="N10">
         <f>1 - (H10*1000 -L10*999)/(1000*B10)</f>
-        <v>0.46261111111111108</v>
+        <v>0.44425000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>108</v>
@@ -7830,7 +10181,7 @@
         <v>102</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E11">
@@ -7840,14 +10191,14 @@
         <v>108</v>
       </c>
       <c r="G11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H11">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <f>(C11-G11)/B11</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J11">
         <f>(D11-H11+G11)/B11</f>
@@ -7855,277 +10206,311 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> 1 -H11/B11</f>
-        <v>1.851851851851849E-2</v>
+        <v>0.18518518518518523</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <f>L11/B11</f>
-        <v>0.45370370370370372</v>
+        <v>0.25</v>
       </c>
       <c r="N11">
         <f>1 - (H11*1000 -L11*999)/(1000*B11)</f>
-        <v>0.47176851851851853</v>
+        <v>0.43493518518518515</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>108</v>
       </c>
       <c r="F12">
-        <v>186</v>
+        <v>108</v>
+      </c>
+      <c r="G12">
+        <v>92</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
       </c>
       <c r="I12">
         <f>(C12-G12)/B12</f>
-        <v>0.9550561797752809</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="J12">
         <f>(D12-H12+G12)/B12</f>
-        <v>4.49438202247191E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="K12">
         <f xml:space="preserve"> 1 -H12/B12</f>
-        <v>1</v>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
       </c>
       <c r="M12">
         <f>L12/B12</f>
-        <v>0</v>
+        <v>0.32407407407407407</v>
       </c>
       <c r="N12">
         <f>1 - (H12*1000 -L12*999)/(1000*B12)</f>
-        <v>1</v>
+        <v>0.43486111111111114</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>108</v>
       </c>
       <c r="F13">
-        <v>186</v>
+        <v>108</v>
+      </c>
+      <c r="G13">
+        <v>102</v>
+      </c>
+      <c r="H13">
+        <v>106</v>
       </c>
       <c r="I13">
         <f>(C13-G13)/B13</f>
-        <v>0.9550561797752809</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f>(D13-H13+G13)/B13</f>
-        <v>4.49438202247191E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="K13">
         <f xml:space="preserve"> 1 -H13/B13</f>
-        <v>1</v>
+        <v>1.851851851851849E-2</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
       </c>
       <c r="M13">
         <f>L13/B13</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N13">
         <f>1 - (H13*1000 -L13*999)/(1000*B13)</f>
-        <v>1</v>
+        <v>0.4347685185185185</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B14">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F14">
         <v>186</v>
       </c>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>73</v>
+      </c>
       <c r="I14">
         <f>(C14-G14)/B14</f>
-        <v>0.9550561797752809</v>
+        <v>0.21</v>
       </c>
       <c r="J14">
         <f>(D14-H14+G14)/B14</f>
-        <v>4.49438202247191E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K14">
         <f xml:space="preserve"> 1 -H14/B14</f>
-        <v>1</v>
+        <v>0.27</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
       </c>
       <c r="M14">
         <f>L14/B14</f>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N14">
         <f>1 - (H14*1000 -L14*999)/(1000*B14)</f>
-        <v>1</v>
+        <v>0.33992999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B15">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F15">
         <v>186</v>
       </c>
       <c r="G15">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="H15">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <f>(C15-G15)/B15</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J15">
         <f>(D15-H15+G15)/B15</f>
-        <v>2.8089887640449437E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K15">
         <f xml:space="preserve"> 1 -H15/B15</f>
-        <v>2.8089887640449396E-2</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <f>L15/B15</f>
+        <v>0.1</v>
       </c>
       <c r="N15">
         <f>1 - (H15*1000 -L15*999)/(1000*B15)</f>
-        <v>0.26942134831460673</v>
+        <v>0.30989999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G16">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <f>(C16-G16)/B16</f>
-        <v>0.27692307692307694</v>
+        <v>0.13</v>
       </c>
       <c r="J16">
         <f>(D16-H16+G16)/B16</f>
-        <v>4.6153846153846156E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K16">
         <f xml:space="preserve"> 1 -H16/B16</f>
-        <v>0.32307692307692304</v>
+        <v>0.18000000000000005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <f>L16/B16</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N16">
         <f>1 - (H16*1000 -L16*999)/(1000*B16)</f>
-        <v>0.32307692307692304</v>
+        <v>0.28988999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17">
         <v>100</v>
       </c>
-      <c r="B17">
-        <v>130</v>
-      </c>
       <c r="C17">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <f>(C17-G17)/B17</f>
-        <v>0.22307692307692309</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <f>(D17-H17+G17)/B17</f>
-        <v>5.3846153846153849E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K17">
         <f xml:space="preserve"> 1 -H17/B17</f>
-        <v>0.27692307692307694</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M17">
         <f>L17/B17</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N17">
         <f>1 - (H17*1000 -L17*999)/(1000*B17)</f>
-        <v>0.27692307692307694</v>
+        <v>0.24978</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -8134,45 +10519,45 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F18">
         <v>132</v>
       </c>
       <c r="G18">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H18">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I18">
         <f>(C18-G18)/B18</f>
-        <v>0.13846153846153847</v>
+        <v>0.27692307692307694</v>
       </c>
       <c r="J18">
         <f>(D18-H18+G18)/B18</f>
-        <v>3.8461538461538464E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="K18">
         <f xml:space="preserve"> 1 -H18/B18</f>
-        <v>0.17692307692307696</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <f>L18/B18</f>
-        <v>0</v>
+        <f t="shared" ref="M18:M25" si="12">L18/B18</f>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="N18">
         <f>1 - (H18*1000 -L18*999)/(1000*B18)</f>
-        <v>0.17692307692307696</v>
+        <v>0.33076153846153844</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -8181,145 +10566,139 @@
         <v>120</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F19">
         <v>132</v>
       </c>
       <c r="G19">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H19">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I19">
         <f>(C19-G19)/B19</f>
-        <v>0</v>
+        <v>0.22307692307692309</v>
       </c>
       <c r="J19">
         <f>(D19-H19+G19)/B19</f>
-        <v>6.1538461538461542E-2</v>
+        <v>5.3846153846153849E-2</v>
       </c>
       <c r="K19">
         <f xml:space="preserve"> 1 -H19/B19</f>
-        <v>6.1538461538461542E-2</v>
+        <v>0.27692307692307694</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <f>L19/B19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N19">
         <f>1 - (H19*1000 -L19*999)/(1000*B19)</f>
-        <v>6.1538461538461542E-2</v>
+        <v>0.27692307692307694</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C20">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>610</v>
-      </c>
       <c r="F20">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H20">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I20">
         <f>(C20-G20)/B20</f>
-        <v>0.21296296296296297</v>
+        <v>0.13846153846153847</v>
       </c>
       <c r="J20">
         <f>(D20-H20+G20)/B20</f>
-        <v>5.5555555555555552E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="K20">
         <f xml:space="preserve"> 1 -H20/B20</f>
-        <v>0.26851851851851849</v>
+        <v>0.17692307692307696</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <f>L20/B20</f>
-        <v>0.15740740740740741</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N20">
         <f>1 - (H20*1000 -L20*999)/(1000*B20)</f>
-        <v>0.42576851851851849</v>
+        <v>0.17692307692307696</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C21">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="E21">
-        <v>610</v>
-      </c>
       <c r="F21">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H21">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I21">
         <f>(C21-G21)/B21</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f>(D21-H21+G21)/B21</f>
-        <v>4.6296296296296294E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="K21">
         <f xml:space="preserve"> 1 -H21/B21</f>
-        <v>0.21296296296296291</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <f>L21/B21</f>
-        <v>0.21296296296296297</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N21">
         <f>1 - (H21*1000 -L21*999)/(1000*B21)</f>
-        <v>0.42571296296296302</v>
+        <v>6.1538461538461542E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>108</v>
@@ -8328,7 +10707,7 @@
         <v>98</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E22">
@@ -8338,33 +10717,33 @@
         <v>108</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <f>(C22-G22)/B22</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="J22">
         <f>(D22-H22+G22)/B22</f>
-        <v>4.6296296296296294E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K22">
         <f xml:space="preserve"> 1 -H22/B22</f>
-        <v>0.12037037037037035</v>
+        <v>0.26851851851851849</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <f>L22/B22</f>
-        <v>0.32407407407407407</v>
+        <f t="shared" si="12"/>
+        <v>0.15740740740740741</v>
       </c>
       <c r="N22">
         <f>1 - (H22*1000 -L22*999)/(1000*B22)</f>
-        <v>0.44412037037037033</v>
+        <v>0.42576851851851849</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8378,7 +10757,7 @@
         <v>98</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E23">
@@ -8388,32 +10767,132 @@
         <v>108</v>
       </c>
       <c r="G23">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <f>(C23-G23)/B23</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J23">
         <f>(D23-H23+G23)/B23</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.6296296296296294E-2</v>
       </c>
       <c r="K23">
         <f xml:space="preserve"> 1 -H23/B23</f>
-        <v>5.555555555555558E-2</v>
+        <v>0.21296296296296291</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <f>L23/B23</f>
-        <v>0.3611111111111111</v>
+        <f t="shared" si="12"/>
+        <v>0.21296296296296297</v>
       </c>
       <c r="N23">
         <f>1 - (H23*1000 -L23*999)/(1000*B23)</f>
+        <v>0.42571296296296302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24">
+        <v>108</v>
+      </c>
+      <c r="C24">
+        <v>98</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>610</v>
+      </c>
+      <c r="F24">
+        <v>108</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>95</v>
+      </c>
+      <c r="I24">
+        <f>(C24-G24)/B24</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="J24">
+        <f>(D24-H24+G24)/B24</f>
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="K24">
+        <f xml:space="preserve"> 1 -H24/B24</f>
+        <v>0.12037037037037035</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="12"/>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="N24">
+        <f>1 - (H24*1000 -L24*999)/(1000*B24)</f>
+        <v>0.44412037037037033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>98</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>610</v>
+      </c>
+      <c r="F25">
+        <v>108</v>
+      </c>
+      <c r="G25">
+        <v>98</v>
+      </c>
+      <c r="H25">
+        <v>102</v>
+      </c>
+      <c r="I25">
+        <f>(C25-G25)/B25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>(D25-H25+G25)/B25</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> 1 -H25/B25</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="L25">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="12"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="N25">
+        <f>1 - (H25*1000 -L25*999)/(1000*B25)</f>
         <v>0.4163055555555556</v>
       </c>
     </row>
